--- a/apartments.xlsx
+++ b/apartments.xlsx
@@ -24,7 +24,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2811">
+  <fills count="2797">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -16807,190 +16807,8 @@
         <bgColor/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2810">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="2796">
     <border>
       <left/>
       <right/>
@@ -36567,7 +36385,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2810">
+  <cellXfs count="2796">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment/>
@@ -44952,48 +44770,6 @@
       <alignment/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2795" fillId="2796" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2796" fillId="2797" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2797" fillId="2798" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2798" fillId="2799" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2799" fillId="2800" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2800" fillId="2801" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2801" fillId="2802" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2802" fillId="2803" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2803" fillId="2804" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2804" fillId="2805" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2805" fillId="2806" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2806" fillId="2807" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2807" fillId="2808" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2808" fillId="2809" fontId="0" numFmtId="0" xfId="0">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2809" fillId="2810" fontId="0" numFmtId="0" xfId="0">
       <alignment/>
     </xf>
   </cellXfs>
@@ -45263,6 +45039,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <sheetPr filterMode="true"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
@@ -45270,8 +45047,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="50"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="63" min="2" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="64" min="64" style="0" width="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -45279,203 +45056,200 @@
         <v>Название</v>
       </c>
       <c r="B1" t="str">
+        <v>Октябрь</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>Ноябрь</v>
+      </c>
+      <c r="BL1" t="str">
         <v>Ссылка</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Тип квартиры</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Октябрь</v>
-      </c>
-      <c r="AI1" t="str">
-        <v>Ноябрь</v>
       </c>
     </row>
     <row r="2">
+      <c r="B2" t="str">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2</v>
+      </c>
       <c r="D2" t="str">
+        <v>3</v>
+      </c>
+      <c r="E2" t="str">
+        <v>4</v>
+      </c>
+      <c r="F2" t="str">
+        <v>5</v>
+      </c>
+      <c r="G2" t="str">
+        <v>6</v>
+      </c>
+      <c r="H2" t="str">
+        <v>7</v>
+      </c>
+      <c r="I2" t="str">
+        <v>8</v>
+      </c>
+      <c r="J2" t="str">
+        <v>9</v>
+      </c>
+      <c r="K2" t="str">
+        <v>10</v>
+      </c>
+      <c r="L2" t="str">
+        <v>11</v>
+      </c>
+      <c r="M2" t="str">
+        <v>12</v>
+      </c>
+      <c r="N2" t="str">
+        <v>13</v>
+      </c>
+      <c r="O2" t="str">
+        <v>14</v>
+      </c>
+      <c r="P2" t="str">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>16</v>
+      </c>
+      <c r="R2" t="str">
+        <v>17</v>
+      </c>
+      <c r="S2" t="str">
+        <v>18</v>
+      </c>
+      <c r="T2" t="str">
+        <v>19</v>
+      </c>
+      <c r="U2" t="str">
+        <v>20</v>
+      </c>
+      <c r="V2" t="str">
+        <v>21</v>
+      </c>
+      <c r="W2" t="str">
+        <v>22</v>
+      </c>
+      <c r="X2" t="str">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>25</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="str">
+        <v>28</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>30</v>
+      </c>
+      <c r="AF2" t="str">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="str">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
+      <c r="AH2" t="str">
         <v>2</v>
       </c>
-      <c r="F2" t="str">
+      <c r="AI2" t="str">
         <v>3</v>
       </c>
-      <c r="G2" t="str">
+      <c r="AJ2" t="str">
         <v>4</v>
       </c>
-      <c r="H2" t="str">
+      <c r="AK2" t="str">
         <v>5</v>
       </c>
-      <c r="I2" t="str">
+      <c r="AL2" t="str">
         <v>6</v>
       </c>
-      <c r="J2" t="str">
+      <c r="AM2" t="str">
         <v>7</v>
       </c>
-      <c r="K2" t="str">
+      <c r="AN2" t="str">
         <v>8</v>
       </c>
-      <c r="L2" t="str">
+      <c r="AO2" t="str">
         <v>9</v>
       </c>
-      <c r="M2" t="str">
+      <c r="AP2" t="str">
         <v>10</v>
       </c>
-      <c r="N2" t="str">
+      <c r="AQ2" t="str">
         <v>11</v>
       </c>
-      <c r="O2" t="str">
+      <c r="AR2" t="str">
         <v>12</v>
       </c>
-      <c r="P2" t="str">
+      <c r="AS2" t="str">
         <v>13</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="AT2" t="str">
         <v>14</v>
       </c>
-      <c r="R2" t="str">
+      <c r="AU2" t="str">
         <v>15</v>
       </c>
-      <c r="S2" t="str">
+      <c r="AV2" t="str">
         <v>16</v>
       </c>
-      <c r="T2" t="str">
+      <c r="AW2" t="str">
         <v>17</v>
       </c>
-      <c r="U2" t="str">
+      <c r="AX2" t="str">
         <v>18</v>
       </c>
-      <c r="V2" t="str">
+      <c r="AY2" t="str">
         <v>19</v>
       </c>
-      <c r="W2" t="str">
+      <c r="AZ2" t="str">
         <v>20</v>
       </c>
-      <c r="X2" t="str">
+      <c r="BA2" t="str">
         <v>21</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="BB2" t="str">
         <v>22</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="BC2" t="str">
         <v>23</v>
       </c>
-      <c r="AA2" t="str">
+      <c r="BD2" t="str">
         <v>24</v>
       </c>
-      <c r="AB2" t="str">
+      <c r="BE2" t="str">
         <v>25</v>
       </c>
-      <c r="AC2" t="str">
+      <c r="BF2" t="str">
         <v>26</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="BG2" t="str">
         <v>27</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="BH2" t="str">
         <v>28</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="BI2" t="str">
         <v>29</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="BJ2" t="str">
         <v>30</v>
       </c>
-      <c r="AH2" t="str">
-        <v>31</v>
-      </c>
-      <c r="AI2" t="str">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="str">
-        <v>2</v>
-      </c>
-      <c r="AK2" t="str">
-        <v>3</v>
-      </c>
-      <c r="AL2" t="str">
-        <v>4</v>
-      </c>
-      <c r="AM2" t="str">
-        <v>5</v>
-      </c>
-      <c r="AN2" t="str">
-        <v>6</v>
-      </c>
-      <c r="AO2" t="str">
-        <v>7</v>
-      </c>
-      <c r="AP2" t="str">
-        <v>8</v>
-      </c>
-      <c r="AQ2" t="str">
-        <v>9</v>
-      </c>
-      <c r="AR2" t="str">
-        <v>10</v>
-      </c>
-      <c r="AS2" t="str">
-        <v>11</v>
-      </c>
-      <c r="AT2" t="str">
-        <v>12</v>
-      </c>
-      <c r="AU2" t="str">
-        <v>13</v>
-      </c>
-      <c r="AV2" t="str">
-        <v>14</v>
-      </c>
-      <c r="AW2" t="str">
-        <v>15</v>
-      </c>
-      <c r="AX2" t="str">
-        <v>16</v>
-      </c>
-      <c r="AY2" t="str">
-        <v>17</v>
-      </c>
-      <c r="AZ2" t="str">
-        <v>18</v>
-      </c>
-      <c r="BA2" t="str">
-        <v>19</v>
-      </c>
-      <c r="BB2" t="str">
-        <v>20</v>
-      </c>
-      <c r="BC2" t="str">
-        <v>21</v>
-      </c>
-      <c r="BD2" t="str">
-        <v>22</v>
-      </c>
-      <c r="BE2" t="str">
-        <v>23</v>
-      </c>
-      <c r="BF2" t="str">
-        <v>24</v>
-      </c>
-      <c r="BG2" t="str">
-        <v>25</v>
-      </c>
-      <c r="BH2" t="str">
-        <v>26</v>
-      </c>
-      <c r="BI2" t="str">
-        <v>27</v>
-      </c>
-      <c r="BJ2" t="str">
-        <v>28</v>
-      </c>
       <c r="BK2" t="str">
-        <v>29</v>
-      </c>
-      <c r="BL2" t="str">
-        <v>30</v>
-      </c>
-      <c r="BM2" t="str">
         <v>31</v>
       </c>
     </row>
@@ -45483,102 +45257,99 @@
       <c r="A3" t="str">
         <v>квартира-студия, 21 м², 3/3 эт.</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str"/>
+      <c r="C3" s="2" t="str"/>
+      <c r="D3" s="3" t="str"/>
+      <c r="E3" s="4" t="str"/>
+      <c r="F3" s="5" t="str"/>
+      <c r="G3" s="6" t="str"/>
+      <c r="H3" s="7" t="str"/>
+      <c r="I3" s="8" t="str"/>
+      <c r="J3" s="9" t="str"/>
+      <c r="K3" s="10" t="str"/>
+      <c r="L3" s="11" t="str"/>
+      <c r="M3" s="12" t="str"/>
+      <c r="N3" s="13" t="str"/>
+      <c r="O3" s="14" t="str"/>
+      <c r="P3" s="15" t="str"/>
+      <c r="Q3" s="16" t="str"/>
+      <c r="R3" s="17" t="str"/>
+      <c r="S3" s="18" t="str"/>
+      <c r="T3" s="19" t="str"/>
+      <c r="U3" s="20" t="str"/>
+      <c r="V3" s="21" t="str"/>
+      <c r="W3" s="22" t="str"/>
+      <c r="X3" s="23" t="str"/>
+      <c r="Y3" s="24" t="str"/>
+      <c r="Z3" s="25" t="str"/>
+      <c r="AA3" s="26" t="str"/>
+      <c r="AB3" s="27" t="str"/>
+      <c r="AC3" s="28" t="str"/>
+      <c r="AD3" s="29" t="str"/>
+      <c r="AE3" s="30" t="str"/>
+      <c r="AF3" s="31" t="str"/>
+      <c r="AG3" s="32" t="str"/>
+      <c r="AH3" s="33" t="str"/>
+      <c r="AI3" s="34" t="str"/>
+      <c r="AJ3" s="35" t="str"/>
+      <c r="AK3" s="36" t="str"/>
+      <c r="AL3" s="37" t="str"/>
+      <c r="AM3" s="38" t="str"/>
+      <c r="AN3" s="39" t="str"/>
+      <c r="AO3" s="40" t="str"/>
+      <c r="AP3" s="41" t="str"/>
+      <c r="AQ3" s="42" t="str"/>
+      <c r="AR3" s="43" t="str"/>
+      <c r="AS3" s="44" t="str"/>
+      <c r="AT3" s="45" t="str"/>
+      <c r="AU3" s="46" t="str"/>
+      <c r="AV3" s="47" t="str"/>
+      <c r="AW3" s="48" t="str"/>
+      <c r="AX3" s="49" t="str"/>
+      <c r="AY3" s="50" t="str"/>
+      <c r="AZ3" s="51" t="str"/>
+      <c r="BA3" s="52" t="str"/>
+      <c r="BB3" s="53" t="str"/>
+      <c r="BC3" s="54" t="str"/>
+      <c r="BD3" s="55" t="str"/>
+      <c r="BE3" s="56" t="str"/>
+      <c r="BF3" s="57" t="str"/>
+      <c r="BG3" s="58" t="str"/>
+      <c r="BH3" s="59" t="str"/>
+      <c r="BI3" s="60" t="str"/>
+      <c r="BJ3" s="61" t="str"/>
+      <c r="BK3" s="62" t="str"/>
+      <c r="BL3" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/kvartira-studiya_21_m_33_et._4465926250</v>
       </c>
-      <c r="C3" t="str">
-        <v>студии</v>
-      </c>
-      <c r="D3" s="1" t="str"/>
-      <c r="E3" s="2" t="str"/>
-      <c r="F3" s="3" t="str"/>
-      <c r="G3" s="4" t="str"/>
-      <c r="H3" s="5" t="str"/>
-      <c r="I3" s="6" t="str"/>
-      <c r="J3" s="7" t="str"/>
-      <c r="K3" s="8" t="str"/>
-      <c r="L3" s="9" t="str"/>
-      <c r="M3" s="10" t="str"/>
-      <c r="N3" s="11" t="str"/>
-      <c r="O3" s="12" t="str"/>
-      <c r="P3" s="13" t="str"/>
-      <c r="Q3" s="14" t="str"/>
-      <c r="R3" s="15" t="str"/>
-      <c r="S3" s="16" t="str"/>
-      <c r="T3" s="17" t="str"/>
-      <c r="U3" s="18" t="str"/>
-      <c r="V3" s="19" t="str"/>
-      <c r="W3" s="20" t="str"/>
-      <c r="X3" s="21" t="str"/>
-      <c r="Y3" s="22" t="str"/>
-      <c r="Z3" s="23" t="str"/>
-      <c r="AA3" s="24" t="str"/>
-      <c r="AB3" s="25" t="str"/>
-      <c r="AC3" s="26" t="str"/>
-      <c r="AD3" s="27" t="str"/>
-      <c r="AE3" s="28" t="str"/>
-      <c r="AF3" s="29" t="str"/>
-      <c r="AG3" s="30" t="str"/>
-      <c r="AH3" s="31" t="str"/>
-      <c r="AI3" s="32" t="str"/>
-      <c r="AJ3" s="33" t="str"/>
-      <c r="AK3" s="34" t="str"/>
-      <c r="AL3" s="35" t="str"/>
-      <c r="AM3" s="36" t="str"/>
-      <c r="AN3" s="37" t="str"/>
-      <c r="AO3" s="38" t="str"/>
-      <c r="AP3" s="39" t="str"/>
-      <c r="AQ3" s="40" t="str"/>
-      <c r="AR3" s="41" t="str"/>
-      <c r="AS3" s="42" t="str"/>
-      <c r="AT3" s="43" t="str"/>
-      <c r="AU3" s="44" t="str"/>
-      <c r="AV3" s="45" t="str"/>
-      <c r="AW3" s="46" t="str"/>
-      <c r="AX3" s="47" t="str"/>
-      <c r="AY3" s="48" t="str"/>
-      <c r="AZ3" s="49" t="str"/>
-      <c r="BA3" s="50" t="str"/>
-      <c r="BB3" s="51" t="str"/>
-      <c r="BC3" s="52" t="str"/>
-      <c r="BD3" s="53" t="str"/>
-      <c r="BE3" s="54" t="str"/>
-      <c r="BF3" s="55" t="str"/>
-      <c r="BG3" s="56" t="str"/>
-      <c r="BH3" s="57" t="str"/>
-      <c r="BI3" s="58" t="str"/>
-      <c r="BJ3" s="59" t="str"/>
-      <c r="BK3" s="60" t="str"/>
-      <c r="BL3" s="61" t="str"/>
-      <c r="BM3" s="62" t="str"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>квартира-студия, 32 м², 2/4 эт.</v>
       </c>
-      <c r="B4" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/kvartira-studiya_32_m_24_et._1855124981</v>
-      </c>
-      <c r="C4" t="str">
-        <v>студии</v>
-      </c>
-      <c r="D4" s="63" t="str"/>
-      <c r="E4" s="64" t="str"/>
-      <c r="F4" s="65" t="str"/>
-      <c r="G4" s="66" t="str"/>
-      <c r="H4" s="67" t="str"/>
-      <c r="I4" s="68" t="str"/>
-      <c r="J4" s="69" t="str"/>
-      <c r="K4" s="70" t="str"/>
-      <c r="L4" s="71" t="str"/>
-      <c r="M4" s="72" t="str"/>
-      <c r="N4" s="73" t="str"/>
-      <c r="O4" s="74" t="str"/>
-      <c r="P4" s="75" t="str"/>
-      <c r="Q4" s="76" t="str"/>
-      <c r="R4" s="77" t="str"/>
-      <c r="S4" s="78" t="str"/>
-      <c r="T4" s="79" t="str"/>
+      <c r="B4" s="63" t="str"/>
+      <c r="C4" s="64" t="str"/>
+      <c r="D4" s="65" t="str"/>
+      <c r="E4" s="66" t="str"/>
+      <c r="F4" s="67" t="str"/>
+      <c r="G4" s="68" t="str"/>
+      <c r="H4" s="69" t="str"/>
+      <c r="I4" s="70" t="str"/>
+      <c r="J4" s="71" t="str"/>
+      <c r="K4" s="72" t="str"/>
+      <c r="L4" s="73" t="str"/>
+      <c r="M4" s="74" t="str"/>
+      <c r="N4" s="75" t="str"/>
+      <c r="O4" s="76" t="str"/>
+      <c r="P4" s="77" t="str"/>
+      <c r="Q4" s="78" t="str"/>
+      <c r="R4" s="79" t="str"/>
+      <c r="S4" t="str">
+        <v>6500</v>
+      </c>
+      <c r="T4" t="str">
+        <v>6500</v>
+      </c>
       <c r="U4" t="str">
         <v>6500</v>
       </c>
@@ -45705,71 +45476,68 @@
       <c r="BJ4" t="str">
         <v>6500</v>
       </c>
-      <c r="BK4" t="str">
-        <v>6500</v>
-      </c>
+      <c r="BK4" s="80" t="str"/>
       <c r="BL4" t="str">
-        <v>6500</v>
-      </c>
-      <c r="BM4" s="80" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/kvartira-studiya_32_m_24_et._1855124981</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>квартира-студия, 26 м², 4/5 эт.</v>
       </c>
-      <c r="B5" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/kvartira-studiya_26_m_45_et._1614963811</v>
-      </c>
-      <c r="C5" t="str">
-        <v>студии</v>
-      </c>
-      <c r="D5" s="81" t="str"/>
-      <c r="E5" s="82" t="str"/>
-      <c r="F5" s="83" t="str"/>
-      <c r="G5" s="84" t="str"/>
-      <c r="H5" s="85" t="str"/>
-      <c r="I5" s="86" t="str"/>
-      <c r="J5" s="87" t="str"/>
-      <c r="K5" s="88" t="str"/>
-      <c r="L5" s="89" t="str"/>
-      <c r="M5" s="90" t="str"/>
-      <c r="N5" s="91" t="str"/>
-      <c r="O5" s="92" t="str"/>
-      <c r="P5" s="93" t="str"/>
-      <c r="Q5" s="94" t="str"/>
-      <c r="R5" s="95" t="str"/>
-      <c r="S5" s="96" t="str"/>
-      <c r="T5" s="97" t="str"/>
-      <c r="U5" s="98" t="str"/>
-      <c r="V5" s="99" t="str"/>
-      <c r="W5" s="100" t="str"/>
-      <c r="X5" s="101" t="str"/>
-      <c r="Y5" s="102" t="str"/>
-      <c r="Z5" s="103" t="str"/>
-      <c r="AA5" s="104" t="str"/>
-      <c r="AB5" s="105" t="str"/>
-      <c r="AC5" s="106" t="str"/>
-      <c r="AD5" s="107" t="str"/>
-      <c r="AE5" s="108" t="str"/>
-      <c r="AF5" s="109" t="str"/>
-      <c r="AG5" s="110" t="str"/>
-      <c r="AH5" s="111" t="str"/>
-      <c r="AI5" s="112" t="str"/>
-      <c r="AJ5" s="113" t="str"/>
-      <c r="AK5" s="114" t="str"/>
-      <c r="AL5" s="115" t="str"/>
-      <c r="AM5" s="116" t="str"/>
-      <c r="AN5" s="117" t="str"/>
-      <c r="AO5" s="118" t="str"/>
-      <c r="AP5" s="119" t="str"/>
-      <c r="AQ5" s="120" t="str"/>
-      <c r="AR5" s="121" t="str"/>
-      <c r="AS5" s="122" t="str"/>
-      <c r="AT5" s="123" t="str"/>
-      <c r="AU5" s="124" t="str"/>
-      <c r="AV5" s="125" t="str"/>
-      <c r="AW5" s="126" t="str"/>
-      <c r="AX5" s="127" t="str"/>
+      <c r="B5" s="81" t="str"/>
+      <c r="C5" s="82" t="str"/>
+      <c r="D5" s="83" t="str"/>
+      <c r="E5" s="84" t="str"/>
+      <c r="F5" s="85" t="str"/>
+      <c r="G5" s="86" t="str"/>
+      <c r="H5" s="87" t="str"/>
+      <c r="I5" s="88" t="str"/>
+      <c r="J5" s="89" t="str"/>
+      <c r="K5" s="90" t="str"/>
+      <c r="L5" s="91" t="str"/>
+      <c r="M5" s="92" t="str"/>
+      <c r="N5" s="93" t="str"/>
+      <c r="O5" s="94" t="str"/>
+      <c r="P5" s="95" t="str"/>
+      <c r="Q5" s="96" t="str"/>
+      <c r="R5" s="97" t="str"/>
+      <c r="S5" s="98" t="str"/>
+      <c r="T5" s="99" t="str"/>
+      <c r="U5" s="100" t="str"/>
+      <c r="V5" s="101" t="str"/>
+      <c r="W5" s="102" t="str"/>
+      <c r="X5" s="103" t="str"/>
+      <c r="Y5" s="104" t="str"/>
+      <c r="Z5" s="105" t="str"/>
+      <c r="AA5" s="106" t="str"/>
+      <c r="AB5" s="107" t="str"/>
+      <c r="AC5" s="108" t="str"/>
+      <c r="AD5" s="109" t="str"/>
+      <c r="AE5" s="110" t="str"/>
+      <c r="AF5" s="111" t="str"/>
+      <c r="AG5" s="112" t="str"/>
+      <c r="AH5" s="113" t="str"/>
+      <c r="AI5" s="114" t="str"/>
+      <c r="AJ5" s="115" t="str"/>
+      <c r="AK5" s="116" t="str"/>
+      <c r="AL5" s="117" t="str"/>
+      <c r="AM5" s="118" t="str"/>
+      <c r="AN5" s="119" t="str"/>
+      <c r="AO5" s="120" t="str"/>
+      <c r="AP5" s="121" t="str"/>
+      <c r="AQ5" s="122" t="str"/>
+      <c r="AR5" s="123" t="str"/>
+      <c r="AS5" s="124" t="str"/>
+      <c r="AT5" s="125" t="str"/>
+      <c r="AU5" s="126" t="str"/>
+      <c r="AV5" s="127" t="str"/>
+      <c r="AW5" t="str">
+        <v>3600</v>
+      </c>
+      <c r="AX5" t="str">
+        <v>3600</v>
+      </c>
       <c r="AY5" t="str">
         <v>3600</v>
       </c>
@@ -45806,42 +45574,39 @@
       <c r="BJ5" t="str">
         <v>3600</v>
       </c>
-      <c r="BK5" t="str">
-        <v>3600</v>
-      </c>
+      <c r="BK5" s="128" t="str"/>
       <c r="BL5" t="str">
-        <v>3600</v>
-      </c>
-      <c r="BM5" s="128" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/kvartira-studiya_26_m_45_et._1614963811</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>квартира-студия, 36 м², 1/5 эт.</v>
       </c>
-      <c r="B6" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/kvartira-studiya_36_m_15_et._1823244811</v>
-      </c>
-      <c r="C6" t="str">
-        <v>студии</v>
-      </c>
-      <c r="D6" s="129" t="str"/>
-      <c r="E6" s="130" t="str"/>
-      <c r="F6" s="131" t="str"/>
-      <c r="G6" s="132" t="str"/>
-      <c r="H6" s="133" t="str"/>
-      <c r="I6" s="134" t="str"/>
-      <c r="J6" s="135" t="str"/>
-      <c r="K6" s="136" t="str"/>
-      <c r="L6" s="137" t="str"/>
-      <c r="M6" s="138" t="str"/>
-      <c r="N6" s="139" t="str"/>
-      <c r="O6" s="140" t="str"/>
-      <c r="P6" s="141" t="str"/>
-      <c r="Q6" s="142" t="str"/>
-      <c r="R6" s="143" t="str"/>
-      <c r="S6" s="144" t="str"/>
-      <c r="T6" s="145" t="str"/>
-      <c r="U6" s="146" t="str"/>
+      <c r="B6" s="129" t="str"/>
+      <c r="C6" s="130" t="str"/>
+      <c r="D6" s="131" t="str"/>
+      <c r="E6" s="132" t="str"/>
+      <c r="F6" s="133" t="str"/>
+      <c r="G6" s="134" t="str"/>
+      <c r="H6" s="135" t="str"/>
+      <c r="I6" s="136" t="str"/>
+      <c r="J6" s="137" t="str"/>
+      <c r="K6" s="138" t="str"/>
+      <c r="L6" s="139" t="str"/>
+      <c r="M6" s="140" t="str"/>
+      <c r="N6" s="141" t="str"/>
+      <c r="O6" s="142" t="str"/>
+      <c r="P6" s="143" t="str"/>
+      <c r="Q6" s="144" t="str"/>
+      <c r="R6" s="145" t="str"/>
+      <c r="S6" s="146" t="str"/>
+      <c r="T6" t="str">
+        <v>6500</v>
+      </c>
+      <c r="U6" t="str">
+        <v>6500</v>
+      </c>
       <c r="V6" t="str">
         <v>6500</v>
       </c>
@@ -45965,122 +45730,116 @@
       <c r="BJ6" t="str">
         <v>6500</v>
       </c>
-      <c r="BK6" t="str">
-        <v>6500</v>
-      </c>
+      <c r="BK6" s="147" t="str"/>
       <c r="BL6" t="str">
-        <v>6500</v>
-      </c>
-      <c r="BM6" s="147" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/kvartira-studiya_36_m_15_et._1823244811</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>1-к. квартира, 35 м², 4/5 эт.</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="148" t="str"/>
+      <c r="C7" s="149" t="str"/>
+      <c r="D7" s="150" t="str"/>
+      <c r="E7" s="151" t="str"/>
+      <c r="F7" s="152" t="str"/>
+      <c r="G7" s="153" t="str"/>
+      <c r="H7" s="154" t="str"/>
+      <c r="I7" s="155" t="str"/>
+      <c r="J7" s="156" t="str"/>
+      <c r="K7" s="157" t="str"/>
+      <c r="L7" s="158" t="str"/>
+      <c r="M7" s="159" t="str"/>
+      <c r="N7" s="160" t="str"/>
+      <c r="O7" s="161" t="str"/>
+      <c r="P7" s="162" t="str"/>
+      <c r="Q7" s="163" t="str"/>
+      <c r="R7" s="164" t="str"/>
+      <c r="S7" s="165" t="str"/>
+      <c r="T7" s="166" t="str"/>
+      <c r="U7" s="167" t="str"/>
+      <c r="V7" s="168" t="str"/>
+      <c r="W7" s="169" t="str"/>
+      <c r="X7" s="170" t="str"/>
+      <c r="Y7" s="171" t="str"/>
+      <c r="Z7" s="172" t="str"/>
+      <c r="AA7" s="173" t="str"/>
+      <c r="AB7" s="174" t="str"/>
+      <c r="AC7" s="175" t="str"/>
+      <c r="AD7" s="176" t="str"/>
+      <c r="AE7" s="177" t="str"/>
+      <c r="AF7" s="178" t="str"/>
+      <c r="AG7" s="179" t="str"/>
+      <c r="AH7" s="180" t="str"/>
+      <c r="AI7" s="181" t="str"/>
+      <c r="AJ7" s="182" t="str"/>
+      <c r="AK7" s="183" t="str"/>
+      <c r="AL7" s="184" t="str"/>
+      <c r="AM7" s="185" t="str"/>
+      <c r="AN7" s="186" t="str"/>
+      <c r="AO7" s="187" t="str"/>
+      <c r="AP7" s="188" t="str"/>
+      <c r="AQ7" s="189" t="str"/>
+      <c r="AR7" s="190" t="str"/>
+      <c r="AS7" s="191" t="str"/>
+      <c r="AT7" s="192" t="str"/>
+      <c r="AU7" s="193" t="str"/>
+      <c r="AV7" s="194" t="str"/>
+      <c r="AW7" s="195" t="str"/>
+      <c r="AX7" s="196" t="str"/>
+      <c r="AY7" s="197" t="str"/>
+      <c r="AZ7" s="198" t="str"/>
+      <c r="BA7" s="199" t="str"/>
+      <c r="BB7" s="200" t="str"/>
+      <c r="BC7" s="201" t="str"/>
+      <c r="BD7" s="202" t="str"/>
+      <c r="BE7" s="203" t="str"/>
+      <c r="BF7" s="204" t="str"/>
+      <c r="BG7" s="205" t="str"/>
+      <c r="BH7" s="206" t="str"/>
+      <c r="BI7" s="207" t="str"/>
+      <c r="BJ7" s="208" t="str"/>
+      <c r="BK7" s="209" t="str"/>
+      <c r="BL7" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_35_m_45_et._2422247572</v>
       </c>
-      <c r="C7" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D7" s="148" t="str"/>
-      <c r="E7" s="149" t="str"/>
-      <c r="F7" s="150" t="str"/>
-      <c r="G7" s="151" t="str"/>
-      <c r="H7" s="152" t="str"/>
-      <c r="I7" s="153" t="str"/>
-      <c r="J7" s="154" t="str"/>
-      <c r="K7" s="155" t="str"/>
-      <c r="L7" s="156" t="str"/>
-      <c r="M7" s="157" t="str"/>
-      <c r="N7" s="158" t="str"/>
-      <c r="O7" s="159" t="str"/>
-      <c r="P7" s="160" t="str"/>
-      <c r="Q7" s="161" t="str"/>
-      <c r="R7" s="162" t="str"/>
-      <c r="S7" s="163" t="str"/>
-      <c r="T7" s="164" t="str"/>
-      <c r="U7" s="165" t="str"/>
-      <c r="V7" s="166" t="str"/>
-      <c r="W7" s="167" t="str"/>
-      <c r="X7" s="168" t="str"/>
-      <c r="Y7" s="169" t="str"/>
-      <c r="Z7" s="170" t="str"/>
-      <c r="AA7" s="171" t="str"/>
-      <c r="AB7" s="172" t="str"/>
-      <c r="AC7" s="173" t="str"/>
-      <c r="AD7" s="174" t="str"/>
-      <c r="AE7" s="175" t="str"/>
-      <c r="AF7" s="176" t="str"/>
-      <c r="AG7" s="177" t="str"/>
-      <c r="AH7" s="178" t="str"/>
-      <c r="AI7" s="179" t="str"/>
-      <c r="AJ7" s="180" t="str"/>
-      <c r="AK7" s="181" t="str"/>
-      <c r="AL7" s="182" t="str"/>
-      <c r="AM7" s="183" t="str"/>
-      <c r="AN7" s="184" t="str"/>
-      <c r="AO7" s="185" t="str"/>
-      <c r="AP7" s="186" t="str"/>
-      <c r="AQ7" s="187" t="str"/>
-      <c r="AR7" s="188" t="str"/>
-      <c r="AS7" s="189" t="str"/>
-      <c r="AT7" s="190" t="str"/>
-      <c r="AU7" s="191" t="str"/>
-      <c r="AV7" s="192" t="str"/>
-      <c r="AW7" s="193" t="str"/>
-      <c r="AX7" s="194" t="str"/>
-      <c r="AY7" s="195" t="str"/>
-      <c r="AZ7" s="196" t="str"/>
-      <c r="BA7" s="197" t="str"/>
-      <c r="BB7" s="198" t="str"/>
-      <c r="BC7" s="199" t="str"/>
-      <c r="BD7" s="200" t="str"/>
-      <c r="BE7" s="201" t="str"/>
-      <c r="BF7" s="202" t="str"/>
-      <c r="BG7" s="203" t="str"/>
-      <c r="BH7" s="204" t="str"/>
-      <c r="BI7" s="205" t="str"/>
-      <c r="BJ7" s="206" t="str"/>
-      <c r="BK7" s="207" t="str"/>
-      <c r="BL7" s="208" t="str"/>
-      <c r="BM7" s="209" t="str"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>1-к. квартира, 32 м², 3/5 эт.</v>
       </c>
-      <c r="B8" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_32_m_35_et._3214678129</v>
-      </c>
-      <c r="C8" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D8" s="210" t="str"/>
-      <c r="E8" s="211" t="str"/>
-      <c r="F8" s="212" t="str"/>
-      <c r="G8" s="213" t="str"/>
-      <c r="H8" s="214" t="str"/>
-      <c r="I8" s="215" t="str"/>
-      <c r="J8" s="216" t="str"/>
-      <c r="K8" s="217" t="str"/>
-      <c r="L8" s="218" t="str"/>
-      <c r="M8" s="219" t="str"/>
-      <c r="N8" s="220" t="str"/>
-      <c r="O8" s="221" t="str"/>
-      <c r="P8" s="222" t="str"/>
-      <c r="Q8" s="223" t="str"/>
-      <c r="R8" s="224" t="str"/>
-      <c r="S8" s="225" t="str"/>
-      <c r="T8" s="226" t="str"/>
-      <c r="U8" s="227" t="str"/>
-      <c r="V8" s="228" t="str"/>
-      <c r="W8" s="229" t="str"/>
-      <c r="X8" s="230" t="str"/>
-      <c r="Y8" s="231" t="str"/>
-      <c r="Z8" s="232" t="str"/>
-      <c r="AA8" s="233" t="str"/>
-      <c r="AB8" s="234" t="str"/>
+      <c r="B8" s="210" t="str"/>
+      <c r="C8" s="211" t="str"/>
+      <c r="D8" s="212" t="str"/>
+      <c r="E8" s="213" t="str"/>
+      <c r="F8" s="214" t="str"/>
+      <c r="G8" s="215" t="str"/>
+      <c r="H8" s="216" t="str"/>
+      <c r="I8" s="217" t="str"/>
+      <c r="J8" s="218" t="str"/>
+      <c r="K8" s="219" t="str"/>
+      <c r="L8" s="220" t="str"/>
+      <c r="M8" s="221" t="str"/>
+      <c r="N8" s="222" t="str"/>
+      <c r="O8" s="223" t="str"/>
+      <c r="P8" s="224" t="str"/>
+      <c r="Q8" s="225" t="str"/>
+      <c r="R8" s="226" t="str"/>
+      <c r="S8" s="227" t="str"/>
+      <c r="T8" s="228" t="str"/>
+      <c r="U8" s="229" t="str"/>
+      <c r="V8" s="230" t="str"/>
+      <c r="W8" s="231" t="str"/>
+      <c r="X8" s="232" t="str"/>
+      <c r="Y8" s="233" t="str"/>
+      <c r="Z8" s="234" t="str"/>
+      <c r="AA8" t="str">
+        <v>3600</v>
+      </c>
+      <c r="AB8" t="str">
+        <v>3600</v>
+      </c>
       <c r="AC8" t="str">
         <v>3600</v>
       </c>
@@ -46183,295 +45942,283 @@
       <c r="BJ8" t="str">
         <v>3600</v>
       </c>
-      <c r="BK8" t="str">
-        <v>3600</v>
-      </c>
+      <c r="BK8" s="235" t="str"/>
       <c r="BL8" t="str">
-        <v>3600</v>
-      </c>
-      <c r="BM8" s="235" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_32_m_35_et._3214678129</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <v>1-к. квартира, 36 м², 2/5 эт.</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="236" t="str"/>
+      <c r="C9" s="237" t="str"/>
+      <c r="D9" s="238" t="str"/>
+      <c r="E9" s="239" t="str"/>
+      <c r="F9" s="240" t="str"/>
+      <c r="G9" s="241" t="str"/>
+      <c r="H9" s="242" t="str"/>
+      <c r="I9" s="243" t="str"/>
+      <c r="J9" s="244" t="str"/>
+      <c r="K9" s="245" t="str"/>
+      <c r="L9" s="246" t="str"/>
+      <c r="M9" s="247" t="str"/>
+      <c r="N9" s="248" t="str"/>
+      <c r="O9" s="249" t="str"/>
+      <c r="P9" s="250" t="str"/>
+      <c r="Q9" s="251" t="str"/>
+      <c r="R9" s="252" t="str"/>
+      <c r="S9" s="253" t="str"/>
+      <c r="T9" s="254" t="str"/>
+      <c r="U9" s="255" t="str"/>
+      <c r="V9" s="256" t="str"/>
+      <c r="W9" s="257" t="str"/>
+      <c r="X9" s="258" t="str"/>
+      <c r="Y9" s="259" t="str"/>
+      <c r="Z9" s="260" t="str"/>
+      <c r="AA9" s="261" t="str"/>
+      <c r="AB9" s="262" t="str"/>
+      <c r="AC9" s="263" t="str"/>
+      <c r="AD9" s="264" t="str"/>
+      <c r="AE9" s="265" t="str"/>
+      <c r="AF9" s="266" t="str"/>
+      <c r="AG9" s="267" t="str"/>
+      <c r="AH9" s="268" t="str"/>
+      <c r="AI9" s="269" t="str"/>
+      <c r="AJ9" s="270" t="str"/>
+      <c r="AK9" s="271" t="str"/>
+      <c r="AL9" s="272" t="str"/>
+      <c r="AM9" s="273" t="str"/>
+      <c r="AN9" s="274" t="str"/>
+      <c r="AO9" s="275" t="str"/>
+      <c r="AP9" s="276" t="str"/>
+      <c r="AQ9" s="277" t="str"/>
+      <c r="AR9" s="278" t="str"/>
+      <c r="AS9" s="279" t="str"/>
+      <c r="AT9" s="280" t="str"/>
+      <c r="AU9" s="281" t="str"/>
+      <c r="AV9" s="282" t="str"/>
+      <c r="AW9" s="283" t="str"/>
+      <c r="AX9" s="284" t="str"/>
+      <c r="AY9" s="285" t="str"/>
+      <c r="AZ9" s="286" t="str"/>
+      <c r="BA9" s="287" t="str"/>
+      <c r="BB9" s="288" t="str"/>
+      <c r="BC9" s="289" t="str"/>
+      <c r="BD9" s="290" t="str"/>
+      <c r="BE9" s="291" t="str"/>
+      <c r="BF9" s="292" t="str"/>
+      <c r="BG9" s="293" t="str"/>
+      <c r="BH9" s="294" t="str"/>
+      <c r="BI9" s="295" t="str"/>
+      <c r="BJ9" s="296" t="str"/>
+      <c r="BK9" s="297" t="str"/>
+      <c r="BL9" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_36_m_25_et._2555362112</v>
       </c>
-      <c r="C9" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D9" s="236" t="str"/>
-      <c r="E9" s="237" t="str"/>
-      <c r="F9" s="238" t="str"/>
-      <c r="G9" s="239" t="str"/>
-      <c r="H9" s="240" t="str"/>
-      <c r="I9" s="241" t="str"/>
-      <c r="J9" s="242" t="str"/>
-      <c r="K9" s="243" t="str"/>
-      <c r="L9" s="244" t="str"/>
-      <c r="M9" s="245" t="str"/>
-      <c r="N9" s="246" t="str"/>
-      <c r="O9" s="247" t="str"/>
-      <c r="P9" s="248" t="str"/>
-      <c r="Q9" s="249" t="str"/>
-      <c r="R9" s="250" t="str"/>
-      <c r="S9" s="251" t="str"/>
-      <c r="T9" s="252" t="str"/>
-      <c r="U9" s="253" t="str"/>
-      <c r="V9" s="254" t="str"/>
-      <c r="W9" s="255" t="str"/>
-      <c r="X9" s="256" t="str"/>
-      <c r="Y9" s="257" t="str"/>
-      <c r="Z9" s="258" t="str"/>
-      <c r="AA9" s="259" t="str"/>
-      <c r="AB9" s="260" t="str"/>
-      <c r="AC9" s="261" t="str"/>
-      <c r="AD9" s="262" t="str"/>
-      <c r="AE9" s="263" t="str"/>
-      <c r="AF9" s="264" t="str"/>
-      <c r="AG9" s="265" t="str"/>
-      <c r="AH9" s="266" t="str"/>
-      <c r="AI9" s="267" t="str"/>
-      <c r="AJ9" s="268" t="str"/>
-      <c r="AK9" s="269" t="str"/>
-      <c r="AL9" s="270" t="str"/>
-      <c r="AM9" s="271" t="str"/>
-      <c r="AN9" s="272" t="str"/>
-      <c r="AO9" s="273" t="str"/>
-      <c r="AP9" s="274" t="str"/>
-      <c r="AQ9" s="275" t="str"/>
-      <c r="AR9" s="276" t="str"/>
-      <c r="AS9" s="277" t="str"/>
-      <c r="AT9" s="278" t="str"/>
-      <c r="AU9" s="279" t="str"/>
-      <c r="AV9" s="280" t="str"/>
-      <c r="AW9" s="281" t="str"/>
-      <c r="AX9" s="282" t="str"/>
-      <c r="AY9" s="283" t="str"/>
-      <c r="AZ9" s="284" t="str"/>
-      <c r="BA9" s="285" t="str"/>
-      <c r="BB9" s="286" t="str"/>
-      <c r="BC9" s="287" t="str"/>
-      <c r="BD9" s="288" t="str"/>
-      <c r="BE9" s="289" t="str"/>
-      <c r="BF9" s="290" t="str"/>
-      <c r="BG9" s="291" t="str"/>
-      <c r="BH9" s="292" t="str"/>
-      <c r="BI9" s="293" t="str"/>
-      <c r="BJ9" s="294" t="str"/>
-      <c r="BK9" s="295" t="str"/>
-      <c r="BL9" s="296" t="str"/>
-      <c r="BM9" s="297" t="str"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>1-к. квартира, 32 м², 1/5 эт.</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="298" t="str"/>
+      <c r="C10" s="299" t="str"/>
+      <c r="D10" s="300" t="str"/>
+      <c r="E10" s="301" t="str"/>
+      <c r="F10" s="302" t="str"/>
+      <c r="G10" s="303" t="str"/>
+      <c r="H10" s="304" t="str"/>
+      <c r="I10" s="305" t="str"/>
+      <c r="J10" s="306" t="str"/>
+      <c r="K10" s="307" t="str"/>
+      <c r="L10" s="308" t="str"/>
+      <c r="M10" s="309" t="str"/>
+      <c r="N10" s="310" t="str"/>
+      <c r="O10" s="311" t="str"/>
+      <c r="P10" s="312" t="str"/>
+      <c r="Q10" s="313" t="str"/>
+      <c r="R10" s="314" t="str"/>
+      <c r="S10" s="315" t="str"/>
+      <c r="T10" s="316" t="str"/>
+      <c r="U10" s="317" t="str"/>
+      <c r="V10" s="318" t="str"/>
+      <c r="W10" s="319" t="str"/>
+      <c r="X10" s="320" t="str"/>
+      <c r="Y10" s="321" t="str"/>
+      <c r="Z10" s="322" t="str"/>
+      <c r="AA10" s="323" t="str"/>
+      <c r="AB10" s="324" t="str"/>
+      <c r="AC10" s="325" t="str"/>
+      <c r="AD10" s="326" t="str"/>
+      <c r="AE10" s="327" t="str"/>
+      <c r="AF10" s="328" t="str"/>
+      <c r="AG10" s="329" t="str"/>
+      <c r="AH10" s="330" t="str"/>
+      <c r="AI10" s="331" t="str"/>
+      <c r="AJ10" s="332" t="str"/>
+      <c r="AK10" s="333" t="str"/>
+      <c r="AL10" s="334" t="str"/>
+      <c r="AM10" s="335" t="str"/>
+      <c r="AN10" s="336" t="str"/>
+      <c r="AO10" s="337" t="str"/>
+      <c r="AP10" s="338" t="str"/>
+      <c r="AQ10" s="339" t="str"/>
+      <c r="AR10" s="340" t="str"/>
+      <c r="AS10" s="341" t="str"/>
+      <c r="AT10" s="342" t="str"/>
+      <c r="AU10" s="343" t="str"/>
+      <c r="AV10" s="344" t="str"/>
+      <c r="AW10" s="345" t="str"/>
+      <c r="AX10" s="346" t="str"/>
+      <c r="AY10" s="347" t="str"/>
+      <c r="AZ10" s="348" t="str"/>
+      <c r="BA10" s="349" t="str"/>
+      <c r="BB10" s="350" t="str"/>
+      <c r="BC10" s="351" t="str"/>
+      <c r="BD10" s="352" t="str"/>
+      <c r="BE10" s="353" t="str"/>
+      <c r="BF10" s="354" t="str"/>
+      <c r="BG10" s="355" t="str"/>
+      <c r="BH10" s="356" t="str"/>
+      <c r="BI10" s="357" t="str"/>
+      <c r="BJ10" s="358" t="str"/>
+      <c r="BK10" s="359" t="str"/>
+      <c r="BL10" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_32_m_15_et._3224847431</v>
       </c>
-      <c r="C10" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D10" s="298" t="str"/>
-      <c r="E10" s="299" t="str"/>
-      <c r="F10" s="300" t="str"/>
-      <c r="G10" s="301" t="str"/>
-      <c r="H10" s="302" t="str"/>
-      <c r="I10" s="303" t="str"/>
-      <c r="J10" s="304" t="str"/>
-      <c r="K10" s="305" t="str"/>
-      <c r="L10" s="306" t="str"/>
-      <c r="M10" s="307" t="str"/>
-      <c r="N10" s="308" t="str"/>
-      <c r="O10" s="309" t="str"/>
-      <c r="P10" s="310" t="str"/>
-      <c r="Q10" s="311" t="str"/>
-      <c r="R10" s="312" t="str"/>
-      <c r="S10" s="313" t="str"/>
-      <c r="T10" s="314" t="str"/>
-      <c r="U10" s="315" t="str"/>
-      <c r="V10" s="316" t="str"/>
-      <c r="W10" s="317" t="str"/>
-      <c r="X10" s="318" t="str"/>
-      <c r="Y10" s="319" t="str"/>
-      <c r="Z10" s="320" t="str"/>
-      <c r="AA10" s="321" t="str"/>
-      <c r="AB10" s="322" t="str"/>
-      <c r="AC10" s="323" t="str"/>
-      <c r="AD10" s="324" t="str"/>
-      <c r="AE10" s="325" t="str"/>
-      <c r="AF10" s="326" t="str"/>
-      <c r="AG10" s="327" t="str"/>
-      <c r="AH10" s="328" t="str"/>
-      <c r="AI10" s="329" t="str"/>
-      <c r="AJ10" s="330" t="str"/>
-      <c r="AK10" s="331" t="str"/>
-      <c r="AL10" s="332" t="str"/>
-      <c r="AM10" s="333" t="str"/>
-      <c r="AN10" s="334" t="str"/>
-      <c r="AO10" s="335" t="str"/>
-      <c r="AP10" s="336" t="str"/>
-      <c r="AQ10" s="337" t="str"/>
-      <c r="AR10" s="338" t="str"/>
-      <c r="AS10" s="339" t="str"/>
-      <c r="AT10" s="340" t="str"/>
-      <c r="AU10" s="341" t="str"/>
-      <c r="AV10" s="342" t="str"/>
-      <c r="AW10" s="343" t="str"/>
-      <c r="AX10" s="344" t="str"/>
-      <c r="AY10" s="345" t="str"/>
-      <c r="AZ10" s="346" t="str"/>
-      <c r="BA10" s="347" t="str"/>
-      <c r="BB10" s="348" t="str"/>
-      <c r="BC10" s="349" t="str"/>
-      <c r="BD10" s="350" t="str"/>
-      <c r="BE10" s="351" t="str"/>
-      <c r="BF10" s="352" t="str"/>
-      <c r="BG10" s="353" t="str"/>
-      <c r="BH10" s="354" t="str"/>
-      <c r="BI10" s="355" t="str"/>
-      <c r="BJ10" s="356" t="str"/>
-      <c r="BK10" s="357" t="str"/>
-      <c r="BL10" s="358" t="str"/>
-      <c r="BM10" s="359" t="str"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v>1-к. квартира, 32 м², 1/5 эт.</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="360" t="str"/>
+      <c r="C11" s="361" t="str"/>
+      <c r="D11" s="362" t="str"/>
+      <c r="E11" s="363" t="str"/>
+      <c r="F11" s="364" t="str"/>
+      <c r="G11" s="365" t="str"/>
+      <c r="H11" s="366" t="str"/>
+      <c r="I11" s="367" t="str"/>
+      <c r="J11" s="368" t="str"/>
+      <c r="K11" s="369" t="str"/>
+      <c r="L11" s="370" t="str"/>
+      <c r="M11" s="371" t="str"/>
+      <c r="N11" s="372" t="str"/>
+      <c r="O11" s="373" t="str"/>
+      <c r="P11" s="374" t="str"/>
+      <c r="Q11" s="375" t="str"/>
+      <c r="R11" s="376" t="str"/>
+      <c r="S11" s="377" t="str"/>
+      <c r="T11" s="378" t="str"/>
+      <c r="U11" s="379" t="str"/>
+      <c r="V11" s="380" t="str"/>
+      <c r="W11" s="381" t="str"/>
+      <c r="X11" s="382" t="str"/>
+      <c r="Y11" s="383" t="str"/>
+      <c r="Z11" s="384" t="str"/>
+      <c r="AA11" s="385" t="str"/>
+      <c r="AB11" s="386" t="str"/>
+      <c r="AC11" s="387" t="str"/>
+      <c r="AD11" s="388" t="str"/>
+      <c r="AE11" s="389" t="str"/>
+      <c r="AF11" s="390" t="str"/>
+      <c r="AG11" s="391" t="str"/>
+      <c r="AH11" s="392" t="str"/>
+      <c r="AI11" s="393" t="str"/>
+      <c r="AJ11" s="394" t="str"/>
+      <c r="AK11" s="395" t="str"/>
+      <c r="AL11" s="396" t="str"/>
+      <c r="AM11" s="397" t="str"/>
+      <c r="AN11" s="398" t="str"/>
+      <c r="AO11" s="399" t="str"/>
+      <c r="AP11" s="400" t="str"/>
+      <c r="AQ11" s="401" t="str"/>
+      <c r="AR11" s="402" t="str"/>
+      <c r="AS11" s="403" t="str"/>
+      <c r="AT11" s="404" t="str"/>
+      <c r="AU11" s="405" t="str"/>
+      <c r="AV11" s="406" t="str"/>
+      <c r="AW11" s="407" t="str"/>
+      <c r="AX11" s="408" t="str"/>
+      <c r="AY11" s="409" t="str"/>
+      <c r="AZ11" s="410" t="str"/>
+      <c r="BA11" s="411" t="str"/>
+      <c r="BB11" s="412" t="str"/>
+      <c r="BC11" s="413" t="str"/>
+      <c r="BD11" s="414" t="str"/>
+      <c r="BE11" s="415" t="str"/>
+      <c r="BF11" s="416" t="str"/>
+      <c r="BG11" s="417" t="str"/>
+      <c r="BH11" s="418" t="str"/>
+      <c r="BI11" s="419" t="str"/>
+      <c r="BJ11" s="420" t="str"/>
+      <c r="BK11" s="421" t="str"/>
+      <c r="BL11" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_32_m_15_et._4466434813</v>
       </c>
-      <c r="C11" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D11" s="360" t="str"/>
-      <c r="E11" s="361" t="str"/>
-      <c r="F11" s="362" t="str"/>
-      <c r="G11" s="363" t="str"/>
-      <c r="H11" s="364" t="str"/>
-      <c r="I11" s="365" t="str"/>
-      <c r="J11" s="366" t="str"/>
-      <c r="K11" s="367" t="str"/>
-      <c r="L11" s="368" t="str"/>
-      <c r="M11" s="369" t="str"/>
-      <c r="N11" s="370" t="str"/>
-      <c r="O11" s="371" t="str"/>
-      <c r="P11" s="372" t="str"/>
-      <c r="Q11" s="373" t="str"/>
-      <c r="R11" s="374" t="str"/>
-      <c r="S11" s="375" t="str"/>
-      <c r="T11" s="376" t="str"/>
-      <c r="U11" s="377" t="str"/>
-      <c r="V11" s="378" t="str"/>
-      <c r="W11" s="379" t="str"/>
-      <c r="X11" s="380" t="str"/>
-      <c r="Y11" s="381" t="str"/>
-      <c r="Z11" s="382" t="str"/>
-      <c r="AA11" s="383" t="str"/>
-      <c r="AB11" s="384" t="str"/>
-      <c r="AC11" s="385" t="str"/>
-      <c r="AD11" s="386" t="str"/>
-      <c r="AE11" s="387" t="str"/>
-      <c r="AF11" s="388" t="str"/>
-      <c r="AG11" s="389" t="str"/>
-      <c r="AH11" s="390" t="str"/>
-      <c r="AI11" s="391" t="str"/>
-      <c r="AJ11" s="392" t="str"/>
-      <c r="AK11" s="393" t="str"/>
-      <c r="AL11" s="394" t="str"/>
-      <c r="AM11" s="395" t="str"/>
-      <c r="AN11" s="396" t="str"/>
-      <c r="AO11" s="397" t="str"/>
-      <c r="AP11" s="398" t="str"/>
-      <c r="AQ11" s="399" t="str"/>
-      <c r="AR11" s="400" t="str"/>
-      <c r="AS11" s="401" t="str"/>
-      <c r="AT11" s="402" t="str"/>
-      <c r="AU11" s="403" t="str"/>
-      <c r="AV11" s="404" t="str"/>
-      <c r="AW11" s="405" t="str"/>
-      <c r="AX11" s="406" t="str"/>
-      <c r="AY11" s="407" t="str"/>
-      <c r="AZ11" s="408" t="str"/>
-      <c r="BA11" s="409" t="str"/>
-      <c r="BB11" s="410" t="str"/>
-      <c r="BC11" s="411" t="str"/>
-      <c r="BD11" s="412" t="str"/>
-      <c r="BE11" s="413" t="str"/>
-      <c r="BF11" s="414" t="str"/>
-      <c r="BG11" s="415" t="str"/>
-      <c r="BH11" s="416" t="str"/>
-      <c r="BI11" s="417" t="str"/>
-      <c r="BJ11" s="418" t="str"/>
-      <c r="BK11" s="419" t="str"/>
-      <c r="BL11" s="420" t="str"/>
-      <c r="BM11" s="421" t="str"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>1-к. квартира, 30 м², 4/5 эт.</v>
       </c>
-      <c r="B12" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_30_m_45_et._1934089702</v>
-      </c>
-      <c r="C12" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D12" s="422" t="str"/>
-      <c r="E12" s="423" t="str"/>
-      <c r="F12" s="424" t="str"/>
-      <c r="G12" s="425" t="str"/>
-      <c r="H12" s="426" t="str"/>
-      <c r="I12" s="427" t="str"/>
-      <c r="J12" s="428" t="str"/>
-      <c r="K12" s="429" t="str"/>
-      <c r="L12" s="430" t="str"/>
-      <c r="M12" s="431" t="str"/>
-      <c r="N12" s="432" t="str"/>
-      <c r="O12" s="433" t="str"/>
-      <c r="P12" s="434" t="str"/>
-      <c r="Q12" s="435" t="str"/>
-      <c r="R12" s="436" t="str"/>
-      <c r="S12" s="437" t="str"/>
-      <c r="T12" s="438" t="str"/>
-      <c r="U12" s="439" t="str"/>
-      <c r="V12" s="440" t="str"/>
-      <c r="W12" s="441" t="str"/>
-      <c r="X12" s="442" t="str"/>
-      <c r="Y12" s="443" t="str"/>
-      <c r="Z12" s="444" t="str"/>
-      <c r="AA12" s="445" t="str"/>
-      <c r="AB12" s="446" t="str"/>
-      <c r="AC12" s="447" t="str"/>
-      <c r="AD12" s="448" t="str"/>
-      <c r="AE12" s="449" t="str"/>
-      <c r="AF12" s="450" t="str"/>
-      <c r="AG12" s="451" t="str"/>
-      <c r="AH12" s="452" t="str"/>
-      <c r="AI12" s="453" t="str"/>
-      <c r="AJ12" s="454" t="str"/>
-      <c r="AK12" s="455" t="str"/>
-      <c r="AL12" s="456" t="str"/>
-      <c r="AM12" s="457" t="str"/>
-      <c r="AN12" s="458" t="str"/>
-      <c r="AO12" s="459" t="str"/>
-      <c r="AP12" s="460" t="str"/>
-      <c r="AQ12" s="461" t="str"/>
-      <c r="AR12" s="462" t="str"/>
-      <c r="AS12" s="463" t="str"/>
-      <c r="AT12" s="464" t="str"/>
-      <c r="AU12" s="465" t="str"/>
-      <c r="AV12" s="466" t="str"/>
-      <c r="AW12" s="467" t="str"/>
-      <c r="AX12" s="468" t="str"/>
-      <c r="AY12" s="469" t="str"/>
-      <c r="AZ12" s="470" t="str"/>
-      <c r="BA12" s="471" t="str"/>
-      <c r="BB12" s="472" t="str"/>
-      <c r="BC12" s="473" t="str"/>
+      <c r="B12" s="422" t="str"/>
+      <c r="C12" s="423" t="str"/>
+      <c r="D12" s="424" t="str"/>
+      <c r="E12" s="425" t="str"/>
+      <c r="F12" s="426" t="str"/>
+      <c r="G12" s="427" t="str"/>
+      <c r="H12" s="428" t="str"/>
+      <c r="I12" s="429" t="str"/>
+      <c r="J12" s="430" t="str"/>
+      <c r="K12" s="431" t="str"/>
+      <c r="L12" s="432" t="str"/>
+      <c r="M12" s="433" t="str"/>
+      <c r="N12" s="434" t="str"/>
+      <c r="O12" s="435" t="str"/>
+      <c r="P12" s="436" t="str"/>
+      <c r="Q12" s="437" t="str"/>
+      <c r="R12" s="438" t="str"/>
+      <c r="S12" s="439" t="str"/>
+      <c r="T12" s="440" t="str"/>
+      <c r="U12" s="441" t="str"/>
+      <c r="V12" s="442" t="str"/>
+      <c r="W12" s="443" t="str"/>
+      <c r="X12" s="444" t="str"/>
+      <c r="Y12" s="445" t="str"/>
+      <c r="Z12" s="446" t="str"/>
+      <c r="AA12" s="447" t="str"/>
+      <c r="AB12" s="448" t="str"/>
+      <c r="AC12" s="449" t="str"/>
+      <c r="AD12" s="450" t="str"/>
+      <c r="AE12" s="451" t="str"/>
+      <c r="AF12" s="452" t="str"/>
+      <c r="AG12" s="453" t="str"/>
+      <c r="AH12" s="454" t="str"/>
+      <c r="AI12" s="455" t="str"/>
+      <c r="AJ12" s="456" t="str"/>
+      <c r="AK12" s="457" t="str"/>
+      <c r="AL12" s="458" t="str"/>
+      <c r="AM12" s="459" t="str"/>
+      <c r="AN12" s="460" t="str"/>
+      <c r="AO12" s="461" t="str"/>
+      <c r="AP12" s="462" t="str"/>
+      <c r="AQ12" s="463" t="str"/>
+      <c r="AR12" s="464" t="str"/>
+      <c r="AS12" s="465" t="str"/>
+      <c r="AT12" s="466" t="str"/>
+      <c r="AU12" s="467" t="str"/>
+      <c r="AV12" s="468" t="str"/>
+      <c r="AW12" s="469" t="str"/>
+      <c r="AX12" s="470" t="str"/>
+      <c r="AY12" s="471" t="str"/>
+      <c r="AZ12" s="472" t="str"/>
+      <c r="BA12" s="473" t="str"/>
+      <c r="BB12" t="str">
+        <v>4000</v>
+      </c>
+      <c r="BC12" t="str">
+        <v>4000</v>
+      </c>
       <c r="BD12" t="str">
         <v>4000</v>
       </c>
@@ -46493,279 +46240,267 @@
       <c r="BJ12" t="str">
         <v>4000</v>
       </c>
-      <c r="BK12" t="str">
-        <v>4000</v>
-      </c>
+      <c r="BK12" s="474" t="str"/>
       <c r="BL12" t="str">
-        <v>4000</v>
-      </c>
-      <c r="BM12" s="474" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_30_m_45_et._1934089702</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v>1-к. квартира, 35 м², 1/5 эт.</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="475" t="str"/>
+      <c r="C13" s="476" t="str"/>
+      <c r="D13" s="477" t="str"/>
+      <c r="E13" s="478" t="str"/>
+      <c r="F13" s="479" t="str"/>
+      <c r="G13" s="480" t="str"/>
+      <c r="H13" s="481" t="str"/>
+      <c r="I13" s="482" t="str"/>
+      <c r="J13" s="483" t="str"/>
+      <c r="K13" s="484" t="str"/>
+      <c r="L13" s="485" t="str"/>
+      <c r="M13" s="486" t="str"/>
+      <c r="N13" s="487" t="str"/>
+      <c r="O13" s="488" t="str"/>
+      <c r="P13" s="489" t="str"/>
+      <c r="Q13" s="490" t="str"/>
+      <c r="R13" s="491" t="str"/>
+      <c r="S13" s="492" t="str"/>
+      <c r="T13" s="493" t="str"/>
+      <c r="U13" s="494" t="str"/>
+      <c r="V13" s="495" t="str"/>
+      <c r="W13" s="496" t="str"/>
+      <c r="X13" s="497" t="str"/>
+      <c r="Y13" s="498" t="str"/>
+      <c r="Z13" s="499" t="str"/>
+      <c r="AA13" s="500" t="str"/>
+      <c r="AB13" s="501" t="str"/>
+      <c r="AC13" s="502" t="str"/>
+      <c r="AD13" s="503" t="str"/>
+      <c r="AE13" s="504" t="str"/>
+      <c r="AF13" s="505" t="str"/>
+      <c r="AG13" s="506" t="str"/>
+      <c r="AH13" s="507" t="str"/>
+      <c r="AI13" s="508" t="str"/>
+      <c r="AJ13" s="509" t="str"/>
+      <c r="AK13" s="510" t="str"/>
+      <c r="AL13" s="511" t="str"/>
+      <c r="AM13" s="512" t="str"/>
+      <c r="AN13" s="513" t="str"/>
+      <c r="AO13" s="514" t="str"/>
+      <c r="AP13" s="515" t="str"/>
+      <c r="AQ13" s="516" t="str"/>
+      <c r="AR13" s="517" t="str"/>
+      <c r="AS13" s="518" t="str"/>
+      <c r="AT13" s="519" t="str"/>
+      <c r="AU13" s="520" t="str"/>
+      <c r="AV13" s="521" t="str"/>
+      <c r="AW13" s="522" t="str"/>
+      <c r="AX13" s="523" t="str"/>
+      <c r="AY13" s="524" t="str"/>
+      <c r="AZ13" s="525" t="str"/>
+      <c r="BA13" s="526" t="str"/>
+      <c r="BB13" s="527" t="str"/>
+      <c r="BC13" s="528" t="str"/>
+      <c r="BD13" s="529" t="str"/>
+      <c r="BE13" s="530" t="str"/>
+      <c r="BF13" s="531" t="str"/>
+      <c r="BG13" s="532" t="str"/>
+      <c r="BH13" s="533" t="str"/>
+      <c r="BI13" s="534" t="str"/>
+      <c r="BJ13" s="535" t="str"/>
+      <c r="BK13" s="536" t="str"/>
+      <c r="BL13" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_35_m_15_et._2169216487</v>
       </c>
-      <c r="C13" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D13" s="475" t="str"/>
-      <c r="E13" s="476" t="str"/>
-      <c r="F13" s="477" t="str"/>
-      <c r="G13" s="478" t="str"/>
-      <c r="H13" s="479" t="str"/>
-      <c r="I13" s="480" t="str"/>
-      <c r="J13" s="481" t="str"/>
-      <c r="K13" s="482" t="str"/>
-      <c r="L13" s="483" t="str"/>
-      <c r="M13" s="484" t="str"/>
-      <c r="N13" s="485" t="str"/>
-      <c r="O13" s="486" t="str"/>
-      <c r="P13" s="487" t="str"/>
-      <c r="Q13" s="488" t="str"/>
-      <c r="R13" s="489" t="str"/>
-      <c r="S13" s="490" t="str"/>
-      <c r="T13" s="491" t="str"/>
-      <c r="U13" s="492" t="str"/>
-      <c r="V13" s="493" t="str"/>
-      <c r="W13" s="494" t="str"/>
-      <c r="X13" s="495" t="str"/>
-      <c r="Y13" s="496" t="str"/>
-      <c r="Z13" s="497" t="str"/>
-      <c r="AA13" s="498" t="str"/>
-      <c r="AB13" s="499" t="str"/>
-      <c r="AC13" s="500" t="str"/>
-      <c r="AD13" s="501" t="str"/>
-      <c r="AE13" s="502" t="str"/>
-      <c r="AF13" s="503" t="str"/>
-      <c r="AG13" s="504" t="str"/>
-      <c r="AH13" s="505" t="str"/>
-      <c r="AI13" s="506" t="str"/>
-      <c r="AJ13" s="507" t="str"/>
-      <c r="AK13" s="508" t="str"/>
-      <c r="AL13" s="509" t="str"/>
-      <c r="AM13" s="510" t="str"/>
-      <c r="AN13" s="511" t="str"/>
-      <c r="AO13" s="512" t="str"/>
-      <c r="AP13" s="513" t="str"/>
-      <c r="AQ13" s="514" t="str"/>
-      <c r="AR13" s="515" t="str"/>
-      <c r="AS13" s="516" t="str"/>
-      <c r="AT13" s="517" t="str"/>
-      <c r="AU13" s="518" t="str"/>
-      <c r="AV13" s="519" t="str"/>
-      <c r="AW13" s="520" t="str"/>
-      <c r="AX13" s="521" t="str"/>
-      <c r="AY13" s="522" t="str"/>
-      <c r="AZ13" s="523" t="str"/>
-      <c r="BA13" s="524" t="str"/>
-      <c r="BB13" s="525" t="str"/>
-      <c r="BC13" s="526" t="str"/>
-      <c r="BD13" s="527" t="str"/>
-      <c r="BE13" s="528" t="str"/>
-      <c r="BF13" s="529" t="str"/>
-      <c r="BG13" s="530" t="str"/>
-      <c r="BH13" s="531" t="str"/>
-      <c r="BI13" s="532" t="str"/>
-      <c r="BJ13" s="533" t="str"/>
-      <c r="BK13" s="534" t="str"/>
-      <c r="BL13" s="535" t="str"/>
-      <c r="BM13" s="536" t="str"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <v>1-к. квартира, 36 м², 1/3 эт.</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="537" t="str"/>
+      <c r="C14" s="538" t="str"/>
+      <c r="D14" s="539" t="str"/>
+      <c r="E14" s="540" t="str"/>
+      <c r="F14" s="541" t="str"/>
+      <c r="G14" s="542" t="str"/>
+      <c r="H14" s="543" t="str"/>
+      <c r="I14" s="544" t="str"/>
+      <c r="J14" s="545" t="str"/>
+      <c r="K14" s="546" t="str"/>
+      <c r="L14" s="547" t="str"/>
+      <c r="M14" s="548" t="str"/>
+      <c r="N14" s="549" t="str"/>
+      <c r="O14" s="550" t="str"/>
+      <c r="P14" s="551" t="str"/>
+      <c r="Q14" s="552" t="str"/>
+      <c r="R14" s="553" t="str"/>
+      <c r="S14" s="554" t="str"/>
+      <c r="T14" s="555" t="str"/>
+      <c r="U14" s="556" t="str"/>
+      <c r="V14" s="557" t="str"/>
+      <c r="W14" s="558" t="str"/>
+      <c r="X14" s="559" t="str"/>
+      <c r="Y14" s="560" t="str"/>
+      <c r="Z14" s="561" t="str"/>
+      <c r="AA14" s="562" t="str"/>
+      <c r="AB14" s="563" t="str"/>
+      <c r="AC14" s="564" t="str"/>
+      <c r="AD14" s="565" t="str"/>
+      <c r="AE14" s="566" t="str"/>
+      <c r="AF14" s="567" t="str"/>
+      <c r="AG14" s="568" t="str"/>
+      <c r="AH14" s="569" t="str"/>
+      <c r="AI14" s="570" t="str"/>
+      <c r="AJ14" s="571" t="str"/>
+      <c r="AK14" s="572" t="str"/>
+      <c r="AL14" s="573" t="str"/>
+      <c r="AM14" s="574" t="str"/>
+      <c r="AN14" s="575" t="str"/>
+      <c r="AO14" s="576" t="str"/>
+      <c r="AP14" s="577" t="str"/>
+      <c r="AQ14" s="578" t="str"/>
+      <c r="AR14" s="579" t="str"/>
+      <c r="AS14" s="580" t="str"/>
+      <c r="AT14" s="581" t="str"/>
+      <c r="AU14" s="582" t="str"/>
+      <c r="AV14" s="583" t="str"/>
+      <c r="AW14" s="584" t="str"/>
+      <c r="AX14" s="585" t="str"/>
+      <c r="AY14" s="586" t="str"/>
+      <c r="AZ14" s="587" t="str"/>
+      <c r="BA14" s="588" t="str"/>
+      <c r="BB14" s="589" t="str"/>
+      <c r="BC14" s="590" t="str"/>
+      <c r="BD14" s="591" t="str"/>
+      <c r="BE14" s="592" t="str"/>
+      <c r="BF14" s="593" t="str"/>
+      <c r="BG14" s="594" t="str"/>
+      <c r="BH14" s="595" t="str"/>
+      <c r="BI14" s="596" t="str"/>
+      <c r="BJ14" s="597" t="str"/>
+      <c r="BK14" s="598" t="str"/>
+      <c r="BL14" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_36_m_13_et._2984097262</v>
       </c>
-      <c r="C14" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D14" s="537" t="str"/>
-      <c r="E14" s="538" t="str"/>
-      <c r="F14" s="539" t="str"/>
-      <c r="G14" s="540" t="str"/>
-      <c r="H14" s="541" t="str"/>
-      <c r="I14" s="542" t="str"/>
-      <c r="J14" s="543" t="str"/>
-      <c r="K14" s="544" t="str"/>
-      <c r="L14" s="545" t="str"/>
-      <c r="M14" s="546" t="str"/>
-      <c r="N14" s="547" t="str"/>
-      <c r="O14" s="548" t="str"/>
-      <c r="P14" s="549" t="str"/>
-      <c r="Q14" s="550" t="str"/>
-      <c r="R14" s="551" t="str"/>
-      <c r="S14" s="552" t="str"/>
-      <c r="T14" s="553" t="str"/>
-      <c r="U14" s="554" t="str"/>
-      <c r="V14" s="555" t="str"/>
-      <c r="W14" s="556" t="str"/>
-      <c r="X14" s="557" t="str"/>
-      <c r="Y14" s="558" t="str"/>
-      <c r="Z14" s="559" t="str"/>
-      <c r="AA14" s="560" t="str"/>
-      <c r="AB14" s="561" t="str"/>
-      <c r="AC14" s="562" t="str"/>
-      <c r="AD14" s="563" t="str"/>
-      <c r="AE14" s="564" t="str"/>
-      <c r="AF14" s="565" t="str"/>
-      <c r="AG14" s="566" t="str"/>
-      <c r="AH14" s="567" t="str"/>
-      <c r="AI14" s="568" t="str"/>
-      <c r="AJ14" s="569" t="str"/>
-      <c r="AK14" s="570" t="str"/>
-      <c r="AL14" s="571" t="str"/>
-      <c r="AM14" s="572" t="str"/>
-      <c r="AN14" s="573" t="str"/>
-      <c r="AO14" s="574" t="str"/>
-      <c r="AP14" s="575" t="str"/>
-      <c r="AQ14" s="576" t="str"/>
-      <c r="AR14" s="577" t="str"/>
-      <c r="AS14" s="578" t="str"/>
-      <c r="AT14" s="579" t="str"/>
-      <c r="AU14" s="580" t="str"/>
-      <c r="AV14" s="581" t="str"/>
-      <c r="AW14" s="582" t="str"/>
-      <c r="AX14" s="583" t="str"/>
-      <c r="AY14" s="584" t="str"/>
-      <c r="AZ14" s="585" t="str"/>
-      <c r="BA14" s="586" t="str"/>
-      <c r="BB14" s="587" t="str"/>
-      <c r="BC14" s="588" t="str"/>
-      <c r="BD14" s="589" t="str"/>
-      <c r="BE14" s="590" t="str"/>
-      <c r="BF14" s="591" t="str"/>
-      <c r="BG14" s="592" t="str"/>
-      <c r="BH14" s="593" t="str"/>
-      <c r="BI14" s="594" t="str"/>
-      <c r="BJ14" s="595" t="str"/>
-      <c r="BK14" s="596" t="str"/>
-      <c r="BL14" s="597" t="str"/>
-      <c r="BM14" s="598" t="str"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <v>1-к. квартира, 35 м², 1/5 эт.</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="599" t="str"/>
+      <c r="C15" s="600" t="str"/>
+      <c r="D15" s="601" t="str"/>
+      <c r="E15" s="602" t="str"/>
+      <c r="F15" s="603" t="str"/>
+      <c r="G15" s="604" t="str"/>
+      <c r="H15" s="605" t="str"/>
+      <c r="I15" s="606" t="str"/>
+      <c r="J15" s="607" t="str"/>
+      <c r="K15" s="608" t="str"/>
+      <c r="L15" s="609" t="str"/>
+      <c r="M15" s="610" t="str"/>
+      <c r="N15" s="611" t="str"/>
+      <c r="O15" s="612" t="str"/>
+      <c r="P15" s="613" t="str"/>
+      <c r="Q15" s="614" t="str"/>
+      <c r="R15" s="615" t="str"/>
+      <c r="S15" s="616" t="str"/>
+      <c r="T15" s="617" t="str"/>
+      <c r="U15" s="618" t="str"/>
+      <c r="V15" s="619" t="str"/>
+      <c r="W15" s="620" t="str"/>
+      <c r="X15" s="621" t="str"/>
+      <c r="Y15" s="622" t="str"/>
+      <c r="Z15" s="623" t="str"/>
+      <c r="AA15" s="624" t="str"/>
+      <c r="AB15" s="625" t="str"/>
+      <c r="AC15" s="626" t="str"/>
+      <c r="AD15" s="627" t="str"/>
+      <c r="AE15" s="628" t="str"/>
+      <c r="AF15" s="629" t="str"/>
+      <c r="AG15" s="630" t="str"/>
+      <c r="AH15" s="631" t="str"/>
+      <c r="AI15" s="632" t="str"/>
+      <c r="AJ15" s="633" t="str"/>
+      <c r="AK15" s="634" t="str"/>
+      <c r="AL15" s="635" t="str"/>
+      <c r="AM15" s="636" t="str"/>
+      <c r="AN15" s="637" t="str"/>
+      <c r="AO15" s="638" t="str"/>
+      <c r="AP15" s="639" t="str"/>
+      <c r="AQ15" s="640" t="str"/>
+      <c r="AR15" s="641" t="str"/>
+      <c r="AS15" s="642" t="str"/>
+      <c r="AT15" s="643" t="str"/>
+      <c r="AU15" s="644" t="str"/>
+      <c r="AV15" s="645" t="str"/>
+      <c r="AW15" s="646" t="str"/>
+      <c r="AX15" s="647" t="str"/>
+      <c r="AY15" s="648" t="str"/>
+      <c r="AZ15" s="649" t="str"/>
+      <c r="BA15" s="650" t="str"/>
+      <c r="BB15" s="651" t="str"/>
+      <c r="BC15" s="652" t="str"/>
+      <c r="BD15" s="653" t="str"/>
+      <c r="BE15" s="654" t="str"/>
+      <c r="BF15" s="655" t="str"/>
+      <c r="BG15" s="656" t="str"/>
+      <c r="BH15" s="657" t="str"/>
+      <c r="BI15" s="658" t="str"/>
+      <c r="BJ15" s="659" t="str"/>
+      <c r="BK15" s="660" t="str"/>
+      <c r="BL15" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_35_m_15_et._2459038068</v>
       </c>
-      <c r="C15" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D15" s="599" t="str"/>
-      <c r="E15" s="600" t="str"/>
-      <c r="F15" s="601" t="str"/>
-      <c r="G15" s="602" t="str"/>
-      <c r="H15" s="603" t="str"/>
-      <c r="I15" s="604" t="str"/>
-      <c r="J15" s="605" t="str"/>
-      <c r="K15" s="606" t="str"/>
-      <c r="L15" s="607" t="str"/>
-      <c r="M15" s="608" t="str"/>
-      <c r="N15" s="609" t="str"/>
-      <c r="O15" s="610" t="str"/>
-      <c r="P15" s="611" t="str"/>
-      <c r="Q15" s="612" t="str"/>
-      <c r="R15" s="613" t="str"/>
-      <c r="S15" s="614" t="str"/>
-      <c r="T15" s="615" t="str"/>
-      <c r="U15" s="616" t="str"/>
-      <c r="V15" s="617" t="str"/>
-      <c r="W15" s="618" t="str"/>
-      <c r="X15" s="619" t="str"/>
-      <c r="Y15" s="620" t="str"/>
-      <c r="Z15" s="621" t="str"/>
-      <c r="AA15" s="622" t="str"/>
-      <c r="AB15" s="623" t="str"/>
-      <c r="AC15" s="624" t="str"/>
-      <c r="AD15" s="625" t="str"/>
-      <c r="AE15" s="626" t="str"/>
-      <c r="AF15" s="627" t="str"/>
-      <c r="AG15" s="628" t="str"/>
-      <c r="AH15" s="629" t="str"/>
-      <c r="AI15" s="630" t="str"/>
-      <c r="AJ15" s="631" t="str"/>
-      <c r="AK15" s="632" t="str"/>
-      <c r="AL15" s="633" t="str"/>
-      <c r="AM15" s="634" t="str"/>
-      <c r="AN15" s="635" t="str"/>
-      <c r="AO15" s="636" t="str"/>
-      <c r="AP15" s="637" t="str"/>
-      <c r="AQ15" s="638" t="str"/>
-      <c r="AR15" s="639" t="str"/>
-      <c r="AS15" s="640" t="str"/>
-      <c r="AT15" s="641" t="str"/>
-      <c r="AU15" s="642" t="str"/>
-      <c r="AV15" s="643" t="str"/>
-      <c r="AW15" s="644" t="str"/>
-      <c r="AX15" s="645" t="str"/>
-      <c r="AY15" s="646" t="str"/>
-      <c r="AZ15" s="647" t="str"/>
-      <c r="BA15" s="648" t="str"/>
-      <c r="BB15" s="649" t="str"/>
-      <c r="BC15" s="650" t="str"/>
-      <c r="BD15" s="651" t="str"/>
-      <c r="BE15" s="652" t="str"/>
-      <c r="BF15" s="653" t="str"/>
-      <c r="BG15" s="654" t="str"/>
-      <c r="BH15" s="655" t="str"/>
-      <c r="BI15" s="656" t="str"/>
-      <c r="BJ15" s="657" t="str"/>
-      <c r="BK15" s="658" t="str"/>
-      <c r="BL15" s="659" t="str"/>
-      <c r="BM15" s="660" t="str"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <v>1-к. квартира, 32 м², 5/5 эт.</v>
       </c>
-      <c r="B16" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_32_m_55_et._2062255801</v>
-      </c>
-      <c r="C16" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D16" s="661" t="str"/>
-      <c r="E16" s="662" t="str"/>
-      <c r="F16" s="663" t="str"/>
-      <c r="G16" s="664" t="str"/>
-      <c r="H16" s="665" t="str"/>
-      <c r="I16" s="666" t="str"/>
-      <c r="J16" s="667" t="str"/>
-      <c r="K16" s="668" t="str"/>
-      <c r="L16" s="669" t="str"/>
-      <c r="M16" s="670" t="str"/>
-      <c r="N16" s="671" t="str"/>
-      <c r="O16" s="672" t="str"/>
-      <c r="P16" s="673" t="str"/>
-      <c r="Q16" s="674" t="str"/>
-      <c r="R16" s="675" t="str"/>
-      <c r="S16" s="676" t="str"/>
-      <c r="T16" s="677" t="str"/>
-      <c r="U16" s="678" t="str"/>
-      <c r="V16" s="679" t="str"/>
-      <c r="W16" s="680" t="str"/>
-      <c r="X16" s="681" t="str"/>
-      <c r="Y16" s="682" t="str"/>
-      <c r="Z16" s="683" t="str"/>
-      <c r="AA16" s="684" t="str"/>
-      <c r="AB16" s="685" t="str"/>
-      <c r="AC16" s="686" t="str"/>
-      <c r="AD16" s="687" t="str"/>
-      <c r="AE16" s="688" t="str"/>
-      <c r="AF16" s="689" t="str"/>
-      <c r="AG16" s="690" t="str"/>
-      <c r="AH16" s="691" t="str"/>
-      <c r="AI16" s="692" t="str"/>
-      <c r="AJ16" s="693" t="str"/>
-      <c r="AK16" s="694" t="str"/>
-      <c r="AL16" s="695" t="str"/>
-      <c r="AM16" s="696" t="str"/>
+      <c r="B16" s="661" t="str"/>
+      <c r="C16" s="662" t="str"/>
+      <c r="D16" s="663" t="str"/>
+      <c r="E16" s="664" t="str"/>
+      <c r="F16" s="665" t="str"/>
+      <c r="G16" s="666" t="str"/>
+      <c r="H16" s="667" t="str"/>
+      <c r="I16" s="668" t="str"/>
+      <c r="J16" s="669" t="str"/>
+      <c r="K16" s="670" t="str"/>
+      <c r="L16" s="671" t="str"/>
+      <c r="M16" s="672" t="str"/>
+      <c r="N16" s="673" t="str"/>
+      <c r="O16" s="674" t="str"/>
+      <c r="P16" s="675" t="str"/>
+      <c r="Q16" s="676" t="str"/>
+      <c r="R16" s="677" t="str"/>
+      <c r="S16" s="678" t="str"/>
+      <c r="T16" s="679" t="str"/>
+      <c r="U16" s="680" t="str"/>
+      <c r="V16" s="681" t="str"/>
+      <c r="W16" s="682" t="str"/>
+      <c r="X16" s="683" t="str"/>
+      <c r="Y16" s="684" t="str"/>
+      <c r="Z16" s="685" t="str"/>
+      <c r="AA16" s="686" t="str"/>
+      <c r="AB16" s="687" t="str"/>
+      <c r="AC16" s="688" t="str"/>
+      <c r="AD16" s="689" t="str"/>
+      <c r="AE16" s="690" t="str"/>
+      <c r="AF16" s="691" t="str"/>
+      <c r="AG16" s="692" t="str"/>
+      <c r="AH16" s="693" t="str"/>
+      <c r="AI16" s="694" t="str"/>
+      <c r="AJ16" s="695" t="str"/>
+      <c r="AK16" s="696" t="str"/>
+      <c r="AL16" t="str">
+        <v>4000</v>
+      </c>
+      <c r="AM16" t="str">
+        <v>4000</v>
+      </c>
       <c r="AN16" t="str">
         <v>4000</v>
       </c>
@@ -46784,20 +46519,20 @@
       <c r="AS16" t="str">
         <v>4000</v>
       </c>
-      <c r="AT16" t="str">
-        <v>4000</v>
-      </c>
+      <c r="AT16" s="697" t="str"/>
       <c r="AU16" t="str">
         <v>4000</v>
       </c>
-      <c r="AV16" s="697" t="str"/>
-      <c r="AW16" t="str">
+      <c r="AV16" s="698" t="str"/>
+      <c r="AW16" s="699" t="str"/>
+      <c r="AX16" s="700" t="str"/>
+      <c r="AY16" s="701" t="str"/>
+      <c r="AZ16" t="str">
         <v>4000</v>
       </c>
-      <c r="AX16" s="698" t="str"/>
-      <c r="AY16" s="699" t="str"/>
-      <c r="AZ16" s="700" t="str"/>
-      <c r="BA16" s="701" t="str"/>
+      <c r="BA16" t="str">
+        <v>4000</v>
+      </c>
       <c r="BB16" t="str">
         <v>4000</v>
       </c>
@@ -46825,55 +46560,52 @@
       <c r="BJ16" t="str">
         <v>4000</v>
       </c>
-      <c r="BK16" t="str">
-        <v>4000</v>
-      </c>
+      <c r="BK16" s="702" t="str"/>
       <c r="BL16" t="str">
-        <v>4000</v>
-      </c>
-      <c r="BM16" s="702" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_32_m_55_et._2062255801</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <v>1-к. квартира, 36 м², 1/5 эт.</v>
       </c>
-      <c r="B17" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_36_m_15_et._3150464501</v>
-      </c>
-      <c r="C17" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D17" s="703" t="str"/>
-      <c r="E17" s="704" t="str"/>
-      <c r="F17" s="705" t="str"/>
-      <c r="G17" s="706" t="str"/>
-      <c r="H17" s="707" t="str"/>
-      <c r="I17" s="708" t="str"/>
-      <c r="J17" s="709" t="str"/>
-      <c r="K17" s="710" t="str"/>
-      <c r="L17" s="711" t="str"/>
-      <c r="M17" s="712" t="str"/>
-      <c r="N17" s="713" t="str"/>
-      <c r="O17" s="714" t="str"/>
-      <c r="P17" s="715" t="str"/>
-      <c r="Q17" s="716" t="str"/>
-      <c r="R17" s="717" t="str"/>
-      <c r="S17" s="718" t="str"/>
-      <c r="T17" s="719" t="str"/>
-      <c r="U17" s="720" t="str"/>
-      <c r="V17" s="721" t="str"/>
-      <c r="W17" s="722" t="str"/>
-      <c r="X17" s="723" t="str"/>
-      <c r="Y17" s="724" t="str"/>
-      <c r="Z17" s="725" t="str"/>
-      <c r="AA17" s="726" t="str"/>
-      <c r="AB17" s="727" t="str"/>
-      <c r="AC17" s="728" t="str"/>
-      <c r="AD17" s="729" t="str"/>
-      <c r="AE17" s="730" t="str"/>
-      <c r="AF17" s="731" t="str"/>
-      <c r="AG17" s="732" t="str"/>
-      <c r="AH17" s="733" t="str"/>
+      <c r="B17" s="703" t="str"/>
+      <c r="C17" s="704" t="str"/>
+      <c r="D17" s="705" t="str"/>
+      <c r="E17" s="706" t="str"/>
+      <c r="F17" s="707" t="str"/>
+      <c r="G17" s="708" t="str"/>
+      <c r="H17" s="709" t="str"/>
+      <c r="I17" s="710" t="str"/>
+      <c r="J17" s="711" t="str"/>
+      <c r="K17" s="712" t="str"/>
+      <c r="L17" s="713" t="str"/>
+      <c r="M17" s="714" t="str"/>
+      <c r="N17" s="715" t="str"/>
+      <c r="O17" s="716" t="str"/>
+      <c r="P17" s="717" t="str"/>
+      <c r="Q17" s="718" t="str"/>
+      <c r="R17" s="719" t="str"/>
+      <c r="S17" s="720" t="str"/>
+      <c r="T17" s="721" t="str"/>
+      <c r="U17" s="722" t="str"/>
+      <c r="V17" s="723" t="str"/>
+      <c r="W17" s="724" t="str"/>
+      <c r="X17" s="725" t="str"/>
+      <c r="Y17" s="726" t="str"/>
+      <c r="Z17" s="727" t="str"/>
+      <c r="AA17" s="728" t="str"/>
+      <c r="AB17" s="729" t="str"/>
+      <c r="AC17" s="730" t="str"/>
+      <c r="AD17" s="731" t="str"/>
+      <c r="AE17" s="732" t="str"/>
+      <c r="AF17" s="733" t="str"/>
+      <c r="AG17" t="str">
+        <v>4000</v>
+      </c>
+      <c r="AH17" t="str">
+        <v>4000</v>
+      </c>
       <c r="AI17" t="str">
         <v>4000</v>
       </c>
@@ -46958,60 +46690,53 @@
       <c r="BJ17" t="str">
         <v>4000</v>
       </c>
-      <c r="BK17" t="str">
-        <v>4000</v>
-      </c>
+      <c r="BK17" s="734" t="str"/>
       <c r="BL17" t="str">
-        <v>4000</v>
-      </c>
-      <c r="BM17" s="734" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_36_m_15_et._3150464501</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v>1-к. квартира, 30 м², 2/4 эт.</v>
       </c>
-      <c r="B18" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_30_m_24_et._3354523650</v>
-      </c>
-      <c r="C18" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D18" s="735" t="str"/>
-      <c r="E18" s="736" t="str"/>
-      <c r="F18" s="737" t="str"/>
-      <c r="G18" s="738" t="str"/>
-      <c r="H18" s="739" t="str"/>
-      <c r="I18" s="740" t="str"/>
-      <c r="J18" s="741" t="str"/>
-      <c r="K18" s="742" t="str"/>
-      <c r="L18" s="743" t="str"/>
-      <c r="M18" s="744" t="str"/>
-      <c r="N18" s="745" t="str"/>
-      <c r="O18" s="746" t="str"/>
-      <c r="P18" s="747" t="str"/>
-      <c r="Q18" s="748" t="str"/>
-      <c r="R18" s="749" t="str"/>
-      <c r="S18" s="750" t="str"/>
-      <c r="T18" s="751" t="str"/>
-      <c r="U18" s="752" t="str"/>
-      <c r="V18" s="753" t="str"/>
-      <c r="W18" s="754" t="str"/>
-      <c r="X18" s="755" t="str"/>
-      <c r="Y18" s="756" t="str"/>
-      <c r="Z18" s="757" t="str"/>
-      <c r="AA18" s="758" t="str"/>
-      <c r="AB18" s="759" t="str"/>
-      <c r="AC18" s="760" t="str"/>
-      <c r="AD18" s="761" t="str"/>
-      <c r="AE18" s="762" t="str"/>
-      <c r="AF18" s="763" t="str"/>
-      <c r="AG18" s="764" t="str"/>
-      <c r="AH18" s="765" t="str"/>
-      <c r="AI18" t="str">
+      <c r="B18" s="735" t="str"/>
+      <c r="C18" s="736" t="str"/>
+      <c r="D18" s="737" t="str"/>
+      <c r="E18" s="738" t="str"/>
+      <c r="F18" s="739" t="str"/>
+      <c r="G18" s="740" t="str"/>
+      <c r="H18" s="741" t="str"/>
+      <c r="I18" s="742" t="str"/>
+      <c r="J18" s="743" t="str"/>
+      <c r="K18" s="744" t="str"/>
+      <c r="L18" s="745" t="str"/>
+      <c r="M18" s="746" t="str"/>
+      <c r="N18" s="747" t="str"/>
+      <c r="O18" s="748" t="str"/>
+      <c r="P18" s="749" t="str"/>
+      <c r="Q18" s="750" t="str"/>
+      <c r="R18" s="751" t="str"/>
+      <c r="S18" s="752" t="str"/>
+      <c r="T18" s="753" t="str"/>
+      <c r="U18" s="754" t="str"/>
+      <c r="V18" s="755" t="str"/>
+      <c r="W18" s="756" t="str"/>
+      <c r="X18" s="757" t="str"/>
+      <c r="Y18" s="758" t="str"/>
+      <c r="Z18" s="759" t="str"/>
+      <c r="AA18" s="760" t="str"/>
+      <c r="AB18" s="761" t="str"/>
+      <c r="AC18" s="762" t="str"/>
+      <c r="AD18" s="763" t="str"/>
+      <c r="AE18" s="764" t="str"/>
+      <c r="AF18" s="765" t="str"/>
+      <c r="AG18" s="766" t="str"/>
+      <c r="AH18" s="767" t="str"/>
+      <c r="AI18" s="768" t="str"/>
+      <c r="AJ18" t="str">
         <v>3000</v>
       </c>
-      <c r="AJ18" s="766" t="str"/>
-      <c r="AK18" s="767" t="str"/>
+      <c r="AK18" s="769" t="str"/>
       <c r="AL18" t="str">
         <v>3000</v>
       </c>
@@ -47087,140 +46812,134 @@
       <c r="BJ18" t="str">
         <v>3000</v>
       </c>
-      <c r="BK18" t="str">
-        <v>3000</v>
-      </c>
+      <c r="BK18" s="770" t="str"/>
       <c r="BL18" t="str">
-        <v>3000</v>
-      </c>
-      <c r="BM18" s="768" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_30_m_24_et._3354523650</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <v>1-к. квартира, 48 м², 4/5 эт.</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="771" t="str"/>
+      <c r="C19" s="772" t="str"/>
+      <c r="D19" s="773" t="str"/>
+      <c r="E19" s="774" t="str"/>
+      <c r="F19" s="775" t="str"/>
+      <c r="G19" s="776" t="str"/>
+      <c r="H19" s="777" t="str"/>
+      <c r="I19" s="778" t="str"/>
+      <c r="J19" s="779" t="str"/>
+      <c r="K19" s="780" t="str"/>
+      <c r="L19" s="781" t="str"/>
+      <c r="M19" s="782" t="str"/>
+      <c r="N19" s="783" t="str"/>
+      <c r="O19" s="784" t="str"/>
+      <c r="P19" s="785" t="str"/>
+      <c r="Q19" s="786" t="str"/>
+      <c r="R19" s="787" t="str"/>
+      <c r="S19" s="788" t="str"/>
+      <c r="T19" s="789" t="str"/>
+      <c r="U19" s="790" t="str"/>
+      <c r="V19" s="791" t="str"/>
+      <c r="W19" s="792" t="str"/>
+      <c r="X19" s="793" t="str"/>
+      <c r="Y19" s="794" t="str"/>
+      <c r="Z19" s="795" t="str"/>
+      <c r="AA19" s="796" t="str"/>
+      <c r="AB19" s="797" t="str"/>
+      <c r="AC19" s="798" t="str"/>
+      <c r="AD19" s="799" t="str"/>
+      <c r="AE19" s="800" t="str"/>
+      <c r="AF19" s="801" t="str"/>
+      <c r="AG19" s="802" t="str"/>
+      <c r="AH19" s="803" t="str"/>
+      <c r="AI19" s="804" t="str"/>
+      <c r="AJ19" s="805" t="str"/>
+      <c r="AK19" s="806" t="str"/>
+      <c r="AL19" s="807" t="str"/>
+      <c r="AM19" s="808" t="str"/>
+      <c r="AN19" s="809" t="str"/>
+      <c r="AO19" s="810" t="str"/>
+      <c r="AP19" s="811" t="str"/>
+      <c r="AQ19" s="812" t="str"/>
+      <c r="AR19" s="813" t="str"/>
+      <c r="AS19" s="814" t="str"/>
+      <c r="AT19" s="815" t="str"/>
+      <c r="AU19" s="816" t="str"/>
+      <c r="AV19" s="817" t="str"/>
+      <c r="AW19" s="818" t="str"/>
+      <c r="AX19" s="819" t="str"/>
+      <c r="AY19" s="820" t="str"/>
+      <c r="AZ19" s="821" t="str"/>
+      <c r="BA19" s="822" t="str"/>
+      <c r="BB19" s="823" t="str"/>
+      <c r="BC19" s="824" t="str"/>
+      <c r="BD19" s="825" t="str"/>
+      <c r="BE19" s="826" t="str"/>
+      <c r="BF19" s="827" t="str"/>
+      <c r="BG19" s="828" t="str"/>
+      <c r="BH19" s="829" t="str"/>
+      <c r="BI19" s="830" t="str"/>
+      <c r="BJ19" s="831" t="str"/>
+      <c r="BK19" s="832" t="str"/>
+      <c r="BL19" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_48_m_45_et._2378449553</v>
       </c>
-      <c r="C19" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D19" s="769" t="str"/>
-      <c r="E19" s="770" t="str"/>
-      <c r="F19" s="771" t="str"/>
-      <c r="G19" s="772" t="str"/>
-      <c r="H19" s="773" t="str"/>
-      <c r="I19" s="774" t="str"/>
-      <c r="J19" s="775" t="str"/>
-      <c r="K19" s="776" t="str"/>
-      <c r="L19" s="777" t="str"/>
-      <c r="M19" s="778" t="str"/>
-      <c r="N19" s="779" t="str"/>
-      <c r="O19" s="780" t="str"/>
-      <c r="P19" s="781" t="str"/>
-      <c r="Q19" s="782" t="str"/>
-      <c r="R19" s="783" t="str"/>
-      <c r="S19" s="784" t="str"/>
-      <c r="T19" s="785" t="str"/>
-      <c r="U19" s="786" t="str"/>
-      <c r="V19" s="787" t="str"/>
-      <c r="W19" s="788" t="str"/>
-      <c r="X19" s="789" t="str"/>
-      <c r="Y19" s="790" t="str"/>
-      <c r="Z19" s="791" t="str"/>
-      <c r="AA19" s="792" t="str"/>
-      <c r="AB19" s="793" t="str"/>
-      <c r="AC19" s="794" t="str"/>
-      <c r="AD19" s="795" t="str"/>
-      <c r="AE19" s="796" t="str"/>
-      <c r="AF19" s="797" t="str"/>
-      <c r="AG19" s="798" t="str"/>
-      <c r="AH19" s="799" t="str"/>
-      <c r="AI19" s="800" t="str"/>
-      <c r="AJ19" s="801" t="str"/>
-      <c r="AK19" s="802" t="str"/>
-      <c r="AL19" s="803" t="str"/>
-      <c r="AM19" s="804" t="str"/>
-      <c r="AN19" s="805" t="str"/>
-      <c r="AO19" s="806" t="str"/>
-      <c r="AP19" s="807" t="str"/>
-      <c r="AQ19" s="808" t="str"/>
-      <c r="AR19" s="809" t="str"/>
-      <c r="AS19" s="810" t="str"/>
-      <c r="AT19" s="811" t="str"/>
-      <c r="AU19" s="812" t="str"/>
-      <c r="AV19" s="813" t="str"/>
-      <c r="AW19" s="814" t="str"/>
-      <c r="AX19" s="815" t="str"/>
-      <c r="AY19" s="816" t="str"/>
-      <c r="AZ19" s="817" t="str"/>
-      <c r="BA19" s="818" t="str"/>
-      <c r="BB19" s="819" t="str"/>
-      <c r="BC19" s="820" t="str"/>
-      <c r="BD19" s="821" t="str"/>
-      <c r="BE19" s="822" t="str"/>
-      <c r="BF19" s="823" t="str"/>
-      <c r="BG19" s="824" t="str"/>
-      <c r="BH19" s="825" t="str"/>
-      <c r="BI19" s="826" t="str"/>
-      <c r="BJ19" s="827" t="str"/>
-      <c r="BK19" s="828" t="str"/>
-      <c r="BL19" s="829" t="str"/>
-      <c r="BM19" s="830" t="str"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <v>1-к. квартира, 34,5 м², 2/5 эт.</v>
       </c>
-      <c r="B20" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_345_m_25_et._4167237061</v>
-      </c>
-      <c r="C20" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D20" s="831" t="str"/>
-      <c r="E20" s="832" t="str"/>
-      <c r="F20" s="833" t="str"/>
-      <c r="G20" s="834" t="str"/>
-      <c r="H20" s="835" t="str"/>
-      <c r="I20" s="836" t="str"/>
-      <c r="J20" s="837" t="str"/>
-      <c r="K20" s="838" t="str"/>
-      <c r="L20" s="839" t="str"/>
-      <c r="M20" s="840" t="str"/>
-      <c r="N20" s="841" t="str"/>
-      <c r="O20" s="842" t="str"/>
-      <c r="P20" s="843" t="str"/>
-      <c r="Q20" s="844" t="str"/>
-      <c r="R20" s="845" t="str"/>
-      <c r="S20" s="846" t="str"/>
-      <c r="T20" s="847" t="str"/>
-      <c r="U20" s="848" t="str"/>
-      <c r="V20" s="849" t="str"/>
-      <c r="W20" s="850" t="str"/>
-      <c r="X20" s="851" t="str"/>
-      <c r="Y20" s="852" t="str"/>
-      <c r="Z20" s="853" t="str"/>
-      <c r="AA20" s="854" t="str"/>
-      <c r="AB20" s="855" t="str"/>
-      <c r="AC20" s="856" t="str"/>
-      <c r="AD20" s="857" t="str"/>
-      <c r="AE20" s="858" t="str"/>
-      <c r="AF20" s="859" t="str"/>
-      <c r="AG20" s="860" t="str"/>
-      <c r="AH20" s="861" t="str"/>
-      <c r="AI20" t="str">
+      <c r="B20" s="833" t="str"/>
+      <c r="C20" s="834" t="str"/>
+      <c r="D20" s="835" t="str"/>
+      <c r="E20" s="836" t="str"/>
+      <c r="F20" s="837" t="str"/>
+      <c r="G20" s="838" t="str"/>
+      <c r="H20" s="839" t="str"/>
+      <c r="I20" s="840" t="str"/>
+      <c r="J20" s="841" t="str"/>
+      <c r="K20" s="842" t="str"/>
+      <c r="L20" s="843" t="str"/>
+      <c r="M20" s="844" t="str"/>
+      <c r="N20" s="845" t="str"/>
+      <c r="O20" s="846" t="str"/>
+      <c r="P20" s="847" t="str"/>
+      <c r="Q20" s="848" t="str"/>
+      <c r="R20" s="849" t="str"/>
+      <c r="S20" s="850" t="str"/>
+      <c r="T20" s="851" t="str"/>
+      <c r="U20" s="852" t="str"/>
+      <c r="V20" s="853" t="str"/>
+      <c r="W20" s="854" t="str"/>
+      <c r="X20" s="855" t="str"/>
+      <c r="Y20" s="856" t="str"/>
+      <c r="Z20" s="857" t="str"/>
+      <c r="AA20" s="858" t="str"/>
+      <c r="AB20" s="859" t="str"/>
+      <c r="AC20" s="860" t="str"/>
+      <c r="AD20" s="861" t="str"/>
+      <c r="AE20" s="862" t="str"/>
+      <c r="AF20" s="863" t="str"/>
+      <c r="AG20" t="str">
         <v>3500</v>
       </c>
-      <c r="AJ20" s="862" t="str"/>
-      <c r="AK20" s="863" t="str"/>
-      <c r="AL20" s="864" t="str"/>
-      <c r="AM20" s="865" t="str"/>
-      <c r="AN20" s="866" t="str"/>
-      <c r="AO20" s="867" t="str"/>
-      <c r="AP20" s="868" t="str"/>
-      <c r="AQ20" s="869" t="str"/>
-      <c r="AR20" s="870" t="str"/>
+      <c r="AH20" s="864" t="str"/>
+      <c r="AI20" s="865" t="str"/>
+      <c r="AJ20" s="866" t="str"/>
+      <c r="AK20" s="867" t="str"/>
+      <c r="AL20" s="868" t="str"/>
+      <c r="AM20" s="869" t="str"/>
+      <c r="AN20" s="870" t="str"/>
+      <c r="AO20" s="871" t="str"/>
+      <c r="AP20" s="872" t="str"/>
+      <c r="AQ20" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AR20" t="str">
+        <v>3500</v>
+      </c>
       <c r="AS20" t="str">
         <v>3500</v>
       </c>
@@ -47275,188 +46994,179 @@
       <c r="BJ20" t="str">
         <v>3500</v>
       </c>
-      <c r="BK20" t="str">
-        <v>3500</v>
-      </c>
+      <c r="BK20" s="873" t="str"/>
       <c r="BL20" t="str">
-        <v>3500</v>
-      </c>
-      <c r="BM20" s="871" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_345_m_25_et._4167237061</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <v>1-к. квартира, 32 м², 2/5 эт.</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="874" t="str"/>
+      <c r="C21" s="875" t="str"/>
+      <c r="D21" s="876" t="str"/>
+      <c r="E21" s="877" t="str"/>
+      <c r="F21" s="878" t="str"/>
+      <c r="G21" s="879" t="str"/>
+      <c r="H21" s="880" t="str"/>
+      <c r="I21" s="881" t="str"/>
+      <c r="J21" s="882" t="str"/>
+      <c r="K21" s="883" t="str"/>
+      <c r="L21" s="884" t="str"/>
+      <c r="M21" s="885" t="str"/>
+      <c r="N21" s="886" t="str"/>
+      <c r="O21" s="887" t="str"/>
+      <c r="P21" s="888" t="str"/>
+      <c r="Q21" s="889" t="str"/>
+      <c r="R21" s="890" t="str"/>
+      <c r="S21" s="891" t="str"/>
+      <c r="T21" s="892" t="str"/>
+      <c r="U21" s="893" t="str"/>
+      <c r="V21" s="894" t="str"/>
+      <c r="W21" s="895" t="str"/>
+      <c r="X21" s="896" t="str"/>
+      <c r="Y21" s="897" t="str"/>
+      <c r="Z21" s="898" t="str"/>
+      <c r="AA21" s="899" t="str"/>
+      <c r="AB21" s="900" t="str"/>
+      <c r="AC21" s="901" t="str"/>
+      <c r="AD21" s="902" t="str"/>
+      <c r="AE21" s="903" t="str"/>
+      <c r="AF21" s="904" t="str"/>
+      <c r="AG21" s="905" t="str"/>
+      <c r="AH21" s="906" t="str"/>
+      <c r="AI21" s="907" t="str"/>
+      <c r="AJ21" s="908" t="str"/>
+      <c r="AK21" s="909" t="str"/>
+      <c r="AL21" s="910" t="str"/>
+      <c r="AM21" s="911" t="str"/>
+      <c r="AN21" s="912" t="str"/>
+      <c r="AO21" s="913" t="str"/>
+      <c r="AP21" s="914" t="str"/>
+      <c r="AQ21" s="915" t="str"/>
+      <c r="AR21" s="916" t="str"/>
+      <c r="AS21" s="917" t="str"/>
+      <c r="AT21" s="918" t="str"/>
+      <c r="AU21" s="919" t="str"/>
+      <c r="AV21" s="920" t="str"/>
+      <c r="AW21" s="921" t="str"/>
+      <c r="AX21" s="922" t="str"/>
+      <c r="AY21" s="923" t="str"/>
+      <c r="AZ21" s="924" t="str"/>
+      <c r="BA21" s="925" t="str"/>
+      <c r="BB21" s="926" t="str"/>
+      <c r="BC21" s="927" t="str"/>
+      <c r="BD21" s="928" t="str"/>
+      <c r="BE21" s="929" t="str"/>
+      <c r="BF21" s="930" t="str"/>
+      <c r="BG21" s="931" t="str"/>
+      <c r="BH21" s="932" t="str"/>
+      <c r="BI21" s="933" t="str"/>
+      <c r="BJ21" s="934" t="str"/>
+      <c r="BK21" s="935" t="str"/>
+      <c r="BL21" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_32_m_25_et._2901939712</v>
       </c>
-      <c r="C21" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D21" s="872" t="str"/>
-      <c r="E21" s="873" t="str"/>
-      <c r="F21" s="874" t="str"/>
-      <c r="G21" s="875" t="str"/>
-      <c r="H21" s="876" t="str"/>
-      <c r="I21" s="877" t="str"/>
-      <c r="J21" s="878" t="str"/>
-      <c r="K21" s="879" t="str"/>
-      <c r="L21" s="880" t="str"/>
-      <c r="M21" s="881" t="str"/>
-      <c r="N21" s="882" t="str"/>
-      <c r="O21" s="883" t="str"/>
-      <c r="P21" s="884" t="str"/>
-      <c r="Q21" s="885" t="str"/>
-      <c r="R21" s="886" t="str"/>
-      <c r="S21" s="887" t="str"/>
-      <c r="T21" s="888" t="str"/>
-      <c r="U21" s="889" t="str"/>
-      <c r="V21" s="890" t="str"/>
-      <c r="W21" s="891" t="str"/>
-      <c r="X21" s="892" t="str"/>
-      <c r="Y21" s="893" t="str"/>
-      <c r="Z21" s="894" t="str"/>
-      <c r="AA21" s="895" t="str"/>
-      <c r="AB21" s="896" t="str"/>
-      <c r="AC21" s="897" t="str"/>
-      <c r="AD21" s="898" t="str"/>
-      <c r="AE21" s="899" t="str"/>
-      <c r="AF21" s="900" t="str"/>
-      <c r="AG21" s="901" t="str"/>
-      <c r="AH21" s="902" t="str"/>
-      <c r="AI21" s="903" t="str"/>
-      <c r="AJ21" s="904" t="str"/>
-      <c r="AK21" s="905" t="str"/>
-      <c r="AL21" s="906" t="str"/>
-      <c r="AM21" s="907" t="str"/>
-      <c r="AN21" s="908" t="str"/>
-      <c r="AO21" s="909" t="str"/>
-      <c r="AP21" s="910" t="str"/>
-      <c r="AQ21" s="911" t="str"/>
-      <c r="AR21" s="912" t="str"/>
-      <c r="AS21" s="913" t="str"/>
-      <c r="AT21" s="914" t="str"/>
-      <c r="AU21" s="915" t="str"/>
-      <c r="AV21" s="916" t="str"/>
-      <c r="AW21" s="917" t="str"/>
-      <c r="AX21" s="918" t="str"/>
-      <c r="AY21" s="919" t="str"/>
-      <c r="AZ21" s="920" t="str"/>
-      <c r="BA21" s="921" t="str"/>
-      <c r="BB21" s="922" t="str"/>
-      <c r="BC21" s="923" t="str"/>
-      <c r="BD21" s="924" t="str"/>
-      <c r="BE21" s="925" t="str"/>
-      <c r="BF21" s="926" t="str"/>
-      <c r="BG21" s="927" t="str"/>
-      <c r="BH21" s="928" t="str"/>
-      <c r="BI21" s="929" t="str"/>
-      <c r="BJ21" s="930" t="str"/>
-      <c r="BK21" s="931" t="str"/>
-      <c r="BL21" s="932" t="str"/>
-      <c r="BM21" s="933" t="str"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
         <v>1-к. квартира, 38 м², 3/5 эт.</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="936" t="str"/>
+      <c r="C22" s="937" t="str"/>
+      <c r="D22" s="938" t="str"/>
+      <c r="E22" s="939" t="str"/>
+      <c r="F22" s="940" t="str"/>
+      <c r="G22" s="941" t="str"/>
+      <c r="H22" s="942" t="str"/>
+      <c r="I22" s="943" t="str"/>
+      <c r="J22" s="944" t="str"/>
+      <c r="K22" s="945" t="str"/>
+      <c r="L22" s="946" t="str"/>
+      <c r="M22" s="947" t="str"/>
+      <c r="N22" s="948" t="str"/>
+      <c r="O22" s="949" t="str"/>
+      <c r="P22" s="950" t="str"/>
+      <c r="Q22" s="951" t="str"/>
+      <c r="R22" s="952" t="str"/>
+      <c r="S22" s="953" t="str"/>
+      <c r="T22" s="954" t="str"/>
+      <c r="U22" s="955" t="str"/>
+      <c r="V22" s="956" t="str"/>
+      <c r="W22" s="957" t="str"/>
+      <c r="X22" s="958" t="str"/>
+      <c r="Y22" s="959" t="str"/>
+      <c r="Z22" s="960" t="str"/>
+      <c r="AA22" s="961" t="str"/>
+      <c r="AB22" s="962" t="str"/>
+      <c r="AC22" s="963" t="str"/>
+      <c r="AD22" s="964" t="str"/>
+      <c r="AE22" s="965" t="str"/>
+      <c r="AF22" s="966" t="str"/>
+      <c r="AG22" s="967" t="str"/>
+      <c r="AH22" s="968" t="str"/>
+      <c r="AI22" s="969" t="str"/>
+      <c r="AJ22" s="970" t="str"/>
+      <c r="AK22" s="971" t="str"/>
+      <c r="AL22" s="972" t="str"/>
+      <c r="AM22" s="973" t="str"/>
+      <c r="AN22" s="974" t="str"/>
+      <c r="AO22" s="975" t="str"/>
+      <c r="AP22" s="976" t="str"/>
+      <c r="AQ22" s="977" t="str"/>
+      <c r="AR22" s="978" t="str"/>
+      <c r="AS22" s="979" t="str"/>
+      <c r="AT22" s="980" t="str"/>
+      <c r="AU22" s="981" t="str"/>
+      <c r="AV22" s="982" t="str"/>
+      <c r="AW22" s="983" t="str"/>
+      <c r="AX22" s="984" t="str"/>
+      <c r="AY22" s="985" t="str"/>
+      <c r="AZ22" s="986" t="str"/>
+      <c r="BA22" s="987" t="str"/>
+      <c r="BB22" s="988" t="str"/>
+      <c r="BC22" s="989" t="str"/>
+      <c r="BD22" s="990" t="str"/>
+      <c r="BE22" s="991" t="str"/>
+      <c r="BF22" s="992" t="str"/>
+      <c r="BG22" s="993" t="str"/>
+      <c r="BH22" s="994" t="str"/>
+      <c r="BI22" s="995" t="str"/>
+      <c r="BJ22" s="996" t="str"/>
+      <c r="BK22" s="997" t="str"/>
+      <c r="BL22" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_38_m_35_et._1138118298</v>
       </c>
-      <c r="C22" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D22" s="934" t="str"/>
-      <c r="E22" s="935" t="str"/>
-      <c r="F22" s="936" t="str"/>
-      <c r="G22" s="937" t="str"/>
-      <c r="H22" s="938" t="str"/>
-      <c r="I22" s="939" t="str"/>
-      <c r="J22" s="940" t="str"/>
-      <c r="K22" s="941" t="str"/>
-      <c r="L22" s="942" t="str"/>
-      <c r="M22" s="943" t="str"/>
-      <c r="N22" s="944" t="str"/>
-      <c r="O22" s="945" t="str"/>
-      <c r="P22" s="946" t="str"/>
-      <c r="Q22" s="947" t="str"/>
-      <c r="R22" s="948" t="str"/>
-      <c r="S22" s="949" t="str"/>
-      <c r="T22" s="950" t="str"/>
-      <c r="U22" s="951" t="str"/>
-      <c r="V22" s="952" t="str"/>
-      <c r="W22" s="953" t="str"/>
-      <c r="X22" s="954" t="str"/>
-      <c r="Y22" s="955" t="str"/>
-      <c r="Z22" s="956" t="str"/>
-      <c r="AA22" s="957" t="str"/>
-      <c r="AB22" s="958" t="str"/>
-      <c r="AC22" s="959" t="str"/>
-      <c r="AD22" s="960" t="str"/>
-      <c r="AE22" s="961" t="str"/>
-      <c r="AF22" s="962" t="str"/>
-      <c r="AG22" s="963" t="str"/>
-      <c r="AH22" s="964" t="str"/>
-      <c r="AI22" s="965" t="str"/>
-      <c r="AJ22" s="966" t="str"/>
-      <c r="AK22" s="967" t="str"/>
-      <c r="AL22" s="968" t="str"/>
-      <c r="AM22" s="969" t="str"/>
-      <c r="AN22" s="970" t="str"/>
-      <c r="AO22" s="971" t="str"/>
-      <c r="AP22" s="972" t="str"/>
-      <c r="AQ22" s="973" t="str"/>
-      <c r="AR22" s="974" t="str"/>
-      <c r="AS22" s="975" t="str"/>
-      <c r="AT22" s="976" t="str"/>
-      <c r="AU22" s="977" t="str"/>
-      <c r="AV22" s="978" t="str"/>
-      <c r="AW22" s="979" t="str"/>
-      <c r="AX22" s="980" t="str"/>
-      <c r="AY22" s="981" t="str"/>
-      <c r="AZ22" s="982" t="str"/>
-      <c r="BA22" s="983" t="str"/>
-      <c r="BB22" s="984" t="str"/>
-      <c r="BC22" s="985" t="str"/>
-      <c r="BD22" s="986" t="str"/>
-      <c r="BE22" s="987" t="str"/>
-      <c r="BF22" s="988" t="str"/>
-      <c r="BG22" s="989" t="str"/>
-      <c r="BH22" s="990" t="str"/>
-      <c r="BI22" s="991" t="str"/>
-      <c r="BJ22" s="992" t="str"/>
-      <c r="BK22" s="993" t="str"/>
-      <c r="BL22" s="994" t="str"/>
-      <c r="BM22" s="995" t="str"/>
     </row>
     <row r="23">
       <c r="A23" t="str">
         <v>1-к. квартира, 32 м², 2/5 эт.</v>
       </c>
-      <c r="B23" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_32_m_25_et._2079217995</v>
-      </c>
-      <c r="C23" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D23" s="996" t="str"/>
-      <c r="E23" s="997" t="str"/>
-      <c r="F23" s="998" t="str"/>
-      <c r="G23" s="999" t="str"/>
-      <c r="H23" s="1000" t="str"/>
-      <c r="I23" s="1001" t="str"/>
-      <c r="J23" s="1002" t="str"/>
-      <c r="K23" s="1003" t="str"/>
-      <c r="L23" s="1004" t="str"/>
-      <c r="M23" s="1005" t="str"/>
-      <c r="N23" s="1006" t="str"/>
-      <c r="O23" s="1007" t="str"/>
-      <c r="P23" s="1008" t="str"/>
-      <c r="Q23" s="1009" t="str"/>
-      <c r="R23" s="1010" t="str"/>
-      <c r="S23" s="1011" t="str"/>
-      <c r="T23" s="1012" t="str"/>
-      <c r="U23" s="1013" t="str"/>
+      <c r="B23" s="998" t="str"/>
+      <c r="C23" s="999" t="str"/>
+      <c r="D23" s="1000" t="str"/>
+      <c r="E23" s="1001" t="str"/>
+      <c r="F23" s="1002" t="str"/>
+      <c r="G23" s="1003" t="str"/>
+      <c r="H23" s="1004" t="str"/>
+      <c r="I23" s="1005" t="str"/>
+      <c r="J23" s="1006" t="str"/>
+      <c r="K23" s="1007" t="str"/>
+      <c r="L23" s="1008" t="str"/>
+      <c r="M23" s="1009" t="str"/>
+      <c r="N23" s="1010" t="str"/>
+      <c r="O23" s="1011" t="str"/>
+      <c r="P23" s="1012" t="str"/>
+      <c r="Q23" s="1013" t="str"/>
+      <c r="R23" s="1014" t="str"/>
+      <c r="S23" s="1015" t="str"/>
+      <c r="T23" t="str">
+        <v>6500</v>
+      </c>
+      <c r="U23" t="str">
+        <v>6500</v>
+      </c>
       <c r="V23" t="str">
         <v>6500</v>
       </c>
@@ -47580,453 +47290,476 @@
       <c r="BJ23" t="str">
         <v>6500</v>
       </c>
-      <c r="BK23" t="str">
-        <v>6500</v>
-      </c>
+      <c r="BK23" s="1016" t="str"/>
       <c r="BL23" t="str">
-        <v>6500</v>
-      </c>
-      <c r="BM23" s="1014" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_32_m_25_et._2079217995</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>1-к. квартира, 30,9 м², 3/4 эт.</v>
-      </c>
-      <c r="B24" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_309_m_34_et._2182989701</v>
-      </c>
-      <c r="C24" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D24" s="1015" t="str"/>
-      <c r="E24" s="1016" t="str"/>
-      <c r="F24" s="1017" t="str"/>
-      <c r="G24" s="1018" t="str"/>
-      <c r="H24" s="1019" t="str"/>
-      <c r="I24" s="1020" t="str"/>
-      <c r="J24" s="1021" t="str"/>
-      <c r="K24" s="1022" t="str"/>
-      <c r="L24" s="1023" t="str"/>
-      <c r="M24" s="1024" t="str"/>
-      <c r="N24" s="1025" t="str"/>
-      <c r="O24" s="1026" t="str"/>
-      <c r="P24" s="1027" t="str"/>
-      <c r="Q24" s="1028" t="str"/>
-      <c r="R24" s="1029" t="str"/>
-      <c r="S24" s="1030" t="str"/>
-      <c r="T24" s="1031" t="str"/>
-      <c r="U24" s="1032" t="str"/>
-      <c r="V24" s="1033" t="str"/>
-      <c r="W24" s="1034" t="str"/>
-      <c r="X24" s="1035" t="str"/>
-      <c r="Y24" s="1036" t="str"/>
-      <c r="Z24" s="1037" t="str"/>
-      <c r="AA24" s="1038" t="str"/>
-      <c r="AB24" s="1039" t="str"/>
-      <c r="AC24" s="1040" t="str"/>
+        <v>1-к. квартира, 32 м², 2/5 эт.</v>
+      </c>
+      <c r="B24" s="1017" t="str"/>
+      <c r="C24" s="1018" t="str"/>
+      <c r="D24" s="1019" t="str"/>
+      <c r="E24" s="1020" t="str"/>
+      <c r="F24" s="1021" t="str"/>
+      <c r="G24" s="1022" t="str"/>
+      <c r="H24" s="1023" t="str"/>
+      <c r="I24" s="1024" t="str"/>
+      <c r="J24" s="1025" t="str"/>
+      <c r="K24" s="1026" t="str"/>
+      <c r="L24" s="1027" t="str"/>
+      <c r="M24" s="1028" t="str"/>
+      <c r="N24" s="1029" t="str"/>
+      <c r="O24" s="1030" t="str"/>
+      <c r="P24" s="1031" t="str"/>
+      <c r="Q24" s="1032" t="str"/>
+      <c r="R24" s="1033" t="str"/>
+      <c r="S24" s="1034" t="str"/>
+      <c r="T24" t="str">
+        <v>6500</v>
+      </c>
+      <c r="U24" t="str">
+        <v>6500</v>
+      </c>
+      <c r="V24" t="str">
+        <v>6500</v>
+      </c>
+      <c r="W24" t="str">
+        <v>6500</v>
+      </c>
+      <c r="X24" t="str">
+        <v>6500</v>
+      </c>
+      <c r="Y24" t="str">
+        <v>6500</v>
+      </c>
+      <c r="Z24" t="str">
+        <v>6500</v>
+      </c>
+      <c r="AA24" t="str">
+        <v>6500</v>
+      </c>
+      <c r="AB24" t="str">
+        <v>6500</v>
+      </c>
+      <c r="AC24" t="str">
+        <v>6500</v>
+      </c>
       <c r="AD24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AE24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AF24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AG24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AH24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AI24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AJ24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AK24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AL24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AM24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AN24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AO24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AP24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AQ24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AR24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AS24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AT24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AU24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AV24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AW24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AX24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AY24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="AZ24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="BA24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="BB24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="BC24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="BD24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="BE24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="BF24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="BG24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="BH24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="BI24" t="str">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="BJ24" t="str">
-        <v>3500</v>
-      </c>
-      <c r="BK24" t="str">
-        <v>3500</v>
-      </c>
+        <v>6500</v>
+      </c>
+      <c r="BK24" s="1035" t="str"/>
       <c r="BL24" t="str">
-        <v>3500</v>
-      </c>
-      <c r="BM24" s="1041" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_32_m_25_et._2079217995</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>1-к. квартира, 31 м², 2/4 эт.</v>
-      </c>
-      <c r="B25" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_31_m_24_et._3143340852</v>
-      </c>
-      <c r="C25" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D25" s="1042" t="str"/>
-      <c r="E25" s="1043" t="str"/>
-      <c r="F25" s="1044" t="str"/>
-      <c r="G25" s="1045" t="str"/>
-      <c r="H25" s="1046" t="str"/>
-      <c r="I25" s="1047" t="str"/>
-      <c r="J25" s="1048" t="str"/>
-      <c r="K25" s="1049" t="str"/>
-      <c r="L25" s="1050" t="str"/>
-      <c r="M25" s="1051" t="str"/>
-      <c r="N25" s="1052" t="str"/>
-      <c r="O25" s="1053" t="str"/>
-      <c r="P25" s="1054" t="str"/>
-      <c r="Q25" s="1055" t="str"/>
-      <c r="R25" s="1056" t="str"/>
-      <c r="S25" s="1057" t="str"/>
-      <c r="T25" s="1058" t="str"/>
-      <c r="U25" s="1059" t="str"/>
-      <c r="V25" s="1060" t="str"/>
-      <c r="W25" s="1061" t="str"/>
-      <c r="X25" s="1062" t="str"/>
-      <c r="Y25" s="1063" t="str"/>
-      <c r="Z25" s="1064" t="str"/>
-      <c r="AA25" s="1065" t="str"/>
-      <c r="AB25" s="1066" t="str"/>
-      <c r="AC25" s="1067" t="str"/>
-      <c r="AD25" s="1068" t="str"/>
-      <c r="AE25" s="1069" t="str"/>
-      <c r="AF25" s="1070" t="str"/>
-      <c r="AG25" s="1071" t="str"/>
-      <c r="AH25" s="1072" t="str"/>
-      <c r="AI25" s="1073" t="str"/>
-      <c r="AJ25" s="1074" t="str"/>
-      <c r="AK25" s="1075" t="str"/>
-      <c r="AL25" s="1076" t="str"/>
-      <c r="AM25" s="1077" t="str"/>
-      <c r="AN25" s="1078" t="str"/>
-      <c r="AO25" s="1079" t="str"/>
-      <c r="AP25" s="1080" t="str"/>
-      <c r="AQ25" s="1081" t="str"/>
-      <c r="AR25" s="1082" t="str"/>
-      <c r="AS25" s="1083" t="str"/>
-      <c r="AT25" s="1084" t="str"/>
-      <c r="AU25" s="1085" t="str"/>
-      <c r="AV25" s="1086" t="str"/>
-      <c r="AW25" s="1087" t="str"/>
-      <c r="AX25" s="1088" t="str"/>
-      <c r="AY25" s="1089" t="str"/>
-      <c r="AZ25" s="1090" t="str"/>
-      <c r="BA25" s="1091" t="str"/>
-      <c r="BB25" s="1092" t="str"/>
-      <c r="BC25" s="1093" t="str"/>
-      <c r="BD25" s="1094" t="str"/>
-      <c r="BE25" s="1095" t="str"/>
-      <c r="BF25" s="1096" t="str"/>
-      <c r="BG25" s="1097" t="str"/>
-      <c r="BH25" s="1098" t="str"/>
-      <c r="BI25" s="1099" t="str"/>
-      <c r="BJ25" s="1100" t="str"/>
-      <c r="BK25" s="1101" t="str"/>
-      <c r="BL25" s="1102" t="str"/>
-      <c r="BM25" s="1103" t="str"/>
+        <v>1-к. квартира, 30,9 м², 3/4 эт.</v>
+      </c>
+      <c r="B25" s="1036" t="str"/>
+      <c r="C25" s="1037" t="str"/>
+      <c r="D25" s="1038" t="str"/>
+      <c r="E25" s="1039" t="str"/>
+      <c r="F25" s="1040" t="str"/>
+      <c r="G25" s="1041" t="str"/>
+      <c r="H25" s="1042" t="str"/>
+      <c r="I25" s="1043" t="str"/>
+      <c r="J25" s="1044" t="str"/>
+      <c r="K25" s="1045" t="str"/>
+      <c r="L25" s="1046" t="str"/>
+      <c r="M25" s="1047" t="str"/>
+      <c r="N25" s="1048" t="str"/>
+      <c r="O25" s="1049" t="str"/>
+      <c r="P25" s="1050" t="str"/>
+      <c r="Q25" s="1051" t="str"/>
+      <c r="R25" s="1052" t="str"/>
+      <c r="S25" s="1053" t="str"/>
+      <c r="T25" s="1054" t="str"/>
+      <c r="U25" s="1055" t="str"/>
+      <c r="V25" s="1056" t="str"/>
+      <c r="W25" s="1057" t="str"/>
+      <c r="X25" s="1058" t="str"/>
+      <c r="Y25" s="1059" t="str"/>
+      <c r="Z25" s="1060" t="str"/>
+      <c r="AA25" s="1061" t="str"/>
+      <c r="AB25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AC25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AD25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AE25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AF25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AG25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AH25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AI25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AJ25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AK25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AL25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AM25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AN25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AO25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AP25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AQ25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AR25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AS25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AT25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AU25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AV25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AW25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AX25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AY25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AZ25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BA25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BB25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BC25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BD25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BE25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BF25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BG25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BH25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BI25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BJ25" t="str">
+        <v>3500</v>
+      </c>
+      <c r="BK25" s="1062" t="str"/>
+      <c r="BL25" t="str">
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_309_m_34_et._2182989701</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>1-к. квартира, 34,6 м², 3/3 эт.</v>
-      </c>
-      <c r="B26" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_346_m_33_et._2107762330</v>
-      </c>
-      <c r="C26" t="str">
-        <v>1-комнатные</v>
-      </c>
-      <c r="D26" s="1104" t="str"/>
-      <c r="E26" s="1105" t="str"/>
-      <c r="F26" s="1106" t="str"/>
-      <c r="G26" s="1107" t="str"/>
-      <c r="H26" s="1108" t="str"/>
-      <c r="I26" s="1109" t="str"/>
-      <c r="J26" s="1110" t="str"/>
-      <c r="K26" s="1111" t="str"/>
-      <c r="L26" s="1112" t="str"/>
-      <c r="M26" s="1113" t="str"/>
-      <c r="N26" s="1114" t="str"/>
-      <c r="O26" s="1115" t="str"/>
-      <c r="P26" s="1116" t="str"/>
-      <c r="Q26" s="1117" t="str"/>
-      <c r="R26" s="1118" t="str"/>
-      <c r="S26" s="1119" t="str"/>
-      <c r="T26" s="1120" t="str"/>
-      <c r="U26" s="1121" t="str"/>
-      <c r="V26" s="1122" t="str"/>
-      <c r="W26" s="1123" t="str"/>
-      <c r="X26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="Y26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="Z26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AA26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AB26" s="1124" t="str"/>
-      <c r="AC26" s="1125" t="str"/>
-      <c r="AD26" s="1126" t="str"/>
-      <c r="AE26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AF26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AG26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AH26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AI26" s="1127" t="str"/>
-      <c r="AJ26" s="1128" t="str"/>
-      <c r="AK26" s="1129" t="str"/>
-      <c r="AL26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AM26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AN26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AO26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AP26" s="1130" t="str"/>
-      <c r="AQ26" s="1131" t="str"/>
-      <c r="AR26" s="1132" t="str"/>
-      <c r="AS26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AT26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AU26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AV26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AW26" s="1133" t="str"/>
-      <c r="AX26" s="1134" t="str"/>
-      <c r="AY26" s="1135" t="str"/>
-      <c r="AZ26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="BA26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="BB26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="BC26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="BD26" s="1136" t="str"/>
-      <c r="BE26" s="1137" t="str"/>
-      <c r="BF26" s="1138" t="str"/>
-      <c r="BG26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="BH26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="BI26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="BJ26" t="str">
-        <v>5000</v>
-      </c>
-      <c r="BK26" s="1139" t="str"/>
-      <c r="BL26" s="1140" t="str"/>
-      <c r="BM26" s="1141" t="str"/>
+        <v>1-к. квартира, 31 м², 2/4 эт.</v>
+      </c>
+      <c r="B26" s="1063" t="str"/>
+      <c r="C26" s="1064" t="str"/>
+      <c r="D26" s="1065" t="str"/>
+      <c r="E26" s="1066" t="str"/>
+      <c r="F26" s="1067" t="str"/>
+      <c r="G26" s="1068" t="str"/>
+      <c r="H26" s="1069" t="str"/>
+      <c r="I26" s="1070" t="str"/>
+      <c r="J26" s="1071" t="str"/>
+      <c r="K26" s="1072" t="str"/>
+      <c r="L26" s="1073" t="str"/>
+      <c r="M26" s="1074" t="str"/>
+      <c r="N26" s="1075" t="str"/>
+      <c r="O26" s="1076" t="str"/>
+      <c r="P26" s="1077" t="str"/>
+      <c r="Q26" s="1078" t="str"/>
+      <c r="R26" s="1079" t="str"/>
+      <c r="S26" s="1080" t="str"/>
+      <c r="T26" s="1081" t="str"/>
+      <c r="U26" s="1082" t="str"/>
+      <c r="V26" s="1083" t="str"/>
+      <c r="W26" s="1084" t="str"/>
+      <c r="X26" s="1085" t="str"/>
+      <c r="Y26" s="1086" t="str"/>
+      <c r="Z26" s="1087" t="str"/>
+      <c r="AA26" s="1088" t="str"/>
+      <c r="AB26" s="1089" t="str"/>
+      <c r="AC26" s="1090" t="str"/>
+      <c r="AD26" s="1091" t="str"/>
+      <c r="AE26" s="1092" t="str"/>
+      <c r="AF26" s="1093" t="str"/>
+      <c r="AG26" s="1094" t="str"/>
+      <c r="AH26" s="1095" t="str"/>
+      <c r="AI26" s="1096" t="str"/>
+      <c r="AJ26" s="1097" t="str"/>
+      <c r="AK26" s="1098" t="str"/>
+      <c r="AL26" s="1099" t="str"/>
+      <c r="AM26" s="1100" t="str"/>
+      <c r="AN26" s="1101" t="str"/>
+      <c r="AO26" s="1102" t="str"/>
+      <c r="AP26" s="1103" t="str"/>
+      <c r="AQ26" s="1104" t="str"/>
+      <c r="AR26" s="1105" t="str"/>
+      <c r="AS26" s="1106" t="str"/>
+      <c r="AT26" s="1107" t="str"/>
+      <c r="AU26" s="1108" t="str"/>
+      <c r="AV26" s="1109" t="str"/>
+      <c r="AW26" s="1110" t="str"/>
+      <c r="AX26" s="1111" t="str"/>
+      <c r="AY26" s="1112" t="str"/>
+      <c r="AZ26" s="1113" t="str"/>
+      <c r="BA26" s="1114" t="str"/>
+      <c r="BB26" s="1115" t="str"/>
+      <c r="BC26" s="1116" t="str"/>
+      <c r="BD26" s="1117" t="str"/>
+      <c r="BE26" s="1118" t="str"/>
+      <c r="BF26" s="1119" t="str"/>
+      <c r="BG26" s="1120" t="str"/>
+      <c r="BH26" s="1121" t="str"/>
+      <c r="BI26" s="1122" t="str"/>
+      <c r="BJ26" s="1123" t="str"/>
+      <c r="BK26" s="1124" t="str"/>
+      <c r="BL26" t="str">
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/1-k._kvartira_31_m_24_et._3143340852</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
         <v>2-к. квартира, 55 м², 1/5 эт.</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="1125" t="str"/>
+      <c r="C27" s="1126" t="str"/>
+      <c r="D27" s="1127" t="str"/>
+      <c r="E27" s="1128" t="str"/>
+      <c r="F27" s="1129" t="str"/>
+      <c r="G27" s="1130" t="str"/>
+      <c r="H27" s="1131" t="str"/>
+      <c r="I27" s="1132" t="str"/>
+      <c r="J27" s="1133" t="str"/>
+      <c r="K27" s="1134" t="str"/>
+      <c r="L27" s="1135" t="str"/>
+      <c r="M27" s="1136" t="str"/>
+      <c r="N27" s="1137" t="str"/>
+      <c r="O27" s="1138" t="str"/>
+      <c r="P27" s="1139" t="str"/>
+      <c r="Q27" s="1140" t="str"/>
+      <c r="R27" s="1141" t="str"/>
+      <c r="S27" s="1142" t="str"/>
+      <c r="T27" s="1143" t="str"/>
+      <c r="U27" s="1144" t="str"/>
+      <c r="V27" s="1145" t="str"/>
+      <c r="W27" s="1146" t="str"/>
+      <c r="X27" s="1147" t="str"/>
+      <c r="Y27" s="1148" t="str"/>
+      <c r="Z27" s="1149" t="str"/>
+      <c r="AA27" s="1150" t="str"/>
+      <c r="AB27" s="1151" t="str"/>
+      <c r="AC27" s="1152" t="str"/>
+      <c r="AD27" s="1153" t="str"/>
+      <c r="AE27" s="1154" t="str"/>
+      <c r="AF27" s="1155" t="str"/>
+      <c r="AG27" s="1156" t="str"/>
+      <c r="AH27" s="1157" t="str"/>
+      <c r="AI27" s="1158" t="str"/>
+      <c r="AJ27" s="1159" t="str"/>
+      <c r="AK27" s="1160" t="str"/>
+      <c r="AL27" s="1161" t="str"/>
+      <c r="AM27" s="1162" t="str"/>
+      <c r="AN27" s="1163" t="str"/>
+      <c r="AO27" s="1164" t="str"/>
+      <c r="AP27" s="1165" t="str"/>
+      <c r="AQ27" s="1166" t="str"/>
+      <c r="AR27" s="1167" t="str"/>
+      <c r="AS27" s="1168" t="str"/>
+      <c r="AT27" s="1169" t="str"/>
+      <c r="AU27" s="1170" t="str"/>
+      <c r="AV27" s="1171" t="str"/>
+      <c r="AW27" s="1172" t="str"/>
+      <c r="AX27" s="1173" t="str"/>
+      <c r="AY27" s="1174" t="str"/>
+      <c r="AZ27" s="1175" t="str"/>
+      <c r="BA27" s="1176" t="str"/>
+      <c r="BB27" s="1177" t="str"/>
+      <c r="BC27" s="1178" t="str"/>
+      <c r="BD27" s="1179" t="str"/>
+      <c r="BE27" s="1180" t="str"/>
+      <c r="BF27" s="1181" t="str"/>
+      <c r="BG27" s="1182" t="str"/>
+      <c r="BH27" s="1183" t="str"/>
+      <c r="BI27" s="1184" t="str"/>
+      <c r="BJ27" s="1185" t="str"/>
+      <c r="BK27" s="1186" t="str"/>
+      <c r="BL27" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_55_m_15_et._3829991791</v>
       </c>
-      <c r="C27" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D27" s="1142" t="str"/>
-      <c r="E27" s="1143" t="str"/>
-      <c r="F27" s="1144" t="str"/>
-      <c r="G27" s="1145" t="str"/>
-      <c r="H27" s="1146" t="str"/>
-      <c r="I27" s="1147" t="str"/>
-      <c r="J27" s="1148" t="str"/>
-      <c r="K27" s="1149" t="str"/>
-      <c r="L27" s="1150" t="str"/>
-      <c r="M27" s="1151" t="str"/>
-      <c r="N27" s="1152" t="str"/>
-      <c r="O27" s="1153" t="str"/>
-      <c r="P27" s="1154" t="str"/>
-      <c r="Q27" s="1155" t="str"/>
-      <c r="R27" s="1156" t="str"/>
-      <c r="S27" s="1157" t="str"/>
-      <c r="T27" s="1158" t="str"/>
-      <c r="U27" s="1159" t="str"/>
-      <c r="V27" s="1160" t="str"/>
-      <c r="W27" s="1161" t="str"/>
-      <c r="X27" s="1162" t="str"/>
-      <c r="Y27" s="1163" t="str"/>
-      <c r="Z27" s="1164" t="str"/>
-      <c r="AA27" s="1165" t="str"/>
-      <c r="AB27" s="1166" t="str"/>
-      <c r="AC27" s="1167" t="str"/>
-      <c r="AD27" s="1168" t="str"/>
-      <c r="AE27" s="1169" t="str"/>
-      <c r="AF27" s="1170" t="str"/>
-      <c r="AG27" s="1171" t="str"/>
-      <c r="AH27" s="1172" t="str"/>
-      <c r="AI27" s="1173" t="str"/>
-      <c r="AJ27" s="1174" t="str"/>
-      <c r="AK27" s="1175" t="str"/>
-      <c r="AL27" s="1176" t="str"/>
-      <c r="AM27" s="1177" t="str"/>
-      <c r="AN27" s="1178" t="str"/>
-      <c r="AO27" s="1179" t="str"/>
-      <c r="AP27" s="1180" t="str"/>
-      <c r="AQ27" s="1181" t="str"/>
-      <c r="AR27" s="1182" t="str"/>
-      <c r="AS27" s="1183" t="str"/>
-      <c r="AT27" s="1184" t="str"/>
-      <c r="AU27" s="1185" t="str"/>
-      <c r="AV27" s="1186" t="str"/>
-      <c r="AW27" s="1187" t="str"/>
-      <c r="AX27" s="1188" t="str"/>
-      <c r="AY27" s="1189" t="str"/>
-      <c r="AZ27" s="1190" t="str"/>
-      <c r="BA27" s="1191" t="str"/>
-      <c r="BB27" s="1192" t="str"/>
-      <c r="BC27" s="1193" t="str"/>
-      <c r="BD27" s="1194" t="str"/>
-      <c r="BE27" s="1195" t="str"/>
-      <c r="BF27" s="1196" t="str"/>
-      <c r="BG27" s="1197" t="str"/>
-      <c r="BH27" s="1198" t="str"/>
-      <c r="BI27" s="1199" t="str"/>
-      <c r="BJ27" s="1200" t="str"/>
-      <c r="BK27" s="1201" t="str"/>
-      <c r="BL27" s="1202" t="str"/>
-      <c r="BM27" s="1203" t="str"/>
     </row>
     <row r="28">
       <c r="A28" t="str">
         <v>2-к. квартира, 41,7 м², 1/5 эт.</v>
       </c>
-      <c r="B28" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_417_m_15_et._2183505006</v>
-      </c>
-      <c r="C28" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D28" s="1204" t="str"/>
-      <c r="E28" s="1205" t="str"/>
-      <c r="F28" s="1206" t="str"/>
-      <c r="G28" s="1207" t="str"/>
-      <c r="H28" s="1208" t="str"/>
-      <c r="I28" s="1209" t="str"/>
-      <c r="J28" s="1210" t="str"/>
-      <c r="K28" s="1211" t="str"/>
-      <c r="L28" s="1212" t="str"/>
-      <c r="M28" s="1213" t="str"/>
-      <c r="N28" s="1214" t="str"/>
-      <c r="O28" s="1215" t="str"/>
-      <c r="P28" s="1216" t="str"/>
-      <c r="Q28" s="1217" t="str"/>
-      <c r="R28" s="1218" t="str"/>
-      <c r="S28" s="1219" t="str"/>
-      <c r="T28" s="1220" t="str"/>
-      <c r="U28" s="1221" t="str"/>
-      <c r="V28" s="1222" t="str"/>
+      <c r="B28" s="1187" t="str"/>
+      <c r="C28" s="1188" t="str"/>
+      <c r="D28" s="1189" t="str"/>
+      <c r="E28" s="1190" t="str"/>
+      <c r="F28" s="1191" t="str"/>
+      <c r="G28" s="1192" t="str"/>
+      <c r="H28" s="1193" t="str"/>
+      <c r="I28" s="1194" t="str"/>
+      <c r="J28" s="1195" t="str"/>
+      <c r="K28" s="1196" t="str"/>
+      <c r="L28" s="1197" t="str"/>
+      <c r="M28" s="1198" t="str"/>
+      <c r="N28" s="1199" t="str"/>
+      <c r="O28" s="1200" t="str"/>
+      <c r="P28" s="1201" t="str"/>
+      <c r="Q28" s="1202" t="str"/>
+      <c r="R28" s="1203" t="str"/>
+      <c r="S28" s="1204" t="str"/>
+      <c r="T28" s="1205" t="str"/>
+      <c r="U28" t="str">
+        <v>3500</v>
+      </c>
+      <c r="V28" t="str">
+        <v>3500</v>
+      </c>
       <c r="W28" t="str">
         <v>3500</v>
       </c>
@@ -48147,55 +47880,52 @@
       <c r="BJ28" t="str">
         <v>3500</v>
       </c>
-      <c r="BK28" t="str">
-        <v>3500</v>
-      </c>
+      <c r="BK28" s="1206" t="str"/>
       <c r="BL28" t="str">
-        <v>3500</v>
-      </c>
-      <c r="BM28" s="1223" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_417_m_15_et._2183505006</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
         <v>2-к. квартира, 39,4 м², 4/5 эт.</v>
       </c>
-      <c r="B29" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_394_m_45_et._3654759249</v>
-      </c>
-      <c r="C29" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D29" s="1224" t="str"/>
-      <c r="E29" s="1225" t="str"/>
-      <c r="F29" s="1226" t="str"/>
-      <c r="G29" s="1227" t="str"/>
-      <c r="H29" s="1228" t="str"/>
-      <c r="I29" s="1229" t="str"/>
-      <c r="J29" s="1230" t="str"/>
-      <c r="K29" s="1231" t="str"/>
-      <c r="L29" s="1232" t="str"/>
-      <c r="M29" s="1233" t="str"/>
-      <c r="N29" s="1234" t="str"/>
-      <c r="O29" s="1235" t="str"/>
-      <c r="P29" s="1236" t="str"/>
-      <c r="Q29" s="1237" t="str"/>
-      <c r="R29" s="1238" t="str"/>
-      <c r="S29" s="1239" t="str"/>
-      <c r="T29" s="1240" t="str"/>
-      <c r="U29" s="1241" t="str"/>
-      <c r="V29" s="1242" t="str"/>
-      <c r="W29" s="1243" t="str"/>
-      <c r="X29" s="1244" t="str"/>
-      <c r="Y29" s="1245" t="str"/>
-      <c r="Z29" s="1246" t="str"/>
-      <c r="AA29" s="1247" t="str"/>
-      <c r="AB29" s="1248" t="str"/>
-      <c r="AC29" s="1249" t="str"/>
-      <c r="AD29" s="1250" t="str"/>
-      <c r="AE29" s="1251" t="str"/>
-      <c r="AF29" s="1252" t="str"/>
-      <c r="AG29" s="1253" t="str"/>
-      <c r="AH29" s="1254" t="str"/>
+      <c r="B29" s="1207" t="str"/>
+      <c r="C29" s="1208" t="str"/>
+      <c r="D29" s="1209" t="str"/>
+      <c r="E29" s="1210" t="str"/>
+      <c r="F29" s="1211" t="str"/>
+      <c r="G29" s="1212" t="str"/>
+      <c r="H29" s="1213" t="str"/>
+      <c r="I29" s="1214" t="str"/>
+      <c r="J29" s="1215" t="str"/>
+      <c r="K29" s="1216" t="str"/>
+      <c r="L29" s="1217" t="str"/>
+      <c r="M29" s="1218" t="str"/>
+      <c r="N29" s="1219" t="str"/>
+      <c r="O29" s="1220" t="str"/>
+      <c r="P29" s="1221" t="str"/>
+      <c r="Q29" s="1222" t="str"/>
+      <c r="R29" s="1223" t="str"/>
+      <c r="S29" s="1224" t="str"/>
+      <c r="T29" s="1225" t="str"/>
+      <c r="U29" s="1226" t="str"/>
+      <c r="V29" s="1227" t="str"/>
+      <c r="W29" s="1228" t="str"/>
+      <c r="X29" s="1229" t="str"/>
+      <c r="Y29" s="1230" t="str"/>
+      <c r="Z29" s="1231" t="str"/>
+      <c r="AA29" s="1232" t="str"/>
+      <c r="AB29" s="1233" t="str"/>
+      <c r="AC29" s="1234" t="str"/>
+      <c r="AD29" s="1235" t="str"/>
+      <c r="AE29" s="1236" t="str"/>
+      <c r="AF29" s="1237" t="str"/>
+      <c r="AG29" t="str">
+        <v>4100</v>
+      </c>
+      <c r="AH29" t="str">
+        <v>4100</v>
+      </c>
       <c r="AI29" t="str">
         <v>4100</v>
       </c>
@@ -48280,145 +48010,139 @@
       <c r="BJ29" t="str">
         <v>4100</v>
       </c>
-      <c r="BK29" t="str">
-        <v>4100</v>
-      </c>
+      <c r="BK29" s="1238" t="str"/>
       <c r="BL29" t="str">
-        <v>4100</v>
-      </c>
-      <c r="BM29" s="1255" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_394_m_45_et._3654759249</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
         <v>2-к. квартира, 44 м², 1/4 эт.</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="1239" t="str"/>
+      <c r="C30" s="1240" t="str"/>
+      <c r="D30" s="1241" t="str"/>
+      <c r="E30" s="1242" t="str"/>
+      <c r="F30" s="1243" t="str"/>
+      <c r="G30" s="1244" t="str"/>
+      <c r="H30" s="1245" t="str"/>
+      <c r="I30" s="1246" t="str"/>
+      <c r="J30" s="1247" t="str"/>
+      <c r="K30" s="1248" t="str"/>
+      <c r="L30" s="1249" t="str"/>
+      <c r="M30" s="1250" t="str"/>
+      <c r="N30" s="1251" t="str"/>
+      <c r="O30" s="1252" t="str"/>
+      <c r="P30" s="1253" t="str"/>
+      <c r="Q30" s="1254" t="str"/>
+      <c r="R30" s="1255" t="str"/>
+      <c r="S30" s="1256" t="str"/>
+      <c r="T30" s="1257" t="str"/>
+      <c r="U30" s="1258" t="str"/>
+      <c r="V30" s="1259" t="str"/>
+      <c r="W30" s="1260" t="str"/>
+      <c r="X30" s="1261" t="str"/>
+      <c r="Y30" s="1262" t="str"/>
+      <c r="Z30" s="1263" t="str"/>
+      <c r="AA30" s="1264" t="str"/>
+      <c r="AB30" s="1265" t="str"/>
+      <c r="AC30" s="1266" t="str"/>
+      <c r="AD30" s="1267" t="str"/>
+      <c r="AE30" s="1268" t="str"/>
+      <c r="AF30" s="1269" t="str"/>
+      <c r="AG30" s="1270" t="str"/>
+      <c r="AH30" s="1271" t="str"/>
+      <c r="AI30" s="1272" t="str"/>
+      <c r="AJ30" s="1273" t="str"/>
+      <c r="AK30" s="1274" t="str"/>
+      <c r="AL30" s="1275" t="str"/>
+      <c r="AM30" s="1276" t="str"/>
+      <c r="AN30" s="1277" t="str"/>
+      <c r="AO30" s="1278" t="str"/>
+      <c r="AP30" s="1279" t="str"/>
+      <c r="AQ30" s="1280" t="str"/>
+      <c r="AR30" s="1281" t="str"/>
+      <c r="AS30" s="1282" t="str"/>
+      <c r="AT30" s="1283" t="str"/>
+      <c r="AU30" s="1284" t="str"/>
+      <c r="AV30" s="1285" t="str"/>
+      <c r="AW30" s="1286" t="str"/>
+      <c r="AX30" s="1287" t="str"/>
+      <c r="AY30" s="1288" t="str"/>
+      <c r="AZ30" s="1289" t="str"/>
+      <c r="BA30" s="1290" t="str"/>
+      <c r="BB30" s="1291" t="str"/>
+      <c r="BC30" s="1292" t="str"/>
+      <c r="BD30" s="1293" t="str"/>
+      <c r="BE30" s="1294" t="str"/>
+      <c r="BF30" s="1295" t="str"/>
+      <c r="BG30" s="1296" t="str"/>
+      <c r="BH30" s="1297" t="str"/>
+      <c r="BI30" s="1298" t="str"/>
+      <c r="BJ30" s="1299" t="str"/>
+      <c r="BK30" s="1300" t="str"/>
+      <c r="BL30" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_44_m_14_et._2727771840</v>
       </c>
-      <c r="C30" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D30" s="1256" t="str"/>
-      <c r="E30" s="1257" t="str"/>
-      <c r="F30" s="1258" t="str"/>
-      <c r="G30" s="1259" t="str"/>
-      <c r="H30" s="1260" t="str"/>
-      <c r="I30" s="1261" t="str"/>
-      <c r="J30" s="1262" t="str"/>
-      <c r="K30" s="1263" t="str"/>
-      <c r="L30" s="1264" t="str"/>
-      <c r="M30" s="1265" t="str"/>
-      <c r="N30" s="1266" t="str"/>
-      <c r="O30" s="1267" t="str"/>
-      <c r="P30" s="1268" t="str"/>
-      <c r="Q30" s="1269" t="str"/>
-      <c r="R30" s="1270" t="str"/>
-      <c r="S30" s="1271" t="str"/>
-      <c r="T30" s="1272" t="str"/>
-      <c r="U30" s="1273" t="str"/>
-      <c r="V30" s="1274" t="str"/>
-      <c r="W30" s="1275" t="str"/>
-      <c r="X30" s="1276" t="str"/>
-      <c r="Y30" s="1277" t="str"/>
-      <c r="Z30" s="1278" t="str"/>
-      <c r="AA30" s="1279" t="str"/>
-      <c r="AB30" s="1280" t="str"/>
-      <c r="AC30" s="1281" t="str"/>
-      <c r="AD30" s="1282" t="str"/>
-      <c r="AE30" s="1283" t="str"/>
-      <c r="AF30" s="1284" t="str"/>
-      <c r="AG30" s="1285" t="str"/>
-      <c r="AH30" s="1286" t="str"/>
-      <c r="AI30" s="1287" t="str"/>
-      <c r="AJ30" s="1288" t="str"/>
-      <c r="AK30" s="1289" t="str"/>
-      <c r="AL30" s="1290" t="str"/>
-      <c r="AM30" s="1291" t="str"/>
-      <c r="AN30" s="1292" t="str"/>
-      <c r="AO30" s="1293" t="str"/>
-      <c r="AP30" s="1294" t="str"/>
-      <c r="AQ30" s="1295" t="str"/>
-      <c r="AR30" s="1296" t="str"/>
-      <c r="AS30" s="1297" t="str"/>
-      <c r="AT30" s="1298" t="str"/>
-      <c r="AU30" s="1299" t="str"/>
-      <c r="AV30" s="1300" t="str"/>
-      <c r="AW30" s="1301" t="str"/>
-      <c r="AX30" s="1302" t="str"/>
-      <c r="AY30" s="1303" t="str"/>
-      <c r="AZ30" s="1304" t="str"/>
-      <c r="BA30" s="1305" t="str"/>
-      <c r="BB30" s="1306" t="str"/>
-      <c r="BC30" s="1307" t="str"/>
-      <c r="BD30" s="1308" t="str"/>
-      <c r="BE30" s="1309" t="str"/>
-      <c r="BF30" s="1310" t="str"/>
-      <c r="BG30" s="1311" t="str"/>
-      <c r="BH30" s="1312" t="str"/>
-      <c r="BI30" s="1313" t="str"/>
-      <c r="BJ30" s="1314" t="str"/>
-      <c r="BK30" s="1315" t="str"/>
-      <c r="BL30" s="1316" t="str"/>
-      <c r="BM30" s="1317" t="str"/>
     </row>
     <row r="31">
       <c r="A31" t="str">
         <v>2-к. квартира, 44 м², 1/3 эт.</v>
       </c>
-      <c r="B31" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_44_m_13_et._2727273158</v>
-      </c>
-      <c r="C31" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D31" s="1318" t="str"/>
-      <c r="E31" s="1319" t="str"/>
-      <c r="F31" s="1320" t="str"/>
-      <c r="G31" s="1321" t="str"/>
-      <c r="H31" s="1322" t="str"/>
-      <c r="I31" s="1323" t="str"/>
-      <c r="J31" s="1324" t="str"/>
-      <c r="K31" s="1325" t="str"/>
-      <c r="L31" s="1326" t="str"/>
-      <c r="M31" s="1327" t="str"/>
-      <c r="N31" s="1328" t="str"/>
-      <c r="O31" s="1329" t="str"/>
-      <c r="P31" s="1330" t="str"/>
-      <c r="Q31" s="1331" t="str"/>
-      <c r="R31" s="1332" t="str"/>
-      <c r="S31" s="1333" t="str"/>
-      <c r="T31" s="1334" t="str"/>
-      <c r="U31" s="1335" t="str"/>
-      <c r="V31" s="1336" t="str"/>
-      <c r="W31" s="1337" t="str"/>
-      <c r="X31" s="1338" t="str"/>
-      <c r="Y31" s="1339" t="str"/>
-      <c r="Z31" s="1340" t="str"/>
-      <c r="AA31" s="1341" t="str"/>
-      <c r="AB31" s="1342" t="str"/>
-      <c r="AC31" s="1343" t="str"/>
-      <c r="AD31" s="1344" t="str"/>
-      <c r="AE31" s="1345" t="str"/>
-      <c r="AF31" s="1346" t="str"/>
-      <c r="AG31" s="1347" t="str"/>
-      <c r="AH31" s="1348" t="str"/>
-      <c r="AI31" s="1349" t="str"/>
-      <c r="AJ31" s="1350" t="str"/>
-      <c r="AK31" s="1351" t="str"/>
-      <c r="AL31" s="1352" t="str"/>
-      <c r="AM31" s="1353" t="str"/>
-      <c r="AN31" s="1354" t="str"/>
-      <c r="AO31" s="1355" t="str"/>
-      <c r="AP31" s="1356" t="str"/>
-      <c r="AQ31" s="1357" t="str"/>
-      <c r="AR31" s="1358" t="str"/>
-      <c r="AS31" s="1359" t="str"/>
-      <c r="AT31" s="1360" t="str"/>
-      <c r="AU31" s="1361" t="str"/>
-      <c r="AV31" s="1362" t="str"/>
-      <c r="AW31" s="1363" t="str"/>
-      <c r="AX31" s="1364" t="str"/>
-      <c r="AY31" s="1365" t="str"/>
+      <c r="B31" s="1301" t="str"/>
+      <c r="C31" s="1302" t="str"/>
+      <c r="D31" s="1303" t="str"/>
+      <c r="E31" s="1304" t="str"/>
+      <c r="F31" s="1305" t="str"/>
+      <c r="G31" s="1306" t="str"/>
+      <c r="H31" s="1307" t="str"/>
+      <c r="I31" s="1308" t="str"/>
+      <c r="J31" s="1309" t="str"/>
+      <c r="K31" s="1310" t="str"/>
+      <c r="L31" s="1311" t="str"/>
+      <c r="M31" s="1312" t="str"/>
+      <c r="N31" s="1313" t="str"/>
+      <c r="O31" s="1314" t="str"/>
+      <c r="P31" s="1315" t="str"/>
+      <c r="Q31" s="1316" t="str"/>
+      <c r="R31" s="1317" t="str"/>
+      <c r="S31" s="1318" t="str"/>
+      <c r="T31" s="1319" t="str"/>
+      <c r="U31" s="1320" t="str"/>
+      <c r="V31" s="1321" t="str"/>
+      <c r="W31" s="1322" t="str"/>
+      <c r="X31" s="1323" t="str"/>
+      <c r="Y31" s="1324" t="str"/>
+      <c r="Z31" s="1325" t="str"/>
+      <c r="AA31" s="1326" t="str"/>
+      <c r="AB31" s="1327" t="str"/>
+      <c r="AC31" s="1328" t="str"/>
+      <c r="AD31" s="1329" t="str"/>
+      <c r="AE31" s="1330" t="str"/>
+      <c r="AF31" s="1331" t="str"/>
+      <c r="AG31" s="1332" t="str"/>
+      <c r="AH31" s="1333" t="str"/>
+      <c r="AI31" s="1334" t="str"/>
+      <c r="AJ31" s="1335" t="str"/>
+      <c r="AK31" s="1336" t="str"/>
+      <c r="AL31" s="1337" t="str"/>
+      <c r="AM31" s="1338" t="str"/>
+      <c r="AN31" s="1339" t="str"/>
+      <c r="AO31" s="1340" t="str"/>
+      <c r="AP31" s="1341" t="str"/>
+      <c r="AQ31" s="1342" t="str"/>
+      <c r="AR31" s="1343" t="str"/>
+      <c r="AS31" s="1344" t="str"/>
+      <c r="AT31" s="1345" t="str"/>
+      <c r="AU31" s="1346" t="str"/>
+      <c r="AV31" s="1347" t="str"/>
+      <c r="AW31" s="1348" t="str"/>
+      <c r="AX31" t="str">
+        <v>3500</v>
+      </c>
+      <c r="AY31" t="str">
+        <v>3500</v>
+      </c>
       <c r="AZ31" t="str">
         <v>3500</v>
       </c>
@@ -48452,55 +48176,52 @@
       <c r="BJ31" t="str">
         <v>3500</v>
       </c>
-      <c r="BK31" t="str">
-        <v>3500</v>
-      </c>
+      <c r="BK31" s="1349" t="str"/>
       <c r="BL31" t="str">
-        <v>3500</v>
-      </c>
-      <c r="BM31" s="1366" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_44_m_13_et._2727273158</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
         <v>2-к. квартира, 42 м², 3/5 эт.</v>
       </c>
-      <c r="B32" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_42_m_35_et._3886909206</v>
-      </c>
-      <c r="C32" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D32" s="1367" t="str"/>
-      <c r="E32" s="1368" t="str"/>
-      <c r="F32" s="1369" t="str"/>
-      <c r="G32" s="1370" t="str"/>
-      <c r="H32" s="1371" t="str"/>
-      <c r="I32" s="1372" t="str"/>
-      <c r="J32" s="1373" t="str"/>
-      <c r="K32" s="1374" t="str"/>
-      <c r="L32" s="1375" t="str"/>
-      <c r="M32" s="1376" t="str"/>
-      <c r="N32" s="1377" t="str"/>
-      <c r="O32" s="1378" t="str"/>
-      <c r="P32" s="1379" t="str"/>
-      <c r="Q32" s="1380" t="str"/>
-      <c r="R32" s="1381" t="str"/>
-      <c r="S32" s="1382" t="str"/>
-      <c r="T32" s="1383" t="str"/>
-      <c r="U32" s="1384" t="str"/>
-      <c r="V32" s="1385" t="str"/>
-      <c r="W32" s="1386" t="str"/>
-      <c r="X32" s="1387" t="str"/>
-      <c r="Y32" s="1388" t="str"/>
-      <c r="Z32" s="1389" t="str"/>
-      <c r="AA32" s="1390" t="str"/>
-      <c r="AB32" s="1391" t="str"/>
-      <c r="AC32" s="1392" t="str"/>
-      <c r="AD32" s="1393" t="str"/>
-      <c r="AE32" s="1394" t="str"/>
-      <c r="AF32" s="1395" t="str"/>
-      <c r="AG32" s="1396" t="str"/>
-      <c r="AH32" s="1397" t="str"/>
+      <c r="B32" s="1350" t="str"/>
+      <c r="C32" s="1351" t="str"/>
+      <c r="D32" s="1352" t="str"/>
+      <c r="E32" s="1353" t="str"/>
+      <c r="F32" s="1354" t="str"/>
+      <c r="G32" s="1355" t="str"/>
+      <c r="H32" s="1356" t="str"/>
+      <c r="I32" s="1357" t="str"/>
+      <c r="J32" s="1358" t="str"/>
+      <c r="K32" s="1359" t="str"/>
+      <c r="L32" s="1360" t="str"/>
+      <c r="M32" s="1361" t="str"/>
+      <c r="N32" s="1362" t="str"/>
+      <c r="O32" s="1363" t="str"/>
+      <c r="P32" s="1364" t="str"/>
+      <c r="Q32" s="1365" t="str"/>
+      <c r="R32" s="1366" t="str"/>
+      <c r="S32" s="1367" t="str"/>
+      <c r="T32" s="1368" t="str"/>
+      <c r="U32" s="1369" t="str"/>
+      <c r="V32" s="1370" t="str"/>
+      <c r="W32" s="1371" t="str"/>
+      <c r="X32" s="1372" t="str"/>
+      <c r="Y32" s="1373" t="str"/>
+      <c r="Z32" s="1374" t="str"/>
+      <c r="AA32" s="1375" t="str"/>
+      <c r="AB32" s="1376" t="str"/>
+      <c r="AC32" s="1377" t="str"/>
+      <c r="AD32" s="1378" t="str"/>
+      <c r="AE32" s="1379" t="str"/>
+      <c r="AF32" s="1380" t="str"/>
+      <c r="AG32" t="str">
+        <v>3000</v>
+      </c>
+      <c r="AH32" t="str">
+        <v>3000</v>
+      </c>
       <c r="AI32" t="str">
         <v>3000</v>
       </c>
@@ -48585,421 +48306,403 @@
       <c r="BJ32" t="str">
         <v>3000</v>
       </c>
-      <c r="BK32" t="str">
-        <v>3000</v>
-      </c>
+      <c r="BK32" s="1381" t="str"/>
       <c r="BL32" t="str">
-        <v>3000</v>
-      </c>
-      <c r="BM32" s="1398" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_42_m_35_et._3886909206</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
         <v>2-к. квартира, 60 м², 1/3 эт.</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="1382" t="str"/>
+      <c r="C33" s="1383" t="str"/>
+      <c r="D33" s="1384" t="str"/>
+      <c r="E33" s="1385" t="str"/>
+      <c r="F33" s="1386" t="str"/>
+      <c r="G33" s="1387" t="str"/>
+      <c r="H33" s="1388" t="str"/>
+      <c r="I33" s="1389" t="str"/>
+      <c r="J33" s="1390" t="str"/>
+      <c r="K33" s="1391" t="str"/>
+      <c r="L33" s="1392" t="str"/>
+      <c r="M33" s="1393" t="str"/>
+      <c r="N33" s="1394" t="str"/>
+      <c r="O33" s="1395" t="str"/>
+      <c r="P33" s="1396" t="str"/>
+      <c r="Q33" s="1397" t="str"/>
+      <c r="R33" s="1398" t="str"/>
+      <c r="S33" s="1399" t="str"/>
+      <c r="T33" s="1400" t="str"/>
+      <c r="U33" s="1401" t="str"/>
+      <c r="V33" s="1402" t="str"/>
+      <c r="W33" s="1403" t="str"/>
+      <c r="X33" s="1404" t="str"/>
+      <c r="Y33" s="1405" t="str"/>
+      <c r="Z33" s="1406" t="str"/>
+      <c r="AA33" s="1407" t="str"/>
+      <c r="AB33" s="1408" t="str"/>
+      <c r="AC33" s="1409" t="str"/>
+      <c r="AD33" s="1410" t="str"/>
+      <c r="AE33" s="1411" t="str"/>
+      <c r="AF33" s="1412" t="str"/>
+      <c r="AG33" s="1413" t="str"/>
+      <c r="AH33" s="1414" t="str"/>
+      <c r="AI33" s="1415" t="str"/>
+      <c r="AJ33" s="1416" t="str"/>
+      <c r="AK33" s="1417" t="str"/>
+      <c r="AL33" s="1418" t="str"/>
+      <c r="AM33" s="1419" t="str"/>
+      <c r="AN33" s="1420" t="str"/>
+      <c r="AO33" s="1421" t="str"/>
+      <c r="AP33" s="1422" t="str"/>
+      <c r="AQ33" s="1423" t="str"/>
+      <c r="AR33" s="1424" t="str"/>
+      <c r="AS33" s="1425" t="str"/>
+      <c r="AT33" s="1426" t="str"/>
+      <c r="AU33" s="1427" t="str"/>
+      <c r="AV33" s="1428" t="str"/>
+      <c r="AW33" s="1429" t="str"/>
+      <c r="AX33" s="1430" t="str"/>
+      <c r="AY33" s="1431" t="str"/>
+      <c r="AZ33" s="1432" t="str"/>
+      <c r="BA33" s="1433" t="str"/>
+      <c r="BB33" s="1434" t="str"/>
+      <c r="BC33" s="1435" t="str"/>
+      <c r="BD33" s="1436" t="str"/>
+      <c r="BE33" s="1437" t="str"/>
+      <c r="BF33" s="1438" t="str"/>
+      <c r="BG33" s="1439" t="str"/>
+      <c r="BH33" s="1440" t="str"/>
+      <c r="BI33" s="1441" t="str"/>
+      <c r="BJ33" s="1442" t="str"/>
+      <c r="BK33" s="1443" t="str"/>
+      <c r="BL33" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_60_m_13_et._3015459826</v>
       </c>
-      <c r="C33" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D33" s="1399" t="str"/>
-      <c r="E33" s="1400" t="str"/>
-      <c r="F33" s="1401" t="str"/>
-      <c r="G33" s="1402" t="str"/>
-      <c r="H33" s="1403" t="str"/>
-      <c r="I33" s="1404" t="str"/>
-      <c r="J33" s="1405" t="str"/>
-      <c r="K33" s="1406" t="str"/>
-      <c r="L33" s="1407" t="str"/>
-      <c r="M33" s="1408" t="str"/>
-      <c r="N33" s="1409" t="str"/>
-      <c r="O33" s="1410" t="str"/>
-      <c r="P33" s="1411" t="str"/>
-      <c r="Q33" s="1412" t="str"/>
-      <c r="R33" s="1413" t="str"/>
-      <c r="S33" s="1414" t="str"/>
-      <c r="T33" s="1415" t="str"/>
-      <c r="U33" s="1416" t="str"/>
-      <c r="V33" s="1417" t="str"/>
-      <c r="W33" s="1418" t="str"/>
-      <c r="X33" s="1419" t="str"/>
-      <c r="Y33" s="1420" t="str"/>
-      <c r="Z33" s="1421" t="str"/>
-      <c r="AA33" s="1422" t="str"/>
-      <c r="AB33" s="1423" t="str"/>
-      <c r="AC33" s="1424" t="str"/>
-      <c r="AD33" s="1425" t="str"/>
-      <c r="AE33" s="1426" t="str"/>
-      <c r="AF33" s="1427" t="str"/>
-      <c r="AG33" s="1428" t="str"/>
-      <c r="AH33" s="1429" t="str"/>
-      <c r="AI33" s="1430" t="str"/>
-      <c r="AJ33" s="1431" t="str"/>
-      <c r="AK33" s="1432" t="str"/>
-      <c r="AL33" s="1433" t="str"/>
-      <c r="AM33" s="1434" t="str"/>
-      <c r="AN33" s="1435" t="str"/>
-      <c r="AO33" s="1436" t="str"/>
-      <c r="AP33" s="1437" t="str"/>
-      <c r="AQ33" s="1438" t="str"/>
-      <c r="AR33" s="1439" t="str"/>
-      <c r="AS33" s="1440" t="str"/>
-      <c r="AT33" s="1441" t="str"/>
-      <c r="AU33" s="1442" t="str"/>
-      <c r="AV33" s="1443" t="str"/>
-      <c r="AW33" s="1444" t="str"/>
-      <c r="AX33" s="1445" t="str"/>
-      <c r="AY33" s="1446" t="str"/>
-      <c r="AZ33" s="1447" t="str"/>
-      <c r="BA33" s="1448" t="str"/>
-      <c r="BB33" s="1449" t="str"/>
-      <c r="BC33" s="1450" t="str"/>
-      <c r="BD33" s="1451" t="str"/>
-      <c r="BE33" s="1452" t="str"/>
-      <c r="BF33" s="1453" t="str"/>
-      <c r="BG33" s="1454" t="str"/>
-      <c r="BH33" s="1455" t="str"/>
-      <c r="BI33" s="1456" t="str"/>
-      <c r="BJ33" s="1457" t="str"/>
-      <c r="BK33" s="1458" t="str"/>
-      <c r="BL33" s="1459" t="str"/>
-      <c r="BM33" s="1460" t="str"/>
     </row>
     <row r="34">
       <c r="A34" t="str">
         <v>2-к. квартира, 52 м², 3/4 эт.</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" s="1444" t="str"/>
+      <c r="C34" s="1445" t="str"/>
+      <c r="D34" s="1446" t="str"/>
+      <c r="E34" s="1447" t="str"/>
+      <c r="F34" s="1448" t="str"/>
+      <c r="G34" s="1449" t="str"/>
+      <c r="H34" s="1450" t="str"/>
+      <c r="I34" s="1451" t="str"/>
+      <c r="J34" s="1452" t="str"/>
+      <c r="K34" s="1453" t="str"/>
+      <c r="L34" s="1454" t="str"/>
+      <c r="M34" s="1455" t="str"/>
+      <c r="N34" s="1456" t="str"/>
+      <c r="O34" s="1457" t="str"/>
+      <c r="P34" s="1458" t="str"/>
+      <c r="Q34" s="1459" t="str"/>
+      <c r="R34" s="1460" t="str"/>
+      <c r="S34" s="1461" t="str"/>
+      <c r="T34" s="1462" t="str"/>
+      <c r="U34" s="1463" t="str"/>
+      <c r="V34" s="1464" t="str"/>
+      <c r="W34" s="1465" t="str"/>
+      <c r="X34" s="1466" t="str"/>
+      <c r="Y34" s="1467" t="str"/>
+      <c r="Z34" s="1468" t="str"/>
+      <c r="AA34" s="1469" t="str"/>
+      <c r="AB34" s="1470" t="str"/>
+      <c r="AC34" s="1471" t="str"/>
+      <c r="AD34" s="1472" t="str"/>
+      <c r="AE34" s="1473" t="str"/>
+      <c r="AF34" s="1474" t="str"/>
+      <c r="AG34" s="1475" t="str"/>
+      <c r="AH34" s="1476" t="str"/>
+      <c r="AI34" s="1477" t="str"/>
+      <c r="AJ34" s="1478" t="str"/>
+      <c r="AK34" s="1479" t="str"/>
+      <c r="AL34" s="1480" t="str"/>
+      <c r="AM34" s="1481" t="str"/>
+      <c r="AN34" s="1482" t="str"/>
+      <c r="AO34" s="1483" t="str"/>
+      <c r="AP34" s="1484" t="str"/>
+      <c r="AQ34" s="1485" t="str"/>
+      <c r="AR34" s="1486" t="str"/>
+      <c r="AS34" s="1487" t="str"/>
+      <c r="AT34" s="1488" t="str"/>
+      <c r="AU34" s="1489" t="str"/>
+      <c r="AV34" s="1490" t="str"/>
+      <c r="AW34" s="1491" t="str"/>
+      <c r="AX34" s="1492" t="str"/>
+      <c r="AY34" s="1493" t="str"/>
+      <c r="AZ34" s="1494" t="str"/>
+      <c r="BA34" s="1495" t="str"/>
+      <c r="BB34" s="1496" t="str"/>
+      <c r="BC34" s="1497" t="str"/>
+      <c r="BD34" s="1498" t="str"/>
+      <c r="BE34" s="1499" t="str"/>
+      <c r="BF34" s="1500" t="str"/>
+      <c r="BG34" s="1501" t="str"/>
+      <c r="BH34" s="1502" t="str"/>
+      <c r="BI34" s="1503" t="str"/>
+      <c r="BJ34" s="1504" t="str"/>
+      <c r="BK34" s="1505" t="str"/>
+      <c r="BL34" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_52_m_34_et._4065366479</v>
       </c>
-      <c r="C34" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D34" s="1461" t="str"/>
-      <c r="E34" s="1462" t="str"/>
-      <c r="F34" s="1463" t="str"/>
-      <c r="G34" s="1464" t="str"/>
-      <c r="H34" s="1465" t="str"/>
-      <c r="I34" s="1466" t="str"/>
-      <c r="J34" s="1467" t="str"/>
-      <c r="K34" s="1468" t="str"/>
-      <c r="L34" s="1469" t="str"/>
-      <c r="M34" s="1470" t="str"/>
-      <c r="N34" s="1471" t="str"/>
-      <c r="O34" s="1472" t="str"/>
-      <c r="P34" s="1473" t="str"/>
-      <c r="Q34" s="1474" t="str"/>
-      <c r="R34" s="1475" t="str"/>
-      <c r="S34" s="1476" t="str"/>
-      <c r="T34" s="1477" t="str"/>
-      <c r="U34" s="1478" t="str"/>
-      <c r="V34" s="1479" t="str"/>
-      <c r="W34" s="1480" t="str"/>
-      <c r="X34" s="1481" t="str"/>
-      <c r="Y34" s="1482" t="str"/>
-      <c r="Z34" s="1483" t="str"/>
-      <c r="AA34" s="1484" t="str"/>
-      <c r="AB34" s="1485" t="str"/>
-      <c r="AC34" s="1486" t="str"/>
-      <c r="AD34" s="1487" t="str"/>
-      <c r="AE34" s="1488" t="str"/>
-      <c r="AF34" s="1489" t="str"/>
-      <c r="AG34" s="1490" t="str"/>
-      <c r="AH34" s="1491" t="str"/>
-      <c r="AI34" s="1492" t="str"/>
-      <c r="AJ34" s="1493" t="str"/>
-      <c r="AK34" s="1494" t="str"/>
-      <c r="AL34" s="1495" t="str"/>
-      <c r="AM34" s="1496" t="str"/>
-      <c r="AN34" s="1497" t="str"/>
-      <c r="AO34" s="1498" t="str"/>
-      <c r="AP34" s="1499" t="str"/>
-      <c r="AQ34" s="1500" t="str"/>
-      <c r="AR34" s="1501" t="str"/>
-      <c r="AS34" s="1502" t="str"/>
-      <c r="AT34" s="1503" t="str"/>
-      <c r="AU34" s="1504" t="str"/>
-      <c r="AV34" s="1505" t="str"/>
-      <c r="AW34" s="1506" t="str"/>
-      <c r="AX34" s="1507" t="str"/>
-      <c r="AY34" s="1508" t="str"/>
-      <c r="AZ34" s="1509" t="str"/>
-      <c r="BA34" s="1510" t="str"/>
-      <c r="BB34" s="1511" t="str"/>
-      <c r="BC34" s="1512" t="str"/>
-      <c r="BD34" s="1513" t="str"/>
-      <c r="BE34" s="1514" t="str"/>
-      <c r="BF34" s="1515" t="str"/>
-      <c r="BG34" s="1516" t="str"/>
-      <c r="BH34" s="1517" t="str"/>
-      <c r="BI34" s="1518" t="str"/>
-      <c r="BJ34" s="1519" t="str"/>
-      <c r="BK34" s="1520" t="str"/>
-      <c r="BL34" s="1521" t="str"/>
-      <c r="BM34" s="1522" t="str"/>
     </row>
     <row r="35">
       <c r="A35" t="str">
         <v>2-к. квартира, 45 м², 2/4 эт.</v>
       </c>
-      <c r="B35" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_45_m_24_et._2119667706</v>
-      </c>
-      <c r="C35" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D35" s="1523" t="str"/>
-      <c r="E35" s="1524" t="str"/>
-      <c r="F35" s="1525" t="str"/>
-      <c r="G35" s="1526" t="str"/>
-      <c r="H35" s="1527" t="str"/>
-      <c r="I35" s="1528" t="str"/>
-      <c r="J35" s="1529" t="str"/>
-      <c r="K35" s="1530" t="str"/>
-      <c r="L35" s="1531" t="str"/>
-      <c r="M35" s="1532" t="str"/>
-      <c r="N35" s="1533" t="str"/>
-      <c r="O35" s="1534" t="str"/>
-      <c r="P35" s="1535" t="str"/>
-      <c r="Q35" s="1536" t="str"/>
-      <c r="R35" s="1537" t="str"/>
-      <c r="S35" s="1538" t="str"/>
-      <c r="T35" s="1539" t="str"/>
-      <c r="U35" s="1540" t="str"/>
-      <c r="V35" s="1541" t="str"/>
-      <c r="W35" s="1542" t="str"/>
-      <c r="X35" s="1543" t="str"/>
-      <c r="Y35" s="1544" t="str"/>
-      <c r="Z35" s="1545" t="str"/>
-      <c r="AA35" s="1546" t="str"/>
-      <c r="AB35" s="1547" t="str"/>
-      <c r="AC35" s="1548" t="str"/>
-      <c r="AD35" s="1549" t="str"/>
-      <c r="AE35" s="1550" t="str"/>
-      <c r="AF35" s="1551" t="str"/>
-      <c r="AG35" s="1552" t="str"/>
-      <c r="AH35" s="1553" t="str"/>
-      <c r="AI35" s="1554" t="str"/>
-      <c r="AJ35" s="1555" t="str"/>
-      <c r="AK35" s="1556" t="str"/>
-      <c r="AL35" s="1557" t="str"/>
-      <c r="AM35" s="1558" t="str"/>
-      <c r="AN35" s="1559" t="str"/>
-      <c r="AO35" s="1560" t="str"/>
-      <c r="AP35" s="1561" t="str"/>
-      <c r="AQ35" s="1562" t="str"/>
-      <c r="AR35" s="1563" t="str"/>
-      <c r="AS35" s="1564" t="str"/>
-      <c r="AT35" s="1565" t="str"/>
-      <c r="AU35" s="1566" t="str"/>
-      <c r="AV35" s="1567" t="str"/>
-      <c r="AW35" s="1568" t="str"/>
-      <c r="AX35" s="1569" t="str"/>
-      <c r="AY35" s="1570" t="str"/>
-      <c r="AZ35" s="1571" t="str"/>
-      <c r="BA35" s="1572" t="str"/>
-      <c r="BB35" s="1573" t="str"/>
-      <c r="BC35" s="1574" t="str"/>
-      <c r="BD35" s="1575" t="str"/>
-      <c r="BE35" s="1576" t="str"/>
-      <c r="BF35" s="1577" t="str"/>
-      <c r="BG35" s="1578" t="str"/>
-      <c r="BH35" s="1579" t="str"/>
+      <c r="B35" s="1506" t="str"/>
+      <c r="C35" s="1507" t="str"/>
+      <c r="D35" s="1508" t="str"/>
+      <c r="E35" s="1509" t="str"/>
+      <c r="F35" s="1510" t="str"/>
+      <c r="G35" s="1511" t="str"/>
+      <c r="H35" s="1512" t="str"/>
+      <c r="I35" s="1513" t="str"/>
+      <c r="J35" s="1514" t="str"/>
+      <c r="K35" s="1515" t="str"/>
+      <c r="L35" s="1516" t="str"/>
+      <c r="M35" s="1517" t="str"/>
+      <c r="N35" s="1518" t="str"/>
+      <c r="O35" s="1519" t="str"/>
+      <c r="P35" s="1520" t="str"/>
+      <c r="Q35" s="1521" t="str"/>
+      <c r="R35" s="1522" t="str"/>
+      <c r="S35" s="1523" t="str"/>
+      <c r="T35" s="1524" t="str"/>
+      <c r="U35" s="1525" t="str"/>
+      <c r="V35" s="1526" t="str"/>
+      <c r="W35" s="1527" t="str"/>
+      <c r="X35" s="1528" t="str"/>
+      <c r="Y35" s="1529" t="str"/>
+      <c r="Z35" s="1530" t="str"/>
+      <c r="AA35" s="1531" t="str"/>
+      <c r="AB35" s="1532" t="str"/>
+      <c r="AC35" s="1533" t="str"/>
+      <c r="AD35" s="1534" t="str"/>
+      <c r="AE35" s="1535" t="str"/>
+      <c r="AF35" s="1536" t="str"/>
+      <c r="AG35" s="1537" t="str"/>
+      <c r="AH35" s="1538" t="str"/>
+      <c r="AI35" s="1539" t="str"/>
+      <c r="AJ35" s="1540" t="str"/>
+      <c r="AK35" s="1541" t="str"/>
+      <c r="AL35" s="1542" t="str"/>
+      <c r="AM35" s="1543" t="str"/>
+      <c r="AN35" s="1544" t="str"/>
+      <c r="AO35" s="1545" t="str"/>
+      <c r="AP35" s="1546" t="str"/>
+      <c r="AQ35" s="1547" t="str"/>
+      <c r="AR35" s="1548" t="str"/>
+      <c r="AS35" s="1549" t="str"/>
+      <c r="AT35" s="1550" t="str"/>
+      <c r="AU35" s="1551" t="str"/>
+      <c r="AV35" s="1552" t="str"/>
+      <c r="AW35" s="1553" t="str"/>
+      <c r="AX35" s="1554" t="str"/>
+      <c r="AY35" s="1555" t="str"/>
+      <c r="AZ35" s="1556" t="str"/>
+      <c r="BA35" s="1557" t="str"/>
+      <c r="BB35" s="1558" t="str"/>
+      <c r="BC35" s="1559" t="str"/>
+      <c r="BD35" s="1560" t="str"/>
+      <c r="BE35" s="1561" t="str"/>
+      <c r="BF35" s="1562" t="str"/>
+      <c r="BG35" t="str">
+        <v>3700</v>
+      </c>
+      <c r="BH35" t="str">
+        <v>3700</v>
+      </c>
       <c r="BI35" t="str">
         <v>3700</v>
       </c>
       <c r="BJ35" t="str">
         <v>3700</v>
       </c>
-      <c r="BK35" t="str">
-        <v>3700</v>
-      </c>
+      <c r="BK35" s="1563" t="str"/>
       <c r="BL35" t="str">
-        <v>3700</v>
-      </c>
-      <c r="BM35" s="1580" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_45_m_24_et._2119667706</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
         <v>2-к. квартира, 41,1 м², 4/4 эт.</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="1564" t="str"/>
+      <c r="C36" s="1565" t="str"/>
+      <c r="D36" s="1566" t="str"/>
+      <c r="E36" s="1567" t="str"/>
+      <c r="F36" s="1568" t="str"/>
+      <c r="G36" s="1569" t="str"/>
+      <c r="H36" s="1570" t="str"/>
+      <c r="I36" s="1571" t="str"/>
+      <c r="J36" s="1572" t="str"/>
+      <c r="K36" s="1573" t="str"/>
+      <c r="L36" s="1574" t="str"/>
+      <c r="M36" s="1575" t="str"/>
+      <c r="N36" s="1576" t="str"/>
+      <c r="O36" s="1577" t="str"/>
+      <c r="P36" s="1578" t="str"/>
+      <c r="Q36" s="1579" t="str"/>
+      <c r="R36" s="1580" t="str"/>
+      <c r="S36" s="1581" t="str"/>
+      <c r="T36" s="1582" t="str"/>
+      <c r="U36" s="1583" t="str"/>
+      <c r="V36" s="1584" t="str"/>
+      <c r="W36" s="1585" t="str"/>
+      <c r="X36" s="1586" t="str"/>
+      <c r="Y36" s="1587" t="str"/>
+      <c r="Z36" s="1588" t="str"/>
+      <c r="AA36" s="1589" t="str"/>
+      <c r="AB36" s="1590" t="str"/>
+      <c r="AC36" s="1591" t="str"/>
+      <c r="AD36" s="1592" t="str"/>
+      <c r="AE36" s="1593" t="str"/>
+      <c r="AF36" s="1594" t="str"/>
+      <c r="AG36" s="1595" t="str"/>
+      <c r="AH36" s="1596" t="str"/>
+      <c r="AI36" s="1597" t="str"/>
+      <c r="AJ36" s="1598" t="str"/>
+      <c r="AK36" s="1599" t="str"/>
+      <c r="AL36" s="1600" t="str"/>
+      <c r="AM36" s="1601" t="str"/>
+      <c r="AN36" s="1602" t="str"/>
+      <c r="AO36" s="1603" t="str"/>
+      <c r="AP36" s="1604" t="str"/>
+      <c r="AQ36" s="1605" t="str"/>
+      <c r="AR36" s="1606" t="str"/>
+      <c r="AS36" s="1607" t="str"/>
+      <c r="AT36" s="1608" t="str"/>
+      <c r="AU36" s="1609" t="str"/>
+      <c r="AV36" s="1610" t="str"/>
+      <c r="AW36" s="1611" t="str"/>
+      <c r="AX36" s="1612" t="str"/>
+      <c r="AY36" s="1613" t="str"/>
+      <c r="AZ36" s="1614" t="str"/>
+      <c r="BA36" s="1615" t="str"/>
+      <c r="BB36" s="1616" t="str"/>
+      <c r="BC36" s="1617" t="str"/>
+      <c r="BD36" s="1618" t="str"/>
+      <c r="BE36" s="1619" t="str"/>
+      <c r="BF36" s="1620" t="str"/>
+      <c r="BG36" t="str">
+        <v>3550</v>
+      </c>
+      <c r="BH36" t="str">
+        <v>3550</v>
+      </c>
+      <c r="BI36" s="1621" t="str"/>
+      <c r="BJ36" s="1622" t="str"/>
+      <c r="BK36" s="1623" t="str"/>
+      <c r="BL36" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_411_m_44_et._2299446831</v>
       </c>
-      <c r="C36" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D36" s="1581" t="str"/>
-      <c r="E36" s="1582" t="str"/>
-      <c r="F36" s="1583" t="str"/>
-      <c r="G36" s="1584" t="str"/>
-      <c r="H36" s="1585" t="str"/>
-      <c r="I36" s="1586" t="str"/>
-      <c r="J36" s="1587" t="str"/>
-      <c r="K36" s="1588" t="str"/>
-      <c r="L36" s="1589" t="str"/>
-      <c r="M36" s="1590" t="str"/>
-      <c r="N36" s="1591" t="str"/>
-      <c r="O36" s="1592" t="str"/>
-      <c r="P36" s="1593" t="str"/>
-      <c r="Q36" s="1594" t="str"/>
-      <c r="R36" s="1595" t="str"/>
-      <c r="S36" s="1596" t="str"/>
-      <c r="T36" s="1597" t="str"/>
-      <c r="U36" s="1598" t="str"/>
-      <c r="V36" s="1599" t="str"/>
-      <c r="W36" s="1600" t="str"/>
-      <c r="X36" s="1601" t="str"/>
-      <c r="Y36" s="1602" t="str"/>
-      <c r="Z36" s="1603" t="str"/>
-      <c r="AA36" s="1604" t="str"/>
-      <c r="AB36" s="1605" t="str"/>
-      <c r="AC36" s="1606" t="str"/>
-      <c r="AD36" s="1607" t="str"/>
-      <c r="AE36" s="1608" t="str"/>
-      <c r="AF36" s="1609" t="str"/>
-      <c r="AG36" s="1610" t="str"/>
-      <c r="AH36" s="1611" t="str"/>
-      <c r="AI36" s="1612" t="str"/>
-      <c r="AJ36" s="1613" t="str"/>
-      <c r="AK36" s="1614" t="str"/>
-      <c r="AL36" s="1615" t="str"/>
-      <c r="AM36" s="1616" t="str"/>
-      <c r="AN36" s="1617" t="str"/>
-      <c r="AO36" s="1618" t="str"/>
-      <c r="AP36" s="1619" t="str"/>
-      <c r="AQ36" s="1620" t="str"/>
-      <c r="AR36" s="1621" t="str"/>
-      <c r="AS36" s="1622" t="str"/>
-      <c r="AT36" s="1623" t="str"/>
-      <c r="AU36" s="1624" t="str"/>
-      <c r="AV36" s="1625" t="str"/>
-      <c r="AW36" s="1626" t="str"/>
-      <c r="AX36" s="1627" t="str"/>
-      <c r="AY36" s="1628" t="str"/>
-      <c r="AZ36" s="1629" t="str"/>
-      <c r="BA36" s="1630" t="str"/>
-      <c r="BB36" s="1631" t="str"/>
-      <c r="BC36" s="1632" t="str"/>
-      <c r="BD36" s="1633" t="str"/>
-      <c r="BE36" s="1634" t="str"/>
-      <c r="BF36" s="1635" t="str"/>
-      <c r="BG36" s="1636" t="str"/>
-      <c r="BH36" s="1637" t="str"/>
-      <c r="BI36" t="str">
-        <v>3550</v>
-      </c>
-      <c r="BJ36" t="str">
-        <v>3550</v>
-      </c>
-      <c r="BK36" s="1638" t="str"/>
-      <c r="BL36" s="1639" t="str"/>
-      <c r="BM36" s="1640" t="str"/>
     </row>
     <row r="37">
       <c r="A37" t="str">
         <v>2-к. квартира, 52 м², 4/5 эт.</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="1624" t="str"/>
+      <c r="C37" s="1625" t="str"/>
+      <c r="D37" s="1626" t="str"/>
+      <c r="E37" s="1627" t="str"/>
+      <c r="F37" s="1628" t="str"/>
+      <c r="G37" s="1629" t="str"/>
+      <c r="H37" s="1630" t="str"/>
+      <c r="I37" s="1631" t="str"/>
+      <c r="J37" s="1632" t="str"/>
+      <c r="K37" s="1633" t="str"/>
+      <c r="L37" s="1634" t="str"/>
+      <c r="M37" s="1635" t="str"/>
+      <c r="N37" s="1636" t="str"/>
+      <c r="O37" s="1637" t="str"/>
+      <c r="P37" s="1638" t="str"/>
+      <c r="Q37" s="1639" t="str"/>
+      <c r="R37" s="1640" t="str"/>
+      <c r="S37" s="1641" t="str"/>
+      <c r="T37" s="1642" t="str"/>
+      <c r="U37" s="1643" t="str"/>
+      <c r="V37" s="1644" t="str"/>
+      <c r="W37" s="1645" t="str"/>
+      <c r="X37" s="1646" t="str"/>
+      <c r="Y37" s="1647" t="str"/>
+      <c r="Z37" s="1648" t="str"/>
+      <c r="AA37" s="1649" t="str"/>
+      <c r="AB37" s="1650" t="str"/>
+      <c r="AC37" s="1651" t="str"/>
+      <c r="AD37" s="1652" t="str"/>
+      <c r="AE37" s="1653" t="str"/>
+      <c r="AF37" s="1654" t="str"/>
+      <c r="AG37" s="1655" t="str"/>
+      <c r="AH37" s="1656" t="str"/>
+      <c r="AI37" s="1657" t="str"/>
+      <c r="AJ37" s="1658" t="str"/>
+      <c r="AK37" s="1659" t="str"/>
+      <c r="AL37" s="1660" t="str"/>
+      <c r="AM37" s="1661" t="str"/>
+      <c r="AN37" s="1662" t="str"/>
+      <c r="AO37" s="1663" t="str"/>
+      <c r="AP37" s="1664" t="str"/>
+      <c r="AQ37" s="1665" t="str"/>
+      <c r="AR37" s="1666" t="str"/>
+      <c r="AS37" s="1667" t="str"/>
+      <c r="AT37" s="1668" t="str"/>
+      <c r="AU37" s="1669" t="str"/>
+      <c r="AV37" s="1670" t="str"/>
+      <c r="AW37" s="1671" t="str"/>
+      <c r="AX37" s="1672" t="str"/>
+      <c r="AY37" s="1673" t="str"/>
+      <c r="AZ37" s="1674" t="str"/>
+      <c r="BA37" s="1675" t="str"/>
+      <c r="BB37" s="1676" t="str"/>
+      <c r="BC37" s="1677" t="str"/>
+      <c r="BD37" s="1678" t="str"/>
+      <c r="BE37" s="1679" t="str"/>
+      <c r="BF37" s="1680" t="str"/>
+      <c r="BG37" s="1681" t="str"/>
+      <c r="BH37" s="1682" t="str"/>
+      <c r="BI37" s="1683" t="str"/>
+      <c r="BJ37" s="1684" t="str"/>
+      <c r="BK37" s="1685" t="str"/>
+      <c r="BL37" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_52_m_45_et._3224730430</v>
       </c>
-      <c r="C37" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D37" s="1641" t="str"/>
-      <c r="E37" s="1642" t="str"/>
-      <c r="F37" s="1643" t="str"/>
-      <c r="G37" s="1644" t="str"/>
-      <c r="H37" s="1645" t="str"/>
-      <c r="I37" s="1646" t="str"/>
-      <c r="J37" s="1647" t="str"/>
-      <c r="K37" s="1648" t="str"/>
-      <c r="L37" s="1649" t="str"/>
-      <c r="M37" s="1650" t="str"/>
-      <c r="N37" s="1651" t="str"/>
-      <c r="O37" s="1652" t="str"/>
-      <c r="P37" s="1653" t="str"/>
-      <c r="Q37" s="1654" t="str"/>
-      <c r="R37" s="1655" t="str"/>
-      <c r="S37" s="1656" t="str"/>
-      <c r="T37" s="1657" t="str"/>
-      <c r="U37" s="1658" t="str"/>
-      <c r="V37" s="1659" t="str"/>
-      <c r="W37" s="1660" t="str"/>
-      <c r="X37" s="1661" t="str"/>
-      <c r="Y37" s="1662" t="str"/>
-      <c r="Z37" s="1663" t="str"/>
-      <c r="AA37" s="1664" t="str"/>
-      <c r="AB37" s="1665" t="str"/>
-      <c r="AC37" s="1666" t="str"/>
-      <c r="AD37" s="1667" t="str"/>
-      <c r="AE37" s="1668" t="str"/>
-      <c r="AF37" s="1669" t="str"/>
-      <c r="AG37" s="1670" t="str"/>
-      <c r="AH37" s="1671" t="str"/>
-      <c r="AI37" s="1672" t="str"/>
-      <c r="AJ37" s="1673" t="str"/>
-      <c r="AK37" s="1674" t="str"/>
-      <c r="AL37" s="1675" t="str"/>
-      <c r="AM37" s="1676" t="str"/>
-      <c r="AN37" s="1677" t="str"/>
-      <c r="AO37" s="1678" t="str"/>
-      <c r="AP37" s="1679" t="str"/>
-      <c r="AQ37" s="1680" t="str"/>
-      <c r="AR37" s="1681" t="str"/>
-      <c r="AS37" s="1682" t="str"/>
-      <c r="AT37" s="1683" t="str"/>
-      <c r="AU37" s="1684" t="str"/>
-      <c r="AV37" s="1685" t="str"/>
-      <c r="AW37" s="1686" t="str"/>
-      <c r="AX37" s="1687" t="str"/>
-      <c r="AY37" s="1688" t="str"/>
-      <c r="AZ37" s="1689" t="str"/>
-      <c r="BA37" s="1690" t="str"/>
-      <c r="BB37" s="1691" t="str"/>
-      <c r="BC37" s="1692" t="str"/>
-      <c r="BD37" s="1693" t="str"/>
-      <c r="BE37" s="1694" t="str"/>
-      <c r="BF37" s="1695" t="str"/>
-      <c r="BG37" s="1696" t="str"/>
-      <c r="BH37" s="1697" t="str"/>
-      <c r="BI37" s="1698" t="str"/>
-      <c r="BJ37" s="1699" t="str"/>
-      <c r="BK37" s="1700" t="str"/>
-      <c r="BL37" s="1701" t="str"/>
-      <c r="BM37" s="1702" t="str"/>
     </row>
     <row r="38">
       <c r="A38" t="str">
         <v>2-к. квартира, 52 м², 3/5 эт.</v>
       </c>
-      <c r="B38" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_52_m_35_et._2143361783</v>
-      </c>
-      <c r="C38" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D38" s="1703" t="str"/>
-      <c r="E38" s="1704" t="str"/>
-      <c r="F38" s="1705" t="str"/>
-      <c r="G38" s="1706" t="str"/>
-      <c r="H38" s="1707" t="str"/>
-      <c r="I38" s="1708" t="str"/>
-      <c r="J38" s="1709" t="str"/>
-      <c r="K38" s="1710" t="str"/>
-      <c r="L38" s="1711" t="str"/>
-      <c r="M38" s="1712" t="str"/>
-      <c r="N38" s="1713" t="str"/>
-      <c r="O38" s="1714" t="str"/>
-      <c r="P38" s="1715" t="str"/>
-      <c r="Q38" s="1716" t="str"/>
-      <c r="R38" s="1717" t="str"/>
-      <c r="S38" s="1718" t="str"/>
-      <c r="T38" s="1719" t="str"/>
-      <c r="U38" s="1720" t="str"/>
-      <c r="V38" s="1721" t="str"/>
-      <c r="W38" s="1722" t="str"/>
+      <c r="B38" s="1686" t="str"/>
+      <c r="C38" s="1687" t="str"/>
+      <c r="D38" s="1688" t="str"/>
+      <c r="E38" s="1689" t="str"/>
+      <c r="F38" s="1690" t="str"/>
+      <c r="G38" s="1691" t="str"/>
+      <c r="H38" s="1692" t="str"/>
+      <c r="I38" s="1693" t="str"/>
+      <c r="J38" s="1694" t="str"/>
+      <c r="K38" s="1695" t="str"/>
+      <c r="L38" s="1696" t="str"/>
+      <c r="M38" s="1697" t="str"/>
+      <c r="N38" s="1698" t="str"/>
+      <c r="O38" s="1699" t="str"/>
+      <c r="P38" s="1700" t="str"/>
+      <c r="Q38" s="1701" t="str"/>
+      <c r="R38" s="1702" t="str"/>
+      <c r="S38" s="1703" t="str"/>
+      <c r="T38" s="1704" t="str"/>
+      <c r="U38" s="1705" t="str"/>
+      <c r="V38" t="str">
+        <v>6600</v>
+      </c>
+      <c r="W38" t="str">
+        <v>6600</v>
+      </c>
       <c r="X38" t="str">
         <v>6600</v>
       </c>
@@ -49117,55 +48820,52 @@
       <c r="BJ38" t="str">
         <v>6600</v>
       </c>
-      <c r="BK38" t="str">
-        <v>6600</v>
-      </c>
+      <c r="BK38" s="1706" t="str"/>
       <c r="BL38" t="str">
-        <v>6600</v>
-      </c>
-      <c r="BM38" s="1723" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_52_m_35_et._2143361783</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
         <v>2-к. квартира, 45 м², 2/5 эт.</v>
       </c>
-      <c r="B39" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_45_m_25_et._2318765108</v>
-      </c>
-      <c r="C39" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D39" s="1724" t="str"/>
-      <c r="E39" s="1725" t="str"/>
-      <c r="F39" s="1726" t="str"/>
-      <c r="G39" s="1727" t="str"/>
-      <c r="H39" s="1728" t="str"/>
-      <c r="I39" s="1729" t="str"/>
-      <c r="J39" s="1730" t="str"/>
-      <c r="K39" s="1731" t="str"/>
-      <c r="L39" s="1732" t="str"/>
-      <c r="M39" s="1733" t="str"/>
-      <c r="N39" s="1734" t="str"/>
-      <c r="O39" s="1735" t="str"/>
-      <c r="P39" s="1736" t="str"/>
-      <c r="Q39" s="1737" t="str"/>
-      <c r="R39" s="1738" t="str"/>
-      <c r="S39" s="1739" t="str"/>
-      <c r="T39" s="1740" t="str"/>
-      <c r="U39" s="1741" t="str"/>
-      <c r="V39" s="1742" t="str"/>
-      <c r="W39" s="1743" t="str"/>
-      <c r="X39" s="1744" t="str"/>
-      <c r="Y39" s="1745" t="str"/>
-      <c r="Z39" s="1746" t="str"/>
-      <c r="AA39" s="1747" t="str"/>
-      <c r="AB39" s="1748" t="str"/>
-      <c r="AC39" s="1749" t="str"/>
-      <c r="AD39" s="1750" t="str"/>
-      <c r="AE39" s="1751" t="str"/>
-      <c r="AF39" s="1752" t="str"/>
-      <c r="AG39" s="1753" t="str"/>
-      <c r="AH39" s="1754" t="str"/>
+      <c r="B39" s="1707" t="str"/>
+      <c r="C39" s="1708" t="str"/>
+      <c r="D39" s="1709" t="str"/>
+      <c r="E39" s="1710" t="str"/>
+      <c r="F39" s="1711" t="str"/>
+      <c r="G39" s="1712" t="str"/>
+      <c r="H39" s="1713" t="str"/>
+      <c r="I39" s="1714" t="str"/>
+      <c r="J39" s="1715" t="str"/>
+      <c r="K39" s="1716" t="str"/>
+      <c r="L39" s="1717" t="str"/>
+      <c r="M39" s="1718" t="str"/>
+      <c r="N39" s="1719" t="str"/>
+      <c r="O39" s="1720" t="str"/>
+      <c r="P39" s="1721" t="str"/>
+      <c r="Q39" s="1722" t="str"/>
+      <c r="R39" s="1723" t="str"/>
+      <c r="S39" s="1724" t="str"/>
+      <c r="T39" s="1725" t="str"/>
+      <c r="U39" s="1726" t="str"/>
+      <c r="V39" s="1727" t="str"/>
+      <c r="W39" s="1728" t="str"/>
+      <c r="X39" s="1729" t="str"/>
+      <c r="Y39" s="1730" t="str"/>
+      <c r="Z39" s="1731" t="str"/>
+      <c r="AA39" s="1732" t="str"/>
+      <c r="AB39" s="1733" t="str"/>
+      <c r="AC39" s="1734" t="str"/>
+      <c r="AD39" s="1735" t="str"/>
+      <c r="AE39" s="1736" t="str"/>
+      <c r="AF39" s="1737" t="str"/>
+      <c r="AG39" t="str">
+        <v>4200</v>
+      </c>
+      <c r="AH39" t="str">
+        <v>4200</v>
+      </c>
       <c r="AI39" t="str">
         <v>4200</v>
       </c>
@@ -49250,55 +48950,52 @@
       <c r="BJ39" t="str">
         <v>4200</v>
       </c>
-      <c r="BK39" t="str">
-        <v>4200</v>
-      </c>
+      <c r="BK39" s="1738" t="str"/>
       <c r="BL39" t="str">
-        <v>4200</v>
-      </c>
-      <c r="BM39" s="1755" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_45_m_25_et._2318765108</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
         <v>2-к. квартира, 90 м², 5/5 эт.</v>
       </c>
-      <c r="B40" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_90_m_55_et._2143618186</v>
-      </c>
-      <c r="C40" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D40" s="1756" t="str"/>
-      <c r="E40" s="1757" t="str"/>
-      <c r="F40" s="1758" t="str"/>
-      <c r="G40" s="1759" t="str"/>
-      <c r="H40" s="1760" t="str"/>
-      <c r="I40" s="1761" t="str"/>
-      <c r="J40" s="1762" t="str"/>
-      <c r="K40" s="1763" t="str"/>
-      <c r="L40" s="1764" t="str"/>
-      <c r="M40" s="1765" t="str"/>
-      <c r="N40" s="1766" t="str"/>
-      <c r="O40" s="1767" t="str"/>
-      <c r="P40" s="1768" t="str"/>
-      <c r="Q40" s="1769" t="str"/>
-      <c r="R40" s="1770" t="str"/>
-      <c r="S40" s="1771" t="str"/>
-      <c r="T40" s="1772" t="str"/>
-      <c r="U40" s="1773" t="str"/>
-      <c r="V40" s="1774" t="str"/>
-      <c r="W40" s="1775" t="str"/>
-      <c r="X40" s="1776" t="str"/>
-      <c r="Y40" s="1777" t="str"/>
-      <c r="Z40" s="1778" t="str"/>
-      <c r="AA40" s="1779" t="str"/>
-      <c r="AB40" s="1780" t="str"/>
-      <c r="AC40" s="1781" t="str"/>
-      <c r="AD40" s="1782" t="str"/>
-      <c r="AE40" s="1783" t="str"/>
-      <c r="AF40" s="1784" t="str"/>
-      <c r="AG40" s="1785" t="str"/>
-      <c r="AH40" s="1786" t="str"/>
+      <c r="B40" s="1739" t="str"/>
+      <c r="C40" s="1740" t="str"/>
+      <c r="D40" s="1741" t="str"/>
+      <c r="E40" s="1742" t="str"/>
+      <c r="F40" s="1743" t="str"/>
+      <c r="G40" s="1744" t="str"/>
+      <c r="H40" s="1745" t="str"/>
+      <c r="I40" s="1746" t="str"/>
+      <c r="J40" s="1747" t="str"/>
+      <c r="K40" s="1748" t="str"/>
+      <c r="L40" s="1749" t="str"/>
+      <c r="M40" s="1750" t="str"/>
+      <c r="N40" s="1751" t="str"/>
+      <c r="O40" s="1752" t="str"/>
+      <c r="P40" s="1753" t="str"/>
+      <c r="Q40" s="1754" t="str"/>
+      <c r="R40" s="1755" t="str"/>
+      <c r="S40" s="1756" t="str"/>
+      <c r="T40" s="1757" t="str"/>
+      <c r="U40" s="1758" t="str"/>
+      <c r="V40" s="1759" t="str"/>
+      <c r="W40" s="1760" t="str"/>
+      <c r="X40" s="1761" t="str"/>
+      <c r="Y40" s="1762" t="str"/>
+      <c r="Z40" s="1763" t="str"/>
+      <c r="AA40" s="1764" t="str"/>
+      <c r="AB40" s="1765" t="str"/>
+      <c r="AC40" s="1766" t="str"/>
+      <c r="AD40" s="1767" t="str"/>
+      <c r="AE40" s="1768" t="str"/>
+      <c r="AF40" s="1769" t="str"/>
+      <c r="AG40" t="str">
+        <v>7600</v>
+      </c>
+      <c r="AH40" t="str">
+        <v>7600</v>
+      </c>
       <c r="AI40" t="str">
         <v>7600</v>
       </c>
@@ -49383,70 +49080,67 @@
       <c r="BJ40" t="str">
         <v>7600</v>
       </c>
-      <c r="BK40" t="str">
-        <v>7600</v>
-      </c>
+      <c r="BK40" s="1770" t="str"/>
       <c r="BL40" t="str">
-        <v>7600</v>
-      </c>
-      <c r="BM40" s="1787" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_90_m_55_et._2143618186</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
         <v>2-к. квартира, 48 м², 2/5 эт.</v>
       </c>
-      <c r="B41" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_48_m_25_et._2047188446</v>
-      </c>
-      <c r="C41" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D41" s="1788" t="str"/>
-      <c r="E41" s="1789" t="str"/>
-      <c r="F41" s="1790" t="str"/>
-      <c r="G41" s="1791" t="str"/>
-      <c r="H41" s="1792" t="str"/>
-      <c r="I41" s="1793" t="str"/>
-      <c r="J41" s="1794" t="str"/>
-      <c r="K41" s="1795" t="str"/>
-      <c r="L41" s="1796" t="str"/>
-      <c r="M41" s="1797" t="str"/>
-      <c r="N41" s="1798" t="str"/>
-      <c r="O41" s="1799" t="str"/>
-      <c r="P41" s="1800" t="str"/>
-      <c r="Q41" s="1801" t="str"/>
-      <c r="R41" s="1802" t="str"/>
-      <c r="S41" s="1803" t="str"/>
-      <c r="T41" s="1804" t="str"/>
-      <c r="U41" s="1805" t="str"/>
-      <c r="V41" s="1806" t="str"/>
-      <c r="W41" t="str">
+      <c r="B41" s="1771" t="str"/>
+      <c r="C41" s="1772" t="str"/>
+      <c r="D41" s="1773" t="str"/>
+      <c r="E41" s="1774" t="str"/>
+      <c r="F41" s="1775" t="str"/>
+      <c r="G41" s="1776" t="str"/>
+      <c r="H41" s="1777" t="str"/>
+      <c r="I41" s="1778" t="str"/>
+      <c r="J41" s="1779" t="str"/>
+      <c r="K41" s="1780" t="str"/>
+      <c r="L41" s="1781" t="str"/>
+      <c r="M41" s="1782" t="str"/>
+      <c r="N41" s="1783" t="str"/>
+      <c r="O41" s="1784" t="str"/>
+      <c r="P41" s="1785" t="str"/>
+      <c r="Q41" s="1786" t="str"/>
+      <c r="R41" s="1787" t="str"/>
+      <c r="S41" s="1788" t="str"/>
+      <c r="T41" s="1789" t="str"/>
+      <c r="U41" t="str">
         <v>3000</v>
       </c>
-      <c r="X41" s="1807" t="str"/>
-      <c r="Y41" s="1808" t="str"/>
-      <c r="Z41" s="1809" t="str"/>
-      <c r="AA41" s="1810" t="str"/>
-      <c r="AB41" s="1811" t="str"/>
-      <c r="AC41" s="1812" t="str"/>
-      <c r="AD41" s="1813" t="str"/>
-      <c r="AE41" s="1814" t="str"/>
-      <c r="AF41" s="1815" t="str"/>
-      <c r="AG41" s="1816" t="str"/>
-      <c r="AH41" s="1817" t="str"/>
-      <c r="AI41" s="1818" t="str"/>
-      <c r="AJ41" s="1819" t="str"/>
-      <c r="AK41" s="1820" t="str"/>
-      <c r="AL41" s="1821" t="str"/>
-      <c r="AM41" s="1822" t="str"/>
-      <c r="AN41" s="1823" t="str"/>
-      <c r="AO41" s="1824" t="str"/>
-      <c r="AP41" s="1825" t="str"/>
-      <c r="AQ41" s="1826" t="str"/>
-      <c r="AR41" s="1827" t="str"/>
-      <c r="AS41" s="1828" t="str"/>
-      <c r="AT41" s="1829" t="str"/>
-      <c r="AU41" s="1830" t="str"/>
+      <c r="V41" s="1790" t="str"/>
+      <c r="W41" s="1791" t="str"/>
+      <c r="X41" s="1792" t="str"/>
+      <c r="Y41" s="1793" t="str"/>
+      <c r="Z41" s="1794" t="str"/>
+      <c r="AA41" s="1795" t="str"/>
+      <c r="AB41" s="1796" t="str"/>
+      <c r="AC41" s="1797" t="str"/>
+      <c r="AD41" s="1798" t="str"/>
+      <c r="AE41" s="1799" t="str"/>
+      <c r="AF41" s="1800" t="str"/>
+      <c r="AG41" s="1801" t="str"/>
+      <c r="AH41" s="1802" t="str"/>
+      <c r="AI41" s="1803" t="str"/>
+      <c r="AJ41" s="1804" t="str"/>
+      <c r="AK41" s="1805" t="str"/>
+      <c r="AL41" s="1806" t="str"/>
+      <c r="AM41" s="1807" t="str"/>
+      <c r="AN41" s="1808" t="str"/>
+      <c r="AO41" s="1809" t="str"/>
+      <c r="AP41" s="1810" t="str"/>
+      <c r="AQ41" s="1811" t="str"/>
+      <c r="AR41" s="1812" t="str"/>
+      <c r="AS41" s="1813" t="str"/>
+      <c r="AT41" t="str">
+        <v>3000</v>
+      </c>
+      <c r="AU41" t="str">
+        <v>3000</v>
+      </c>
       <c r="AV41" t="str">
         <v>3000</v>
       </c>
@@ -49492,72 +49186,69 @@
       <c r="BJ41" t="str">
         <v>3000</v>
       </c>
-      <c r="BK41" t="str">
-        <v>3000</v>
-      </c>
+      <c r="BK41" s="1814" t="str"/>
       <c r="BL41" t="str">
-        <v>3000</v>
-      </c>
-      <c r="BM41" s="1831" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_48_m_25_et._2047188446</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
         <v>2-к. квартира, 50,6 м², 4/5 эт.</v>
       </c>
-      <c r="B42" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_506_m_45_et._2590868019</v>
-      </c>
-      <c r="C42" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D42" s="1832" t="str"/>
-      <c r="E42" s="1833" t="str"/>
-      <c r="F42" s="1834" t="str"/>
-      <c r="G42" s="1835" t="str"/>
-      <c r="H42" s="1836" t="str"/>
-      <c r="I42" s="1837" t="str"/>
-      <c r="J42" s="1838" t="str"/>
-      <c r="K42" s="1839" t="str"/>
-      <c r="L42" s="1840" t="str"/>
-      <c r="M42" s="1841" t="str"/>
-      <c r="N42" s="1842" t="str"/>
-      <c r="O42" s="1843" t="str"/>
-      <c r="P42" s="1844" t="str"/>
-      <c r="Q42" s="1845" t="str"/>
-      <c r="R42" s="1846" t="str"/>
-      <c r="S42" s="1847" t="str"/>
-      <c r="T42" s="1848" t="str"/>
-      <c r="U42" s="1849" t="str"/>
-      <c r="V42" s="1850" t="str"/>
-      <c r="W42" s="1851" t="str"/>
-      <c r="X42" s="1852" t="str"/>
-      <c r="Y42" s="1853" t="str"/>
-      <c r="Z42" s="1854" t="str"/>
-      <c r="AA42" s="1855" t="str"/>
-      <c r="AB42" s="1856" t="str"/>
-      <c r="AC42" s="1857" t="str"/>
-      <c r="AD42" s="1858" t="str"/>
-      <c r="AE42" s="1859" t="str"/>
-      <c r="AF42" s="1860" t="str"/>
-      <c r="AG42" s="1861" t="str"/>
-      <c r="AH42" s="1862" t="str"/>
-      <c r="AI42" s="1863" t="str"/>
-      <c r="AJ42" s="1864" t="str"/>
-      <c r="AK42" s="1865" t="str"/>
-      <c r="AL42" s="1866" t="str"/>
-      <c r="AM42" s="1867" t="str"/>
-      <c r="AN42" s="1868" t="str"/>
-      <c r="AO42" s="1869" t="str"/>
-      <c r="AP42" s="1870" t="str"/>
-      <c r="AQ42" s="1871" t="str"/>
-      <c r="AR42" s="1872" t="str"/>
-      <c r="AS42" s="1873" t="str"/>
-      <c r="AT42" s="1874" t="str"/>
-      <c r="AU42" s="1875" t="str"/>
-      <c r="AV42" s="1876" t="str"/>
-      <c r="AW42" s="1877" t="str"/>
-      <c r="AX42" s="1878" t="str"/>
-      <c r="AY42" s="1879" t="str"/>
+      <c r="B42" s="1815" t="str"/>
+      <c r="C42" s="1816" t="str"/>
+      <c r="D42" s="1817" t="str"/>
+      <c r="E42" s="1818" t="str"/>
+      <c r="F42" s="1819" t="str"/>
+      <c r="G42" s="1820" t="str"/>
+      <c r="H42" s="1821" t="str"/>
+      <c r="I42" s="1822" t="str"/>
+      <c r="J42" s="1823" t="str"/>
+      <c r="K42" s="1824" t="str"/>
+      <c r="L42" s="1825" t="str"/>
+      <c r="M42" s="1826" t="str"/>
+      <c r="N42" s="1827" t="str"/>
+      <c r="O42" s="1828" t="str"/>
+      <c r="P42" s="1829" t="str"/>
+      <c r="Q42" s="1830" t="str"/>
+      <c r="R42" s="1831" t="str"/>
+      <c r="S42" s="1832" t="str"/>
+      <c r="T42" s="1833" t="str"/>
+      <c r="U42" s="1834" t="str"/>
+      <c r="V42" s="1835" t="str"/>
+      <c r="W42" s="1836" t="str"/>
+      <c r="X42" s="1837" t="str"/>
+      <c r="Y42" s="1838" t="str"/>
+      <c r="Z42" s="1839" t="str"/>
+      <c r="AA42" s="1840" t="str"/>
+      <c r="AB42" s="1841" t="str"/>
+      <c r="AC42" s="1842" t="str"/>
+      <c r="AD42" s="1843" t="str"/>
+      <c r="AE42" s="1844" t="str"/>
+      <c r="AF42" s="1845" t="str"/>
+      <c r="AG42" s="1846" t="str"/>
+      <c r="AH42" s="1847" t="str"/>
+      <c r="AI42" s="1848" t="str"/>
+      <c r="AJ42" s="1849" t="str"/>
+      <c r="AK42" s="1850" t="str"/>
+      <c r="AL42" s="1851" t="str"/>
+      <c r="AM42" s="1852" t="str"/>
+      <c r="AN42" s="1853" t="str"/>
+      <c r="AO42" s="1854" t="str"/>
+      <c r="AP42" s="1855" t="str"/>
+      <c r="AQ42" s="1856" t="str"/>
+      <c r="AR42" s="1857" t="str"/>
+      <c r="AS42" s="1858" t="str"/>
+      <c r="AT42" s="1859" t="str"/>
+      <c r="AU42" s="1860" t="str"/>
+      <c r="AV42" s="1861" t="str"/>
+      <c r="AW42" s="1862" t="str"/>
+      <c r="AX42" t="str">
+        <v>3200</v>
+      </c>
+      <c r="AY42" t="str">
+        <v>3200</v>
+      </c>
       <c r="AZ42" t="str">
         <v>3200</v>
       </c>
@@ -49591,131 +49282,119 @@
       <c r="BJ42" t="str">
         <v>3200</v>
       </c>
-      <c r="BK42" t="str">
-        <v>3200</v>
-      </c>
+      <c r="BK42" s="1863" t="str"/>
       <c r="BL42" t="str">
-        <v>3200</v>
-      </c>
-      <c r="BM42" s="1880" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_506_m_45_et._2590868019</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
         <v>2-к. квартира, 50 м², 2/5 эт.</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="1864" t="str"/>
+      <c r="C43" s="1865" t="str"/>
+      <c r="D43" s="1866" t="str"/>
+      <c r="E43" s="1867" t="str"/>
+      <c r="F43" s="1868" t="str"/>
+      <c r="G43" s="1869" t="str"/>
+      <c r="H43" s="1870" t="str"/>
+      <c r="I43" s="1871" t="str"/>
+      <c r="J43" s="1872" t="str"/>
+      <c r="K43" s="1873" t="str"/>
+      <c r="L43" s="1874" t="str"/>
+      <c r="M43" s="1875" t="str"/>
+      <c r="N43" s="1876" t="str"/>
+      <c r="O43" s="1877" t="str"/>
+      <c r="P43" s="1878" t="str"/>
+      <c r="Q43" s="1879" t="str"/>
+      <c r="R43" s="1880" t="str"/>
+      <c r="S43" s="1881" t="str"/>
+      <c r="T43" s="1882" t="str"/>
+      <c r="U43" s="1883" t="str"/>
+      <c r="V43" s="1884" t="str"/>
+      <c r="W43" s="1885" t="str"/>
+      <c r="X43" s="1886" t="str"/>
+      <c r="Y43" s="1887" t="str"/>
+      <c r="Z43" s="1888" t="str"/>
+      <c r="AA43" s="1889" t="str"/>
+      <c r="AB43" s="1890" t="str"/>
+      <c r="AC43" s="1891" t="str"/>
+      <c r="AD43" s="1892" t="str"/>
+      <c r="AE43" s="1893" t="str"/>
+      <c r="AF43" s="1894" t="str"/>
+      <c r="AG43" s="1895" t="str"/>
+      <c r="AH43" s="1896" t="str"/>
+      <c r="AI43" s="1897" t="str"/>
+      <c r="AJ43" s="1898" t="str"/>
+      <c r="AK43" s="1899" t="str"/>
+      <c r="AL43" s="1900" t="str"/>
+      <c r="AM43" s="1901" t="str"/>
+      <c r="AN43" s="1902" t="str"/>
+      <c r="AO43" s="1903" t="str"/>
+      <c r="AP43" s="1904" t="str"/>
+      <c r="AQ43" s="1905" t="str"/>
+      <c r="AR43" s="1906" t="str"/>
+      <c r="AS43" s="1907" t="str"/>
+      <c r="AT43" s="1908" t="str"/>
+      <c r="AU43" s="1909" t="str"/>
+      <c r="AV43" s="1910" t="str"/>
+      <c r="AW43" s="1911" t="str"/>
+      <c r="AX43" s="1912" t="str"/>
+      <c r="AY43" s="1913" t="str"/>
+      <c r="AZ43" s="1914" t="str"/>
+      <c r="BA43" s="1915" t="str"/>
+      <c r="BB43" s="1916" t="str"/>
+      <c r="BC43" s="1917" t="str"/>
+      <c r="BD43" s="1918" t="str"/>
+      <c r="BE43" s="1919" t="str"/>
+      <c r="BF43" s="1920" t="str"/>
+      <c r="BG43" s="1921" t="str"/>
+      <c r="BH43" s="1922" t="str"/>
+      <c r="BI43" s="1923" t="str"/>
+      <c r="BJ43" s="1924" t="str"/>
+      <c r="BK43" s="1925" t="str"/>
+      <c r="BL43" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_50_m_25_et._885316267</v>
       </c>
-      <c r="C43" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D43" s="1881" t="str"/>
-      <c r="E43" s="1882" t="str"/>
-      <c r="F43" s="1883" t="str"/>
-      <c r="G43" s="1884" t="str"/>
-      <c r="H43" s="1885" t="str"/>
-      <c r="I43" s="1886" t="str"/>
-      <c r="J43" s="1887" t="str"/>
-      <c r="K43" s="1888" t="str"/>
-      <c r="L43" s="1889" t="str"/>
-      <c r="M43" s="1890" t="str"/>
-      <c r="N43" s="1891" t="str"/>
-      <c r="O43" s="1892" t="str"/>
-      <c r="P43" s="1893" t="str"/>
-      <c r="Q43" s="1894" t="str"/>
-      <c r="R43" s="1895" t="str"/>
-      <c r="S43" s="1896" t="str"/>
-      <c r="T43" s="1897" t="str"/>
-      <c r="U43" s="1898" t="str"/>
-      <c r="V43" s="1899" t="str"/>
-      <c r="W43" s="1900" t="str"/>
-      <c r="X43" s="1901" t="str"/>
-      <c r="Y43" s="1902" t="str"/>
-      <c r="Z43" s="1903" t="str"/>
-      <c r="AA43" s="1904" t="str"/>
-      <c r="AB43" s="1905" t="str"/>
-      <c r="AC43" s="1906" t="str"/>
-      <c r="AD43" s="1907" t="str"/>
-      <c r="AE43" s="1908" t="str"/>
-      <c r="AF43" s="1909" t="str"/>
-      <c r="AG43" s="1910" t="str"/>
-      <c r="AH43" s="1911" t="str"/>
-      <c r="AI43" s="1912" t="str"/>
-      <c r="AJ43" s="1913" t="str"/>
-      <c r="AK43" s="1914" t="str"/>
-      <c r="AL43" s="1915" t="str"/>
-      <c r="AM43" s="1916" t="str"/>
-      <c r="AN43" s="1917" t="str"/>
-      <c r="AO43" s="1918" t="str"/>
-      <c r="AP43" s="1919" t="str"/>
-      <c r="AQ43" s="1920" t="str"/>
-      <c r="AR43" s="1921" t="str"/>
-      <c r="AS43" s="1922" t="str"/>
-      <c r="AT43" s="1923" t="str"/>
-      <c r="AU43" s="1924" t="str"/>
-      <c r="AV43" s="1925" t="str"/>
-      <c r="AW43" s="1926" t="str"/>
-      <c r="AX43" s="1927" t="str"/>
-      <c r="AY43" s="1928" t="str"/>
-      <c r="AZ43" s="1929" t="str"/>
-      <c r="BA43" s="1930" t="str"/>
-      <c r="BB43" s="1931" t="str"/>
-      <c r="BC43" s="1932" t="str"/>
-      <c r="BD43" s="1933" t="str"/>
-      <c r="BE43" s="1934" t="str"/>
-      <c r="BF43" s="1935" t="str"/>
-      <c r="BG43" s="1936" t="str"/>
-      <c r="BH43" s="1937" t="str"/>
-      <c r="BI43" s="1938" t="str"/>
-      <c r="BJ43" s="1939" t="str"/>
-      <c r="BK43" s="1940" t="str"/>
-      <c r="BL43" s="1941" t="str"/>
-      <c r="BM43" s="1942" t="str"/>
     </row>
     <row r="44">
       <c r="A44" t="str">
         <v>2-к. квартира, 46 м², 3/4 эт.</v>
       </c>
-      <c r="B44" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_46_m_34_et._2175039000</v>
-      </c>
-      <c r="C44" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D44" s="1943" t="str"/>
-      <c r="E44" s="1944" t="str"/>
-      <c r="F44" s="1945" t="str"/>
-      <c r="G44" s="1946" t="str"/>
-      <c r="H44" s="1947" t="str"/>
-      <c r="I44" s="1948" t="str"/>
-      <c r="J44" s="1949" t="str"/>
-      <c r="K44" s="1950" t="str"/>
-      <c r="L44" s="1951" t="str"/>
-      <c r="M44" s="1952" t="str"/>
-      <c r="N44" s="1953" t="str"/>
-      <c r="O44" s="1954" t="str"/>
-      <c r="P44" s="1955" t="str"/>
-      <c r="Q44" s="1956" t="str"/>
-      <c r="R44" s="1957" t="str"/>
-      <c r="S44" s="1958" t="str"/>
-      <c r="T44" s="1959" t="str"/>
-      <c r="U44" s="1960" t="str"/>
-      <c r="V44" s="1961" t="str"/>
-      <c r="W44" s="1962" t="str"/>
-      <c r="X44" t="str">
-        <v>3300</v>
-      </c>
+      <c r="B44" s="1926" t="str"/>
+      <c r="C44" s="1927" t="str"/>
+      <c r="D44" s="1928" t="str"/>
+      <c r="E44" s="1929" t="str"/>
+      <c r="F44" s="1930" t="str"/>
+      <c r="G44" s="1931" t="str"/>
+      <c r="H44" s="1932" t="str"/>
+      <c r="I44" s="1933" t="str"/>
+      <c r="J44" s="1934" t="str"/>
+      <c r="K44" s="1935" t="str"/>
+      <c r="L44" s="1936" t="str"/>
+      <c r="M44" s="1937" t="str"/>
+      <c r="N44" s="1938" t="str"/>
+      <c r="O44" s="1939" t="str"/>
+      <c r="P44" s="1940" t="str"/>
+      <c r="Q44" s="1941" t="str"/>
+      <c r="R44" s="1942" t="str"/>
+      <c r="S44" s="1943" t="str"/>
+      <c r="T44" s="1944" t="str"/>
+      <c r="U44" s="1945" t="str"/>
+      <c r="V44" s="1946" t="str"/>
+      <c r="W44" s="1947" t="str"/>
+      <c r="X44" s="1948" t="str"/>
       <c r="Y44" t="str">
         <v>3300</v>
       </c>
-      <c r="Z44" t="str">
+      <c r="Z44" s="1949" t="str"/>
+      <c r="AA44" s="1950" t="str"/>
+      <c r="AB44" t="str">
         <v>3300</v>
       </c>
-      <c r="AA44" t="str">
+      <c r="AC44" t="str">
         <v>3300</v>
       </c>
-      <c r="AB44" s="1963" t="str"/>
-      <c r="AC44" s="1964" t="str"/>
       <c r="AD44" t="str">
         <v>3300</v>
       </c>
@@ -49728,14 +49407,14 @@
       <c r="AG44" t="str">
         <v>3300</v>
       </c>
-      <c r="AH44" t="str">
+      <c r="AH44" s="1951" t="str"/>
+      <c r="AI44" s="1952" t="str"/>
+      <c r="AJ44" t="str">
         <v>3300</v>
       </c>
-      <c r="AI44" t="str">
+      <c r="AK44" t="str">
         <v>3300</v>
       </c>
-      <c r="AJ44" s="1965" t="str"/>
-      <c r="AK44" s="1966" t="str"/>
       <c r="AL44" t="str">
         <v>3300</v>
       </c>
@@ -49748,382 +49427,367 @@
       <c r="AO44" t="str">
         <v>3300</v>
       </c>
-      <c r="AP44" t="str">
-        <v>3300</v>
-      </c>
-      <c r="AQ44" t="str">
-        <v>3300</v>
-      </c>
-      <c r="AR44" s="1967" t="str"/>
-      <c r="AS44" s="1968" t="str"/>
-      <c r="AT44" s="1969" t="str"/>
-      <c r="AU44" s="1970" t="str"/>
-      <c r="AV44" s="1971" t="str"/>
-      <c r="AW44" s="1972" t="str"/>
-      <c r="AX44" s="1973" t="str"/>
-      <c r="AY44" s="1974" t="str"/>
-      <c r="AZ44" s="1975" t="str"/>
-      <c r="BA44" s="1976" t="str"/>
-      <c r="BB44" s="1977" t="str"/>
-      <c r="BC44" s="1978" t="str"/>
-      <c r="BD44" s="1979" t="str"/>
-      <c r="BE44" s="1980" t="str"/>
-      <c r="BF44" s="1981" t="str"/>
-      <c r="BG44" s="1982" t="str"/>
-      <c r="BH44" s="1983" t="str"/>
-      <c r="BI44" s="1984" t="str"/>
-      <c r="BJ44" s="1985" t="str"/>
-      <c r="BK44" s="1986" t="str"/>
-      <c r="BL44" s="1987" t="str"/>
-      <c r="BM44" s="1988" t="str"/>
+      <c r="AP44" s="1953" t="str"/>
+      <c r="AQ44" s="1954" t="str"/>
+      <c r="AR44" s="1955" t="str"/>
+      <c r="AS44" s="1956" t="str"/>
+      <c r="AT44" s="1957" t="str"/>
+      <c r="AU44" s="1958" t="str"/>
+      <c r="AV44" s="1959" t="str"/>
+      <c r="AW44" s="1960" t="str"/>
+      <c r="AX44" s="1961" t="str"/>
+      <c r="AY44" s="1962" t="str"/>
+      <c r="AZ44" s="1963" t="str"/>
+      <c r="BA44" s="1964" t="str"/>
+      <c r="BB44" s="1965" t="str"/>
+      <c r="BC44" s="1966" t="str"/>
+      <c r="BD44" s="1967" t="str"/>
+      <c r="BE44" s="1968" t="str"/>
+      <c r="BF44" s="1969" t="str"/>
+      <c r="BG44" s="1970" t="str"/>
+      <c r="BH44" s="1971" t="str"/>
+      <c r="BI44" s="1972" t="str"/>
+      <c r="BJ44" s="1973" t="str"/>
+      <c r="BK44" s="1974" t="str"/>
+      <c r="BL44" t="str">
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_46_m_34_et._2175039000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
         <v>2-к. квартира, 44 м², 3/4 эт.</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45" s="1975" t="str"/>
+      <c r="C45" s="1976" t="str"/>
+      <c r="D45" s="1977" t="str"/>
+      <c r="E45" s="1978" t="str"/>
+      <c r="F45" s="1979" t="str"/>
+      <c r="G45" s="1980" t="str"/>
+      <c r="H45" s="1981" t="str"/>
+      <c r="I45" s="1982" t="str"/>
+      <c r="J45" s="1983" t="str"/>
+      <c r="K45" s="1984" t="str"/>
+      <c r="L45" s="1985" t="str"/>
+      <c r="M45" s="1986" t="str"/>
+      <c r="N45" s="1987" t="str"/>
+      <c r="O45" s="1988" t="str"/>
+      <c r="P45" s="1989" t="str"/>
+      <c r="Q45" s="1990" t="str"/>
+      <c r="R45" s="1991" t="str"/>
+      <c r="S45" s="1992" t="str"/>
+      <c r="T45" s="1993" t="str"/>
+      <c r="U45" s="1994" t="str"/>
+      <c r="V45" s="1995" t="str"/>
+      <c r="W45" s="1996" t="str"/>
+      <c r="X45" s="1997" t="str"/>
+      <c r="Y45" s="1998" t="str"/>
+      <c r="Z45" s="1999" t="str"/>
+      <c r="AA45" s="2000" t="str"/>
+      <c r="AB45" s="2001" t="str"/>
+      <c r="AC45" s="2002" t="str"/>
+      <c r="AD45" s="2003" t="str"/>
+      <c r="AE45" s="2004" t="str"/>
+      <c r="AF45" s="2005" t="str"/>
+      <c r="AG45" s="2006" t="str"/>
+      <c r="AH45" s="2007" t="str"/>
+      <c r="AI45" s="2008" t="str"/>
+      <c r="AJ45" s="2009" t="str"/>
+      <c r="AK45" s="2010" t="str"/>
+      <c r="AL45" s="2011" t="str"/>
+      <c r="AM45" s="2012" t="str"/>
+      <c r="AN45" s="2013" t="str"/>
+      <c r="AO45" s="2014" t="str"/>
+      <c r="AP45" s="2015" t="str"/>
+      <c r="AQ45" s="2016" t="str"/>
+      <c r="AR45" s="2017" t="str"/>
+      <c r="AS45" s="2018" t="str"/>
+      <c r="AT45" s="2019" t="str"/>
+      <c r="AU45" s="2020" t="str"/>
+      <c r="AV45" s="2021" t="str"/>
+      <c r="AW45" s="2022" t="str"/>
+      <c r="AX45" s="2023" t="str"/>
+      <c r="AY45" s="2024" t="str"/>
+      <c r="AZ45" s="2025" t="str"/>
+      <c r="BA45" s="2026" t="str"/>
+      <c r="BB45" s="2027" t="str"/>
+      <c r="BC45" s="2028" t="str"/>
+      <c r="BD45" s="2029" t="str"/>
+      <c r="BE45" s="2030" t="str"/>
+      <c r="BF45" s="2031" t="str"/>
+      <c r="BG45" s="2032" t="str"/>
+      <c r="BH45" s="2033" t="str"/>
+      <c r="BI45" s="2034" t="str"/>
+      <c r="BJ45" s="2035" t="str"/>
+      <c r="BK45" s="2036" t="str"/>
+      <c r="BL45" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_44_m_34_et._4018501312</v>
       </c>
-      <c r="C45" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D45" s="1989" t="str"/>
-      <c r="E45" s="1990" t="str"/>
-      <c r="F45" s="1991" t="str"/>
-      <c r="G45" s="1992" t="str"/>
-      <c r="H45" s="1993" t="str"/>
-      <c r="I45" s="1994" t="str"/>
-      <c r="J45" s="1995" t="str"/>
-      <c r="K45" s="1996" t="str"/>
-      <c r="L45" s="1997" t="str"/>
-      <c r="M45" s="1998" t="str"/>
-      <c r="N45" s="1999" t="str"/>
-      <c r="O45" s="2000" t="str"/>
-      <c r="P45" s="2001" t="str"/>
-      <c r="Q45" s="2002" t="str"/>
-      <c r="R45" s="2003" t="str"/>
-      <c r="S45" s="2004" t="str"/>
-      <c r="T45" s="2005" t="str"/>
-      <c r="U45" s="2006" t="str"/>
-      <c r="V45" s="2007" t="str"/>
-      <c r="W45" s="2008" t="str"/>
-      <c r="X45" s="2009" t="str"/>
-      <c r="Y45" s="2010" t="str"/>
-      <c r="Z45" s="2011" t="str"/>
-      <c r="AA45" s="2012" t="str"/>
-      <c r="AB45" s="2013" t="str"/>
-      <c r="AC45" s="2014" t="str"/>
-      <c r="AD45" s="2015" t="str"/>
-      <c r="AE45" s="2016" t="str"/>
-      <c r="AF45" s="2017" t="str"/>
-      <c r="AG45" s="2018" t="str"/>
-      <c r="AH45" s="2019" t="str"/>
-      <c r="AI45" s="2020" t="str"/>
-      <c r="AJ45" s="2021" t="str"/>
-      <c r="AK45" s="2022" t="str"/>
-      <c r="AL45" s="2023" t="str"/>
-      <c r="AM45" s="2024" t="str"/>
-      <c r="AN45" s="2025" t="str"/>
-      <c r="AO45" s="2026" t="str"/>
-      <c r="AP45" s="2027" t="str"/>
-      <c r="AQ45" s="2028" t="str"/>
-      <c r="AR45" s="2029" t="str"/>
-      <c r="AS45" s="2030" t="str"/>
-      <c r="AT45" s="2031" t="str"/>
-      <c r="AU45" s="2032" t="str"/>
-      <c r="AV45" s="2033" t="str"/>
-      <c r="AW45" s="2034" t="str"/>
-      <c r="AX45" s="2035" t="str"/>
-      <c r="AY45" s="2036" t="str"/>
-      <c r="AZ45" s="2037" t="str"/>
-      <c r="BA45" s="2038" t="str"/>
-      <c r="BB45" s="2039" t="str"/>
-      <c r="BC45" s="2040" t="str"/>
-      <c r="BD45" s="2041" t="str"/>
-      <c r="BE45" s="2042" t="str"/>
-      <c r="BF45" s="2043" t="str"/>
-      <c r="BG45" s="2044" t="str"/>
-      <c r="BH45" s="2045" t="str"/>
-      <c r="BI45" s="2046" t="str"/>
-      <c r="BJ45" s="2047" t="str"/>
-      <c r="BK45" s="2048" t="str"/>
-      <c r="BL45" s="2049" t="str"/>
-      <c r="BM45" s="2050" t="str"/>
     </row>
     <row r="46">
       <c r="A46" t="str">
         <v>2-к. квартира, 48 м², 4/4 эт.</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" s="2037" t="str"/>
+      <c r="C46" s="2038" t="str"/>
+      <c r="D46" s="2039" t="str"/>
+      <c r="E46" s="2040" t="str"/>
+      <c r="F46" s="2041" t="str"/>
+      <c r="G46" s="2042" t="str"/>
+      <c r="H46" s="2043" t="str"/>
+      <c r="I46" s="2044" t="str"/>
+      <c r="J46" s="2045" t="str"/>
+      <c r="K46" s="2046" t="str"/>
+      <c r="L46" s="2047" t="str"/>
+      <c r="M46" s="2048" t="str"/>
+      <c r="N46" s="2049" t="str"/>
+      <c r="O46" s="2050" t="str"/>
+      <c r="P46" s="2051" t="str"/>
+      <c r="Q46" s="2052" t="str"/>
+      <c r="R46" s="2053" t="str"/>
+      <c r="S46" s="2054" t="str"/>
+      <c r="T46" s="2055" t="str"/>
+      <c r="U46" s="2056" t="str"/>
+      <c r="V46" s="2057" t="str"/>
+      <c r="W46" s="2058" t="str"/>
+      <c r="X46" s="2059" t="str"/>
+      <c r="Y46" s="2060" t="str"/>
+      <c r="Z46" s="2061" t="str"/>
+      <c r="AA46" s="2062" t="str"/>
+      <c r="AB46" s="2063" t="str"/>
+      <c r="AC46" s="2064" t="str"/>
+      <c r="AD46" s="2065" t="str"/>
+      <c r="AE46" s="2066" t="str"/>
+      <c r="AF46" s="2067" t="str"/>
+      <c r="AG46" s="2068" t="str"/>
+      <c r="AH46" s="2069" t="str"/>
+      <c r="AI46" s="2070" t="str"/>
+      <c r="AJ46" s="2071" t="str"/>
+      <c r="AK46" s="2072" t="str"/>
+      <c r="AL46" s="2073" t="str"/>
+      <c r="AM46" s="2074" t="str"/>
+      <c r="AN46" s="2075" t="str"/>
+      <c r="AO46" s="2076" t="str"/>
+      <c r="AP46" s="2077" t="str"/>
+      <c r="AQ46" s="2078" t="str"/>
+      <c r="AR46" s="2079" t="str"/>
+      <c r="AS46" s="2080" t="str"/>
+      <c r="AT46" s="2081" t="str"/>
+      <c r="AU46" s="2082" t="str"/>
+      <c r="AV46" s="2083" t="str"/>
+      <c r="AW46" s="2084" t="str"/>
+      <c r="AX46" s="2085" t="str"/>
+      <c r="AY46" s="2086" t="str"/>
+      <c r="AZ46" s="2087" t="str"/>
+      <c r="BA46" s="2088" t="str"/>
+      <c r="BB46" s="2089" t="str"/>
+      <c r="BC46" s="2090" t="str"/>
+      <c r="BD46" s="2091" t="str"/>
+      <c r="BE46" s="2092" t="str"/>
+      <c r="BF46" s="2093" t="str"/>
+      <c r="BG46" s="2094" t="str"/>
+      <c r="BH46" s="2095" t="str"/>
+      <c r="BI46" s="2096" t="str"/>
+      <c r="BJ46" s="2097" t="str"/>
+      <c r="BK46" s="2098" t="str"/>
+      <c r="BL46" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_48_m_44_et._1562730521</v>
       </c>
-      <c r="C46" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D46" s="2051" t="str"/>
-      <c r="E46" s="2052" t="str"/>
-      <c r="F46" s="2053" t="str"/>
-      <c r="G46" s="2054" t="str"/>
-      <c r="H46" s="2055" t="str"/>
-      <c r="I46" s="2056" t="str"/>
-      <c r="J46" s="2057" t="str"/>
-      <c r="K46" s="2058" t="str"/>
-      <c r="L46" s="2059" t="str"/>
-      <c r="M46" s="2060" t="str"/>
-      <c r="N46" s="2061" t="str"/>
-      <c r="O46" s="2062" t="str"/>
-      <c r="P46" s="2063" t="str"/>
-      <c r="Q46" s="2064" t="str"/>
-      <c r="R46" s="2065" t="str"/>
-      <c r="S46" s="2066" t="str"/>
-      <c r="T46" s="2067" t="str"/>
-      <c r="U46" s="2068" t="str"/>
-      <c r="V46" s="2069" t="str"/>
-      <c r="W46" s="2070" t="str"/>
-      <c r="X46" s="2071" t="str"/>
-      <c r="Y46" s="2072" t="str"/>
-      <c r="Z46" s="2073" t="str"/>
-      <c r="AA46" s="2074" t="str"/>
-      <c r="AB46" s="2075" t="str"/>
-      <c r="AC46" s="2076" t="str"/>
-      <c r="AD46" s="2077" t="str"/>
-      <c r="AE46" s="2078" t="str"/>
-      <c r="AF46" s="2079" t="str"/>
-      <c r="AG46" s="2080" t="str"/>
-      <c r="AH46" s="2081" t="str"/>
-      <c r="AI46" s="2082" t="str"/>
-      <c r="AJ46" s="2083" t="str"/>
-      <c r="AK46" s="2084" t="str"/>
-      <c r="AL46" s="2085" t="str"/>
-      <c r="AM46" s="2086" t="str"/>
-      <c r="AN46" s="2087" t="str"/>
-      <c r="AO46" s="2088" t="str"/>
-      <c r="AP46" s="2089" t="str"/>
-      <c r="AQ46" s="2090" t="str"/>
-      <c r="AR46" s="2091" t="str"/>
-      <c r="AS46" s="2092" t="str"/>
-      <c r="AT46" s="2093" t="str"/>
-      <c r="AU46" s="2094" t="str"/>
-      <c r="AV46" s="2095" t="str"/>
-      <c r="AW46" s="2096" t="str"/>
-      <c r="AX46" s="2097" t="str"/>
-      <c r="AY46" s="2098" t="str"/>
-      <c r="AZ46" s="2099" t="str"/>
-      <c r="BA46" s="2100" t="str"/>
-      <c r="BB46" s="2101" t="str"/>
-      <c r="BC46" s="2102" t="str"/>
-      <c r="BD46" s="2103" t="str"/>
-      <c r="BE46" s="2104" t="str"/>
-      <c r="BF46" s="2105" t="str"/>
-      <c r="BG46" s="2106" t="str"/>
-      <c r="BH46" s="2107" t="str"/>
-      <c r="BI46" s="2108" t="str"/>
-      <c r="BJ46" s="2109" t="str"/>
-      <c r="BK46" s="2110" t="str"/>
-      <c r="BL46" s="2111" t="str"/>
-      <c r="BM46" s="2112" t="str"/>
     </row>
     <row r="47">
       <c r="A47" t="str">
         <v>2-к. квартира, 42 м², 4/5 эт.</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="2099" t="str"/>
+      <c r="C47" s="2100" t="str"/>
+      <c r="D47" s="2101" t="str"/>
+      <c r="E47" s="2102" t="str"/>
+      <c r="F47" s="2103" t="str"/>
+      <c r="G47" s="2104" t="str"/>
+      <c r="H47" s="2105" t="str"/>
+      <c r="I47" s="2106" t="str"/>
+      <c r="J47" s="2107" t="str"/>
+      <c r="K47" s="2108" t="str"/>
+      <c r="L47" s="2109" t="str"/>
+      <c r="M47" s="2110" t="str"/>
+      <c r="N47" s="2111" t="str"/>
+      <c r="O47" s="2112" t="str"/>
+      <c r="P47" s="2113" t="str"/>
+      <c r="Q47" s="2114" t="str"/>
+      <c r="R47" s="2115" t="str"/>
+      <c r="S47" s="2116" t="str"/>
+      <c r="T47" s="2117" t="str"/>
+      <c r="U47" s="2118" t="str"/>
+      <c r="V47" s="2119" t="str"/>
+      <c r="W47" s="2120" t="str"/>
+      <c r="X47" s="2121" t="str"/>
+      <c r="Y47" s="2122" t="str"/>
+      <c r="Z47" s="2123" t="str"/>
+      <c r="AA47" s="2124" t="str"/>
+      <c r="AB47" s="2125" t="str"/>
+      <c r="AC47" s="2126" t="str"/>
+      <c r="AD47" s="2127" t="str"/>
+      <c r="AE47" s="2128" t="str"/>
+      <c r="AF47" s="2129" t="str"/>
+      <c r="AG47" s="2130" t="str"/>
+      <c r="AH47" s="2131" t="str"/>
+      <c r="AI47" s="2132" t="str"/>
+      <c r="AJ47" s="2133" t="str"/>
+      <c r="AK47" s="2134" t="str"/>
+      <c r="AL47" s="2135" t="str"/>
+      <c r="AM47" s="2136" t="str"/>
+      <c r="AN47" s="2137" t="str"/>
+      <c r="AO47" s="2138" t="str"/>
+      <c r="AP47" s="2139" t="str"/>
+      <c r="AQ47" s="2140" t="str"/>
+      <c r="AR47" s="2141" t="str"/>
+      <c r="AS47" s="2142" t="str"/>
+      <c r="AT47" s="2143" t="str"/>
+      <c r="AU47" s="2144" t="str"/>
+      <c r="AV47" s="2145" t="str"/>
+      <c r="AW47" s="2146" t="str"/>
+      <c r="AX47" s="2147" t="str"/>
+      <c r="AY47" s="2148" t="str"/>
+      <c r="AZ47" s="2149" t="str"/>
+      <c r="BA47" s="2150" t="str"/>
+      <c r="BB47" s="2151" t="str"/>
+      <c r="BC47" s="2152" t="str"/>
+      <c r="BD47" s="2153" t="str"/>
+      <c r="BE47" s="2154" t="str"/>
+      <c r="BF47" s="2155" t="str"/>
+      <c r="BG47" s="2156" t="str"/>
+      <c r="BH47" s="2157" t="str"/>
+      <c r="BI47" s="2158" t="str"/>
+      <c r="BJ47" s="2159" t="str"/>
+      <c r="BK47" s="2160" t="str"/>
+      <c r="BL47" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_42_m_45_et._2929735981</v>
       </c>
-      <c r="C47" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D47" s="2113" t="str"/>
-      <c r="E47" s="2114" t="str"/>
-      <c r="F47" s="2115" t="str"/>
-      <c r="G47" s="2116" t="str"/>
-      <c r="H47" s="2117" t="str"/>
-      <c r="I47" s="2118" t="str"/>
-      <c r="J47" s="2119" t="str"/>
-      <c r="K47" s="2120" t="str"/>
-      <c r="L47" s="2121" t="str"/>
-      <c r="M47" s="2122" t="str"/>
-      <c r="N47" s="2123" t="str"/>
-      <c r="O47" s="2124" t="str"/>
-      <c r="P47" s="2125" t="str"/>
-      <c r="Q47" s="2126" t="str"/>
-      <c r="R47" s="2127" t="str"/>
-      <c r="S47" s="2128" t="str"/>
-      <c r="T47" s="2129" t="str"/>
-      <c r="U47" s="2130" t="str"/>
-      <c r="V47" s="2131" t="str"/>
-      <c r="W47" s="2132" t="str"/>
-      <c r="X47" s="2133" t="str"/>
-      <c r="Y47" s="2134" t="str"/>
-      <c r="Z47" s="2135" t="str"/>
-      <c r="AA47" s="2136" t="str"/>
-      <c r="AB47" s="2137" t="str"/>
-      <c r="AC47" s="2138" t="str"/>
-      <c r="AD47" s="2139" t="str"/>
-      <c r="AE47" s="2140" t="str"/>
-      <c r="AF47" s="2141" t="str"/>
-      <c r="AG47" s="2142" t="str"/>
-      <c r="AH47" s="2143" t="str"/>
-      <c r="AI47" s="2144" t="str"/>
-      <c r="AJ47" s="2145" t="str"/>
-      <c r="AK47" s="2146" t="str"/>
-      <c r="AL47" s="2147" t="str"/>
-      <c r="AM47" s="2148" t="str"/>
-      <c r="AN47" s="2149" t="str"/>
-      <c r="AO47" s="2150" t="str"/>
-      <c r="AP47" s="2151" t="str"/>
-      <c r="AQ47" s="2152" t="str"/>
-      <c r="AR47" s="2153" t="str"/>
-      <c r="AS47" s="2154" t="str"/>
-      <c r="AT47" s="2155" t="str"/>
-      <c r="AU47" s="2156" t="str"/>
-      <c r="AV47" s="2157" t="str"/>
-      <c r="AW47" s="2158" t="str"/>
-      <c r="AX47" s="2159" t="str"/>
-      <c r="AY47" s="2160" t="str"/>
-      <c r="AZ47" s="2161" t="str"/>
-      <c r="BA47" s="2162" t="str"/>
-      <c r="BB47" s="2163" t="str"/>
-      <c r="BC47" s="2164" t="str"/>
-      <c r="BD47" s="2165" t="str"/>
-      <c r="BE47" s="2166" t="str"/>
-      <c r="BF47" s="2167" t="str"/>
-      <c r="BG47" s="2168" t="str"/>
-      <c r="BH47" s="2169" t="str"/>
-      <c r="BI47" s="2170" t="str"/>
-      <c r="BJ47" s="2171" t="str"/>
-      <c r="BK47" s="2172" t="str"/>
-      <c r="BL47" s="2173" t="str"/>
-      <c r="BM47" s="2174" t="str"/>
     </row>
     <row r="48">
       <c r="A48" t="str">
         <v>2-к. квартира, 45,3 м², 3/5 эт.</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48" s="2161" t="str"/>
+      <c r="C48" s="2162" t="str"/>
+      <c r="D48" s="2163" t="str"/>
+      <c r="E48" s="2164" t="str"/>
+      <c r="F48" s="2165" t="str"/>
+      <c r="G48" s="2166" t="str"/>
+      <c r="H48" s="2167" t="str"/>
+      <c r="I48" s="2168" t="str"/>
+      <c r="J48" s="2169" t="str"/>
+      <c r="K48" s="2170" t="str"/>
+      <c r="L48" s="2171" t="str"/>
+      <c r="M48" s="2172" t="str"/>
+      <c r="N48" s="2173" t="str"/>
+      <c r="O48" s="2174" t="str"/>
+      <c r="P48" s="2175" t="str"/>
+      <c r="Q48" s="2176" t="str"/>
+      <c r="R48" s="2177" t="str"/>
+      <c r="S48" s="2178" t="str"/>
+      <c r="T48" s="2179" t="str"/>
+      <c r="U48" s="2180" t="str"/>
+      <c r="V48" s="2181" t="str"/>
+      <c r="W48" s="2182" t="str"/>
+      <c r="X48" s="2183" t="str"/>
+      <c r="Y48" s="2184" t="str"/>
+      <c r="Z48" s="2185" t="str"/>
+      <c r="AA48" s="2186" t="str"/>
+      <c r="AB48" s="2187" t="str"/>
+      <c r="AC48" s="2188" t="str"/>
+      <c r="AD48" s="2189" t="str"/>
+      <c r="AE48" s="2190" t="str"/>
+      <c r="AF48" s="2191" t="str"/>
+      <c r="AG48" s="2192" t="str"/>
+      <c r="AH48" s="2193" t="str"/>
+      <c r="AI48" s="2194" t="str"/>
+      <c r="AJ48" s="2195" t="str"/>
+      <c r="AK48" s="2196" t="str"/>
+      <c r="AL48" s="2197" t="str"/>
+      <c r="AM48" s="2198" t="str"/>
+      <c r="AN48" s="2199" t="str"/>
+      <c r="AO48" s="2200" t="str"/>
+      <c r="AP48" s="2201" t="str"/>
+      <c r="AQ48" s="2202" t="str"/>
+      <c r="AR48" s="2203" t="str"/>
+      <c r="AS48" s="2204" t="str"/>
+      <c r="AT48" s="2205" t="str"/>
+      <c r="AU48" s="2206" t="str"/>
+      <c r="AV48" s="2207" t="str"/>
+      <c r="AW48" s="2208" t="str"/>
+      <c r="AX48" s="2209" t="str"/>
+      <c r="AY48" s="2210" t="str"/>
+      <c r="AZ48" s="2211" t="str"/>
+      <c r="BA48" s="2212" t="str"/>
+      <c r="BB48" s="2213" t="str"/>
+      <c r="BC48" s="2214" t="str"/>
+      <c r="BD48" s="2215" t="str"/>
+      <c r="BE48" s="2216" t="str"/>
+      <c r="BF48" s="2217" t="str"/>
+      <c r="BG48" s="2218" t="str"/>
+      <c r="BH48" s="2219" t="str"/>
+      <c r="BI48" s="2220" t="str"/>
+      <c r="BJ48" t="str">
+        <v>2900</v>
+      </c>
+      <c r="BK48" s="2221" t="str"/>
+      <c r="BL48" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_453_m_35_et._2695588128</v>
       </c>
-      <c r="C48" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D48" s="2175" t="str"/>
-      <c r="E48" s="2176" t="str"/>
-      <c r="F48" s="2177" t="str"/>
-      <c r="G48" s="2178" t="str"/>
-      <c r="H48" s="2179" t="str"/>
-      <c r="I48" s="2180" t="str"/>
-      <c r="J48" s="2181" t="str"/>
-      <c r="K48" s="2182" t="str"/>
-      <c r="L48" s="2183" t="str"/>
-      <c r="M48" s="2184" t="str"/>
-      <c r="N48" s="2185" t="str"/>
-      <c r="O48" s="2186" t="str"/>
-      <c r="P48" s="2187" t="str"/>
-      <c r="Q48" s="2188" t="str"/>
-      <c r="R48" s="2189" t="str"/>
-      <c r="S48" s="2190" t="str"/>
-      <c r="T48" s="2191" t="str"/>
-      <c r="U48" s="2192" t="str"/>
-      <c r="V48" s="2193" t="str"/>
-      <c r="W48" s="2194" t="str"/>
-      <c r="X48" s="2195" t="str"/>
-      <c r="Y48" s="2196" t="str"/>
-      <c r="Z48" s="2197" t="str"/>
-      <c r="AA48" s="2198" t="str"/>
-      <c r="AB48" s="2199" t="str"/>
-      <c r="AC48" s="2200" t="str"/>
-      <c r="AD48" s="2201" t="str"/>
-      <c r="AE48" s="2202" t="str"/>
-      <c r="AF48" s="2203" t="str"/>
-      <c r="AG48" s="2204" t="str"/>
-      <c r="AH48" s="2205" t="str"/>
-      <c r="AI48" s="2206" t="str"/>
-      <c r="AJ48" s="2207" t="str"/>
-      <c r="AK48" s="2208" t="str"/>
-      <c r="AL48" s="2209" t="str"/>
-      <c r="AM48" s="2210" t="str"/>
-      <c r="AN48" s="2211" t="str"/>
-      <c r="AO48" s="2212" t="str"/>
-      <c r="AP48" s="2213" t="str"/>
-      <c r="AQ48" s="2214" t="str"/>
-      <c r="AR48" s="2215" t="str"/>
-      <c r="AS48" s="2216" t="str"/>
-      <c r="AT48" s="2217" t="str"/>
-      <c r="AU48" s="2218" t="str"/>
-      <c r="AV48" s="2219" t="str"/>
-      <c r="AW48" s="2220" t="str"/>
-      <c r="AX48" s="2221" t="str"/>
-      <c r="AY48" s="2222" t="str"/>
-      <c r="AZ48" s="2223" t="str"/>
-      <c r="BA48" s="2224" t="str"/>
-      <c r="BB48" s="2225" t="str"/>
-      <c r="BC48" s="2226" t="str"/>
-      <c r="BD48" s="2227" t="str"/>
-      <c r="BE48" s="2228" t="str"/>
-      <c r="BF48" s="2229" t="str"/>
-      <c r="BG48" s="2230" t="str"/>
-      <c r="BH48" s="2231" t="str"/>
-      <c r="BI48" s="2232" t="str"/>
-      <c r="BJ48" s="2233" t="str"/>
-      <c r="BK48" s="2234" t="str"/>
-      <c r="BL48" t="str">
-        <v>2900</v>
-      </c>
-      <c r="BM48" s="2235" t="str"/>
     </row>
     <row r="49">
       <c r="A49" t="str">
         <v>2-к. квартира, 50 м², 4/5 эт.</v>
       </c>
-      <c r="B49" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_50_m_45_et._2062303504</v>
-      </c>
-      <c r="C49" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D49" s="2236" t="str"/>
-      <c r="E49" s="2237" t="str"/>
-      <c r="F49" s="2238" t="str"/>
-      <c r="G49" s="2239" t="str"/>
-      <c r="H49" s="2240" t="str"/>
-      <c r="I49" s="2241" t="str"/>
-      <c r="J49" s="2242" t="str"/>
-      <c r="K49" s="2243" t="str"/>
-      <c r="L49" s="2244" t="str"/>
-      <c r="M49" s="2245" t="str"/>
-      <c r="N49" s="2246" t="str"/>
-      <c r="O49" s="2247" t="str"/>
-      <c r="P49" s="2248" t="str"/>
-      <c r="Q49" s="2249" t="str"/>
-      <c r="R49" s="2250" t="str"/>
-      <c r="S49" s="2251" t="str"/>
-      <c r="T49" s="2252" t="str"/>
-      <c r="U49" s="2253" t="str"/>
-      <c r="V49" s="2254" t="str"/>
-      <c r="W49" s="2255" t="str"/>
-      <c r="X49" s="2256" t="str"/>
-      <c r="Y49" s="2257" t="str"/>
-      <c r="Z49" s="2258" t="str"/>
-      <c r="AA49" s="2259" t="str"/>
-      <c r="AB49" s="2260" t="str"/>
-      <c r="AC49" s="2261" t="str"/>
-      <c r="AD49" s="2262" t="str"/>
-      <c r="AE49" s="2263" t="str"/>
-      <c r="AF49" s="2264" t="str"/>
-      <c r="AG49" s="2265" t="str"/>
-      <c r="AH49" s="2266" t="str"/>
-      <c r="AI49" s="2267" t="str"/>
-      <c r="AJ49" s="2268" t="str"/>
-      <c r="AK49" s="2269" t="str"/>
-      <c r="AL49" s="2270" t="str"/>
-      <c r="AM49" s="2271" t="str"/>
-      <c r="AN49" s="2272" t="str"/>
-      <c r="AO49" s="2273" t="str"/>
-      <c r="AP49" s="2274" t="str"/>
-      <c r="AQ49" s="2275" t="str"/>
-      <c r="AR49" s="2276" t="str"/>
-      <c r="AS49" s="2277" t="str"/>
-      <c r="AT49" s="2278" t="str"/>
+      <c r="B49" s="2222" t="str"/>
+      <c r="C49" s="2223" t="str"/>
+      <c r="D49" s="2224" t="str"/>
+      <c r="E49" s="2225" t="str"/>
+      <c r="F49" s="2226" t="str"/>
+      <c r="G49" s="2227" t="str"/>
+      <c r="H49" s="2228" t="str"/>
+      <c r="I49" s="2229" t="str"/>
+      <c r="J49" s="2230" t="str"/>
+      <c r="K49" s="2231" t="str"/>
+      <c r="L49" s="2232" t="str"/>
+      <c r="M49" s="2233" t="str"/>
+      <c r="N49" s="2234" t="str"/>
+      <c r="O49" s="2235" t="str"/>
+      <c r="P49" s="2236" t="str"/>
+      <c r="Q49" s="2237" t="str"/>
+      <c r="R49" s="2238" t="str"/>
+      <c r="S49" s="2239" t="str"/>
+      <c r="T49" s="2240" t="str"/>
+      <c r="U49" s="2241" t="str"/>
+      <c r="V49" s="2242" t="str"/>
+      <c r="W49" s="2243" t="str"/>
+      <c r="X49" s="2244" t="str"/>
+      <c r="Y49" s="2245" t="str"/>
+      <c r="Z49" s="2246" t="str"/>
+      <c r="AA49" s="2247" t="str"/>
+      <c r="AB49" s="2248" t="str"/>
+      <c r="AC49" s="2249" t="str"/>
+      <c r="AD49" s="2250" t="str"/>
+      <c r="AE49" s="2251" t="str"/>
+      <c r="AF49" s="2252" t="str"/>
+      <c r="AG49" s="2253" t="str"/>
+      <c r="AH49" s="2254" t="str"/>
+      <c r="AI49" s="2255" t="str"/>
+      <c r="AJ49" s="2256" t="str"/>
+      <c r="AK49" s="2257" t="str"/>
+      <c r="AL49" s="2258" t="str"/>
+      <c r="AM49" s="2259" t="str"/>
+      <c r="AN49" s="2260" t="str"/>
+      <c r="AO49" s="2261" t="str"/>
+      <c r="AP49" s="2262" t="str"/>
+      <c r="AQ49" s="2263" t="str"/>
+      <c r="AR49" s="2264" t="str"/>
+      <c r="AS49" t="str">
+        <v>4200</v>
+      </c>
+      <c r="AT49" t="str">
+        <v>4200</v>
+      </c>
       <c r="AU49" t="str">
         <v>4200</v>
       </c>
@@ -50172,131 +49836,125 @@
       <c r="BJ49" t="str">
         <v>4200</v>
       </c>
-      <c r="BK49" t="str">
-        <v>4200</v>
-      </c>
+      <c r="BK49" s="2265" t="str"/>
       <c r="BL49" t="str">
-        <v>4200</v>
-      </c>
-      <c r="BM49" s="2279" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_50_m_45_et._2062303504</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
         <v>2-к. квартира, 47 м², 2/5 эт.</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50" s="2266" t="str"/>
+      <c r="C50" s="2267" t="str"/>
+      <c r="D50" s="2268" t="str"/>
+      <c r="E50" s="2269" t="str"/>
+      <c r="F50" s="2270" t="str"/>
+      <c r="G50" s="2271" t="str"/>
+      <c r="H50" s="2272" t="str"/>
+      <c r="I50" s="2273" t="str"/>
+      <c r="J50" s="2274" t="str"/>
+      <c r="K50" s="2275" t="str"/>
+      <c r="L50" s="2276" t="str"/>
+      <c r="M50" s="2277" t="str"/>
+      <c r="N50" s="2278" t="str"/>
+      <c r="O50" s="2279" t="str"/>
+      <c r="P50" s="2280" t="str"/>
+      <c r="Q50" s="2281" t="str"/>
+      <c r="R50" s="2282" t="str"/>
+      <c r="S50" s="2283" t="str"/>
+      <c r="T50" s="2284" t="str"/>
+      <c r="U50" s="2285" t="str"/>
+      <c r="V50" s="2286" t="str"/>
+      <c r="W50" s="2287" t="str"/>
+      <c r="X50" s="2288" t="str"/>
+      <c r="Y50" s="2289" t="str"/>
+      <c r="Z50" s="2290" t="str"/>
+      <c r="AA50" s="2291" t="str"/>
+      <c r="AB50" s="2292" t="str"/>
+      <c r="AC50" s="2293" t="str"/>
+      <c r="AD50" s="2294" t="str"/>
+      <c r="AE50" s="2295" t="str"/>
+      <c r="AF50" s="2296" t="str"/>
+      <c r="AG50" s="2297" t="str"/>
+      <c r="AH50" s="2298" t="str"/>
+      <c r="AI50" s="2299" t="str"/>
+      <c r="AJ50" s="2300" t="str"/>
+      <c r="AK50" s="2301" t="str"/>
+      <c r="AL50" s="2302" t="str"/>
+      <c r="AM50" s="2303" t="str"/>
+      <c r="AN50" s="2304" t="str"/>
+      <c r="AO50" s="2305" t="str"/>
+      <c r="AP50" s="2306" t="str"/>
+      <c r="AQ50" s="2307" t="str"/>
+      <c r="AR50" s="2308" t="str"/>
+      <c r="AS50" s="2309" t="str"/>
+      <c r="AT50" s="2310" t="str"/>
+      <c r="AU50" s="2311" t="str"/>
+      <c r="AV50" s="2312" t="str"/>
+      <c r="AW50" s="2313" t="str"/>
+      <c r="AX50" s="2314" t="str"/>
+      <c r="AY50" s="2315" t="str"/>
+      <c r="AZ50" s="2316" t="str"/>
+      <c r="BA50" s="2317" t="str"/>
+      <c r="BB50" s="2318" t="str"/>
+      <c r="BC50" s="2319" t="str"/>
+      <c r="BD50" s="2320" t="str"/>
+      <c r="BE50" s="2321" t="str"/>
+      <c r="BF50" s="2322" t="str"/>
+      <c r="BG50" s="2323" t="str"/>
+      <c r="BH50" s="2324" t="str"/>
+      <c r="BI50" s="2325" t="str"/>
+      <c r="BJ50" s="2326" t="str"/>
+      <c r="BK50" s="2327" t="str"/>
+      <c r="BL50" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_47_m_25_et._2614073061</v>
       </c>
-      <c r="C50" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D50" s="2280" t="str"/>
-      <c r="E50" s="2281" t="str"/>
-      <c r="F50" s="2282" t="str"/>
-      <c r="G50" s="2283" t="str"/>
-      <c r="H50" s="2284" t="str"/>
-      <c r="I50" s="2285" t="str"/>
-      <c r="J50" s="2286" t="str"/>
-      <c r="K50" s="2287" t="str"/>
-      <c r="L50" s="2288" t="str"/>
-      <c r="M50" s="2289" t="str"/>
-      <c r="N50" s="2290" t="str"/>
-      <c r="O50" s="2291" t="str"/>
-      <c r="P50" s="2292" t="str"/>
-      <c r="Q50" s="2293" t="str"/>
-      <c r="R50" s="2294" t="str"/>
-      <c r="S50" s="2295" t="str"/>
-      <c r="T50" s="2296" t="str"/>
-      <c r="U50" s="2297" t="str"/>
-      <c r="V50" s="2298" t="str"/>
-      <c r="W50" s="2299" t="str"/>
-      <c r="X50" s="2300" t="str"/>
-      <c r="Y50" s="2301" t="str"/>
-      <c r="Z50" s="2302" t="str"/>
-      <c r="AA50" s="2303" t="str"/>
-      <c r="AB50" s="2304" t="str"/>
-      <c r="AC50" s="2305" t="str"/>
-      <c r="AD50" s="2306" t="str"/>
-      <c r="AE50" s="2307" t="str"/>
-      <c r="AF50" s="2308" t="str"/>
-      <c r="AG50" s="2309" t="str"/>
-      <c r="AH50" s="2310" t="str"/>
-      <c r="AI50" s="2311" t="str"/>
-      <c r="AJ50" s="2312" t="str"/>
-      <c r="AK50" s="2313" t="str"/>
-      <c r="AL50" s="2314" t="str"/>
-      <c r="AM50" s="2315" t="str"/>
-      <c r="AN50" s="2316" t="str"/>
-      <c r="AO50" s="2317" t="str"/>
-      <c r="AP50" s="2318" t="str"/>
-      <c r="AQ50" s="2319" t="str"/>
-      <c r="AR50" s="2320" t="str"/>
-      <c r="AS50" s="2321" t="str"/>
-      <c r="AT50" s="2322" t="str"/>
-      <c r="AU50" s="2323" t="str"/>
-      <c r="AV50" s="2324" t="str"/>
-      <c r="AW50" s="2325" t="str"/>
-      <c r="AX50" s="2326" t="str"/>
-      <c r="AY50" s="2327" t="str"/>
-      <c r="AZ50" s="2328" t="str"/>
-      <c r="BA50" s="2329" t="str"/>
-      <c r="BB50" s="2330" t="str"/>
-      <c r="BC50" s="2331" t="str"/>
-      <c r="BD50" s="2332" t="str"/>
-      <c r="BE50" s="2333" t="str"/>
-      <c r="BF50" s="2334" t="str"/>
-      <c r="BG50" s="2335" t="str"/>
-      <c r="BH50" s="2336" t="str"/>
-      <c r="BI50" s="2337" t="str"/>
-      <c r="BJ50" s="2338" t="str"/>
-      <c r="BK50" s="2339" t="str"/>
-      <c r="BL50" s="2340" t="str"/>
-      <c r="BM50" s="2341" t="str"/>
     </row>
     <row r="51">
       <c r="A51" t="str">
         <v>2-к. квартира, 55 м², 2/3 эт.</v>
       </c>
-      <c r="B51" t="str">
-        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_55_m_23_et._3726119763</v>
-      </c>
-      <c r="C51" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D51" s="2342" t="str"/>
-      <c r="E51" s="2343" t="str"/>
-      <c r="F51" s="2344" t="str"/>
-      <c r="G51" s="2345" t="str"/>
-      <c r="H51" s="2346" t="str"/>
-      <c r="I51" s="2347" t="str"/>
-      <c r="J51" s="2348" t="str"/>
-      <c r="K51" s="2349" t="str"/>
-      <c r="L51" s="2350" t="str"/>
-      <c r="M51" s="2351" t="str"/>
-      <c r="N51" s="2352" t="str"/>
-      <c r="O51" s="2353" t="str"/>
-      <c r="P51" s="2354" t="str"/>
-      <c r="Q51" s="2355" t="str"/>
-      <c r="R51" s="2356" t="str"/>
-      <c r="S51" s="2357" t="str"/>
-      <c r="T51" s="2358" t="str"/>
-      <c r="U51" s="2359" t="str"/>
-      <c r="V51" s="2360" t="str"/>
-      <c r="W51" s="2361" t="str"/>
-      <c r="X51" s="2362" t="str"/>
-      <c r="Y51" s="2363" t="str"/>
-      <c r="Z51" s="2364" t="str"/>
-      <c r="AA51" s="2365" t="str"/>
-      <c r="AB51" s="2366" t="str"/>
-      <c r="AC51" s="2367" t="str"/>
-      <c r="AD51" s="2368" t="str"/>
-      <c r="AE51" s="2369" t="str"/>
-      <c r="AF51" s="2370" t="str"/>
-      <c r="AG51" s="2371" t="str"/>
-      <c r="AH51" s="2372" t="str"/>
-      <c r="AI51" s="2373" t="str"/>
-      <c r="AJ51" s="2374" t="str"/>
-      <c r="AK51" s="2375" t="str"/>
+      <c r="B51" s="2328" t="str"/>
+      <c r="C51" s="2329" t="str"/>
+      <c r="D51" s="2330" t="str"/>
+      <c r="E51" s="2331" t="str"/>
+      <c r="F51" s="2332" t="str"/>
+      <c r="G51" s="2333" t="str"/>
+      <c r="H51" s="2334" t="str"/>
+      <c r="I51" s="2335" t="str"/>
+      <c r="J51" s="2336" t="str"/>
+      <c r="K51" s="2337" t="str"/>
+      <c r="L51" s="2338" t="str"/>
+      <c r="M51" s="2339" t="str"/>
+      <c r="N51" s="2340" t="str"/>
+      <c r="O51" s="2341" t="str"/>
+      <c r="P51" s="2342" t="str"/>
+      <c r="Q51" s="2343" t="str"/>
+      <c r="R51" s="2344" t="str"/>
+      <c r="S51" s="2345" t="str"/>
+      <c r="T51" s="2346" t="str"/>
+      <c r="U51" s="2347" t="str"/>
+      <c r="V51" s="2348" t="str"/>
+      <c r="W51" s="2349" t="str"/>
+      <c r="X51" s="2350" t="str"/>
+      <c r="Y51" s="2351" t="str"/>
+      <c r="Z51" s="2352" t="str"/>
+      <c r="AA51" s="2353" t="str"/>
+      <c r="AB51" s="2354" t="str"/>
+      <c r="AC51" s="2355" t="str"/>
+      <c r="AD51" s="2356" t="str"/>
+      <c r="AE51" s="2357" t="str"/>
+      <c r="AF51" s="2358" t="str"/>
+      <c r="AG51" s="2359" t="str"/>
+      <c r="AH51" s="2360" t="str"/>
+      <c r="AI51" s="2361" t="str"/>
+      <c r="AJ51" t="str">
+        <v>4500</v>
+      </c>
+      <c r="AK51" t="str">
+        <v>4500</v>
+      </c>
       <c r="AL51" t="str">
         <v>4500</v>
       </c>
@@ -50372,531 +50030,508 @@
       <c r="BJ51" t="str">
         <v>4500</v>
       </c>
-      <c r="BK51" t="str">
-        <v>4500</v>
-      </c>
+      <c r="BK51" s="2362" t="str"/>
       <c r="BL51" t="str">
-        <v>4500</v>
-      </c>
-      <c r="BM51" s="2376" t="str"/>
+        <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_55_m_23_et._3726119763</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
         <v>2-к. квартира, 44 м², 5/5 эт.</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52" s="2363" t="str"/>
+      <c r="C52" s="2364" t="str"/>
+      <c r="D52" s="2365" t="str"/>
+      <c r="E52" s="2366" t="str"/>
+      <c r="F52" s="2367" t="str"/>
+      <c r="G52" s="2368" t="str"/>
+      <c r="H52" s="2369" t="str"/>
+      <c r="I52" s="2370" t="str"/>
+      <c r="J52" s="2371" t="str"/>
+      <c r="K52" s="2372" t="str"/>
+      <c r="L52" s="2373" t="str"/>
+      <c r="M52" s="2374" t="str"/>
+      <c r="N52" s="2375" t="str"/>
+      <c r="O52" s="2376" t="str"/>
+      <c r="P52" s="2377" t="str"/>
+      <c r="Q52" s="2378" t="str"/>
+      <c r="R52" s="2379" t="str"/>
+      <c r="S52" s="2380" t="str"/>
+      <c r="T52" s="2381" t="str"/>
+      <c r="U52" s="2382" t="str"/>
+      <c r="V52" s="2383" t="str"/>
+      <c r="W52" s="2384" t="str"/>
+      <c r="X52" s="2385" t="str"/>
+      <c r="Y52" s="2386" t="str"/>
+      <c r="Z52" s="2387" t="str"/>
+      <c r="AA52" s="2388" t="str"/>
+      <c r="AB52" s="2389" t="str"/>
+      <c r="AC52" s="2390" t="str"/>
+      <c r="AD52" s="2391" t="str"/>
+      <c r="AE52" s="2392" t="str"/>
+      <c r="AF52" s="2393" t="str"/>
+      <c r="AG52" s="2394" t="str"/>
+      <c r="AH52" s="2395" t="str"/>
+      <c r="AI52" s="2396" t="str"/>
+      <c r="AJ52" s="2397" t="str"/>
+      <c r="AK52" s="2398" t="str"/>
+      <c r="AL52" s="2399" t="str"/>
+      <c r="AM52" s="2400" t="str"/>
+      <c r="AN52" s="2401" t="str"/>
+      <c r="AO52" s="2402" t="str"/>
+      <c r="AP52" s="2403" t="str"/>
+      <c r="AQ52" s="2404" t="str"/>
+      <c r="AR52" s="2405" t="str"/>
+      <c r="AS52" s="2406" t="str"/>
+      <c r="AT52" s="2407" t="str"/>
+      <c r="AU52" s="2408" t="str"/>
+      <c r="AV52" s="2409" t="str"/>
+      <c r="AW52" s="2410" t="str"/>
+      <c r="AX52" s="2411" t="str"/>
+      <c r="AY52" s="2412" t="str"/>
+      <c r="AZ52" s="2413" t="str"/>
+      <c r="BA52" s="2414" t="str"/>
+      <c r="BB52" s="2415" t="str"/>
+      <c r="BC52" s="2416" t="str"/>
+      <c r="BD52" s="2417" t="str"/>
+      <c r="BE52" s="2418" t="str"/>
+      <c r="BF52" s="2419" t="str"/>
+      <c r="BG52" s="2420" t="str"/>
+      <c r="BH52" s="2421" t="str"/>
+      <c r="BI52" s="2422" t="str"/>
+      <c r="BJ52" s="2423" t="str"/>
+      <c r="BK52" s="2424" t="str"/>
+      <c r="BL52" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/2-k._kvartira_44_m_55_et._3985770291</v>
       </c>
-      <c r="C52" t="str">
-        <v>2-комнатные</v>
-      </c>
-      <c r="D52" s="2377" t="str"/>
-      <c r="E52" s="2378" t="str"/>
-      <c r="F52" s="2379" t="str"/>
-      <c r="G52" s="2380" t="str"/>
-      <c r="H52" s="2381" t="str"/>
-      <c r="I52" s="2382" t="str"/>
-      <c r="J52" s="2383" t="str"/>
-      <c r="K52" s="2384" t="str"/>
-      <c r="L52" s="2385" t="str"/>
-      <c r="M52" s="2386" t="str"/>
-      <c r="N52" s="2387" t="str"/>
-      <c r="O52" s="2388" t="str"/>
-      <c r="P52" s="2389" t="str"/>
-      <c r="Q52" s="2390" t="str"/>
-      <c r="R52" s="2391" t="str"/>
-      <c r="S52" s="2392" t="str"/>
-      <c r="T52" s="2393" t="str"/>
-      <c r="U52" s="2394" t="str"/>
-      <c r="V52" s="2395" t="str"/>
-      <c r="W52" s="2396" t="str"/>
-      <c r="X52" s="2397" t="str"/>
-      <c r="Y52" s="2398" t="str"/>
-      <c r="Z52" s="2399" t="str"/>
-      <c r="AA52" s="2400" t="str"/>
-      <c r="AB52" s="2401" t="str"/>
-      <c r="AC52" s="2402" t="str"/>
-      <c r="AD52" s="2403" t="str"/>
-      <c r="AE52" s="2404" t="str"/>
-      <c r="AF52" s="2405" t="str"/>
-      <c r="AG52" s="2406" t="str"/>
-      <c r="AH52" s="2407" t="str"/>
-      <c r="AI52" s="2408" t="str"/>
-      <c r="AJ52" s="2409" t="str"/>
-      <c r="AK52" s="2410" t="str"/>
-      <c r="AL52" s="2411" t="str"/>
-      <c r="AM52" s="2412" t="str"/>
-      <c r="AN52" s="2413" t="str"/>
-      <c r="AO52" s="2414" t="str"/>
-      <c r="AP52" s="2415" t="str"/>
-      <c r="AQ52" s="2416" t="str"/>
-      <c r="AR52" s="2417" t="str"/>
-      <c r="AS52" s="2418" t="str"/>
-      <c r="AT52" s="2419" t="str"/>
-      <c r="AU52" s="2420" t="str"/>
-      <c r="AV52" s="2421" t="str"/>
-      <c r="AW52" s="2422" t="str"/>
-      <c r="AX52" s="2423" t="str"/>
-      <c r="AY52" s="2424" t="str"/>
-      <c r="AZ52" s="2425" t="str"/>
-      <c r="BA52" s="2426" t="str"/>
-      <c r="BB52" s="2427" t="str"/>
-      <c r="BC52" s="2428" t="str"/>
-      <c r="BD52" s="2429" t="str"/>
-      <c r="BE52" s="2430" t="str"/>
-      <c r="BF52" s="2431" t="str"/>
-      <c r="BG52" s="2432" t="str"/>
-      <c r="BH52" s="2433" t="str"/>
-      <c r="BI52" s="2434" t="str"/>
-      <c r="BJ52" s="2435" t="str"/>
-      <c r="BK52" s="2436" t="str"/>
-      <c r="BL52" s="2437" t="str"/>
-      <c r="BM52" s="2438" t="str"/>
     </row>
     <row r="53">
       <c r="A53" t="str">
         <v>3-к. квартира, 50,4 м², 1/5 эт.</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53" s="2425" t="str"/>
+      <c r="C53" s="2426" t="str"/>
+      <c r="D53" s="2427" t="str"/>
+      <c r="E53" s="2428" t="str"/>
+      <c r="F53" s="2429" t="str"/>
+      <c r="G53" s="2430" t="str"/>
+      <c r="H53" s="2431" t="str"/>
+      <c r="I53" s="2432" t="str"/>
+      <c r="J53" s="2433" t="str"/>
+      <c r="K53" s="2434" t="str"/>
+      <c r="L53" s="2435" t="str"/>
+      <c r="M53" s="2436" t="str"/>
+      <c r="N53" s="2437" t="str"/>
+      <c r="O53" s="2438" t="str"/>
+      <c r="P53" s="2439" t="str"/>
+      <c r="Q53" s="2440" t="str"/>
+      <c r="R53" s="2441" t="str"/>
+      <c r="S53" s="2442" t="str"/>
+      <c r="T53" s="2443" t="str"/>
+      <c r="U53" s="2444" t="str"/>
+      <c r="V53" s="2445" t="str"/>
+      <c r="W53" s="2446" t="str"/>
+      <c r="X53" s="2447" t="str"/>
+      <c r="Y53" s="2448" t="str"/>
+      <c r="Z53" s="2449" t="str"/>
+      <c r="AA53" s="2450" t="str"/>
+      <c r="AB53" s="2451" t="str"/>
+      <c r="AC53" s="2452" t="str"/>
+      <c r="AD53" s="2453" t="str"/>
+      <c r="AE53" s="2454" t="str"/>
+      <c r="AF53" s="2455" t="str"/>
+      <c r="AG53" s="2456" t="str"/>
+      <c r="AH53" s="2457" t="str"/>
+      <c r="AI53" s="2458" t="str"/>
+      <c r="AJ53" s="2459" t="str"/>
+      <c r="AK53" s="2460" t="str"/>
+      <c r="AL53" s="2461" t="str"/>
+      <c r="AM53" s="2462" t="str"/>
+      <c r="AN53" s="2463" t="str"/>
+      <c r="AO53" s="2464" t="str"/>
+      <c r="AP53" s="2465" t="str"/>
+      <c r="AQ53" s="2466" t="str"/>
+      <c r="AR53" s="2467" t="str"/>
+      <c r="AS53" s="2468" t="str"/>
+      <c r="AT53" s="2469" t="str"/>
+      <c r="AU53" s="2470" t="str"/>
+      <c r="AV53" s="2471" t="str"/>
+      <c r="AW53" s="2472" t="str"/>
+      <c r="AX53" s="2473" t="str"/>
+      <c r="AY53" s="2474" t="str"/>
+      <c r="AZ53" s="2475" t="str"/>
+      <c r="BA53" s="2476" t="str"/>
+      <c r="BB53" s="2477" t="str"/>
+      <c r="BC53" s="2478" t="str"/>
+      <c r="BD53" s="2479" t="str"/>
+      <c r="BE53" s="2480" t="str"/>
+      <c r="BF53" s="2481" t="str"/>
+      <c r="BG53" s="2482" t="str"/>
+      <c r="BH53" s="2483" t="str"/>
+      <c r="BI53" s="2484" t="str"/>
+      <c r="BJ53" s="2485" t="str"/>
+      <c r="BK53" s="2486" t="str"/>
+      <c r="BL53" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/3-k._kvartira_504_m_15_et._2695232029</v>
       </c>
-      <c r="C53" t="str">
-        <v>3-комнатные</v>
-      </c>
-      <c r="D53" s="2439" t="str"/>
-      <c r="E53" s="2440" t="str"/>
-      <c r="F53" s="2441" t="str"/>
-      <c r="G53" s="2442" t="str"/>
-      <c r="H53" s="2443" t="str"/>
-      <c r="I53" s="2444" t="str"/>
-      <c r="J53" s="2445" t="str"/>
-      <c r="K53" s="2446" t="str"/>
-      <c r="L53" s="2447" t="str"/>
-      <c r="M53" s="2448" t="str"/>
-      <c r="N53" s="2449" t="str"/>
-      <c r="O53" s="2450" t="str"/>
-      <c r="P53" s="2451" t="str"/>
-      <c r="Q53" s="2452" t="str"/>
-      <c r="R53" s="2453" t="str"/>
-      <c r="S53" s="2454" t="str"/>
-      <c r="T53" s="2455" t="str"/>
-      <c r="U53" s="2456" t="str"/>
-      <c r="V53" s="2457" t="str"/>
-      <c r="W53" s="2458" t="str"/>
-      <c r="X53" s="2459" t="str"/>
-      <c r="Y53" s="2460" t="str"/>
-      <c r="Z53" s="2461" t="str"/>
-      <c r="AA53" s="2462" t="str"/>
-      <c r="AB53" s="2463" t="str"/>
-      <c r="AC53" s="2464" t="str"/>
-      <c r="AD53" s="2465" t="str"/>
-      <c r="AE53" s="2466" t="str"/>
-      <c r="AF53" s="2467" t="str"/>
-      <c r="AG53" s="2468" t="str"/>
-      <c r="AH53" s="2469" t="str"/>
-      <c r="AI53" s="2470" t="str"/>
-      <c r="AJ53" s="2471" t="str"/>
-      <c r="AK53" s="2472" t="str"/>
-      <c r="AL53" s="2473" t="str"/>
-      <c r="AM53" s="2474" t="str"/>
-      <c r="AN53" s="2475" t="str"/>
-      <c r="AO53" s="2476" t="str"/>
-      <c r="AP53" s="2477" t="str"/>
-      <c r="AQ53" s="2478" t="str"/>
-      <c r="AR53" s="2479" t="str"/>
-      <c r="AS53" s="2480" t="str"/>
-      <c r="AT53" s="2481" t="str"/>
-      <c r="AU53" s="2482" t="str"/>
-      <c r="AV53" s="2483" t="str"/>
-      <c r="AW53" s="2484" t="str"/>
-      <c r="AX53" s="2485" t="str"/>
-      <c r="AY53" s="2486" t="str"/>
-      <c r="AZ53" s="2487" t="str"/>
-      <c r="BA53" s="2488" t="str"/>
-      <c r="BB53" s="2489" t="str"/>
-      <c r="BC53" s="2490" t="str"/>
-      <c r="BD53" s="2491" t="str"/>
-      <c r="BE53" s="2492" t="str"/>
-      <c r="BF53" s="2493" t="str"/>
-      <c r="BG53" s="2494" t="str"/>
-      <c r="BH53" s="2495" t="str"/>
-      <c r="BI53" s="2496" t="str"/>
-      <c r="BJ53" s="2497" t="str"/>
-      <c r="BK53" s="2498" t="str"/>
-      <c r="BL53" s="2499" t="str"/>
-      <c r="BM53" s="2500" t="str"/>
     </row>
     <row r="54">
       <c r="A54" t="str">
         <v>3-к. квартира, 55,4 м², 1/5 эт.</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="2487" t="str"/>
+      <c r="C54" s="2488" t="str"/>
+      <c r="D54" s="2489" t="str"/>
+      <c r="E54" s="2490" t="str"/>
+      <c r="F54" s="2491" t="str"/>
+      <c r="G54" s="2492" t="str"/>
+      <c r="H54" s="2493" t="str"/>
+      <c r="I54" s="2494" t="str"/>
+      <c r="J54" s="2495" t="str"/>
+      <c r="K54" s="2496" t="str"/>
+      <c r="L54" s="2497" t="str"/>
+      <c r="M54" s="2498" t="str"/>
+      <c r="N54" s="2499" t="str"/>
+      <c r="O54" s="2500" t="str"/>
+      <c r="P54" s="2501" t="str"/>
+      <c r="Q54" s="2502" t="str"/>
+      <c r="R54" s="2503" t="str"/>
+      <c r="S54" s="2504" t="str"/>
+      <c r="T54" s="2505" t="str"/>
+      <c r="U54" s="2506" t="str"/>
+      <c r="V54" s="2507" t="str"/>
+      <c r="W54" s="2508" t="str"/>
+      <c r="X54" s="2509" t="str"/>
+      <c r="Y54" s="2510" t="str"/>
+      <c r="Z54" s="2511" t="str"/>
+      <c r="AA54" s="2512" t="str"/>
+      <c r="AB54" s="2513" t="str"/>
+      <c r="AC54" s="2514" t="str"/>
+      <c r="AD54" s="2515" t="str"/>
+      <c r="AE54" s="2516" t="str"/>
+      <c r="AF54" s="2517" t="str"/>
+      <c r="AG54" s="2518" t="str"/>
+      <c r="AH54" s="2519" t="str"/>
+      <c r="AI54" s="2520" t="str"/>
+      <c r="AJ54" s="2521" t="str"/>
+      <c r="AK54" s="2522" t="str"/>
+      <c r="AL54" s="2523" t="str"/>
+      <c r="AM54" s="2524" t="str"/>
+      <c r="AN54" s="2525" t="str"/>
+      <c r="AO54" s="2526" t="str"/>
+      <c r="AP54" s="2527" t="str"/>
+      <c r="AQ54" s="2528" t="str"/>
+      <c r="AR54" s="2529" t="str"/>
+      <c r="AS54" s="2530" t="str"/>
+      <c r="AT54" s="2531" t="str"/>
+      <c r="AU54" s="2532" t="str"/>
+      <c r="AV54" s="2533" t="str"/>
+      <c r="AW54" s="2534" t="str"/>
+      <c r="AX54" s="2535" t="str"/>
+      <c r="AY54" s="2536" t="str"/>
+      <c r="AZ54" s="2537" t="str"/>
+      <c r="BA54" s="2538" t="str"/>
+      <c r="BB54" s="2539" t="str"/>
+      <c r="BC54" s="2540" t="str"/>
+      <c r="BD54" s="2541" t="str"/>
+      <c r="BE54" s="2542" t="str"/>
+      <c r="BF54" s="2543" t="str"/>
+      <c r="BG54" s="2544" t="str"/>
+      <c r="BH54" s="2545" t="str"/>
+      <c r="BI54" s="2546" t="str"/>
+      <c r="BJ54" s="2547" t="str"/>
+      <c r="BK54" s="2548" t="str"/>
+      <c r="BL54" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/3-k._kvartira_554_m_15_et._2939619341</v>
       </c>
-      <c r="C54" t="str">
-        <v>3-комнатные</v>
-      </c>
-      <c r="D54" s="2501" t="str"/>
-      <c r="E54" s="2502" t="str"/>
-      <c r="F54" s="2503" t="str"/>
-      <c r="G54" s="2504" t="str"/>
-      <c r="H54" s="2505" t="str"/>
-      <c r="I54" s="2506" t="str"/>
-      <c r="J54" s="2507" t="str"/>
-      <c r="K54" s="2508" t="str"/>
-      <c r="L54" s="2509" t="str"/>
-      <c r="M54" s="2510" t="str"/>
-      <c r="N54" s="2511" t="str"/>
-      <c r="O54" s="2512" t="str"/>
-      <c r="P54" s="2513" t="str"/>
-      <c r="Q54" s="2514" t="str"/>
-      <c r="R54" s="2515" t="str"/>
-      <c r="S54" s="2516" t="str"/>
-      <c r="T54" s="2517" t="str"/>
-      <c r="U54" s="2518" t="str"/>
-      <c r="V54" s="2519" t="str"/>
-      <c r="W54" s="2520" t="str"/>
-      <c r="X54" s="2521" t="str"/>
-      <c r="Y54" s="2522" t="str"/>
-      <c r="Z54" s="2523" t="str"/>
-      <c r="AA54" s="2524" t="str"/>
-      <c r="AB54" s="2525" t="str"/>
-      <c r="AC54" s="2526" t="str"/>
-      <c r="AD54" s="2527" t="str"/>
-      <c r="AE54" s="2528" t="str"/>
-      <c r="AF54" s="2529" t="str"/>
-      <c r="AG54" s="2530" t="str"/>
-      <c r="AH54" s="2531" t="str"/>
-      <c r="AI54" s="2532" t="str"/>
-      <c r="AJ54" s="2533" t="str"/>
-      <c r="AK54" s="2534" t="str"/>
-      <c r="AL54" s="2535" t="str"/>
-      <c r="AM54" s="2536" t="str"/>
-      <c r="AN54" s="2537" t="str"/>
-      <c r="AO54" s="2538" t="str"/>
-      <c r="AP54" s="2539" t="str"/>
-      <c r="AQ54" s="2540" t="str"/>
-      <c r="AR54" s="2541" t="str"/>
-      <c r="AS54" s="2542" t="str"/>
-      <c r="AT54" s="2543" t="str"/>
-      <c r="AU54" s="2544" t="str"/>
-      <c r="AV54" s="2545" t="str"/>
-      <c r="AW54" s="2546" t="str"/>
-      <c r="AX54" s="2547" t="str"/>
-      <c r="AY54" s="2548" t="str"/>
-      <c r="AZ54" s="2549" t="str"/>
-      <c r="BA54" s="2550" t="str"/>
-      <c r="BB54" s="2551" t="str"/>
-      <c r="BC54" s="2552" t="str"/>
-      <c r="BD54" s="2553" t="str"/>
-      <c r="BE54" s="2554" t="str"/>
-      <c r="BF54" s="2555" t="str"/>
-      <c r="BG54" s="2556" t="str"/>
-      <c r="BH54" s="2557" t="str"/>
-      <c r="BI54" s="2558" t="str"/>
-      <c r="BJ54" s="2559" t="str"/>
-      <c r="BK54" s="2560" t="str"/>
-      <c r="BL54" s="2561" t="str"/>
-      <c r="BM54" s="2562" t="str"/>
     </row>
     <row r="55">
       <c r="A55" t="str">
         <v>3-к. квартира, 53 м², 1/3 эт.</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55" s="2549" t="str"/>
+      <c r="C55" s="2550" t="str"/>
+      <c r="D55" s="2551" t="str"/>
+      <c r="E55" s="2552" t="str"/>
+      <c r="F55" s="2553" t="str"/>
+      <c r="G55" s="2554" t="str"/>
+      <c r="H55" s="2555" t="str"/>
+      <c r="I55" s="2556" t="str"/>
+      <c r="J55" s="2557" t="str"/>
+      <c r="K55" s="2558" t="str"/>
+      <c r="L55" s="2559" t="str"/>
+      <c r="M55" s="2560" t="str"/>
+      <c r="N55" s="2561" t="str"/>
+      <c r="O55" s="2562" t="str"/>
+      <c r="P55" s="2563" t="str"/>
+      <c r="Q55" s="2564" t="str"/>
+      <c r="R55" s="2565" t="str"/>
+      <c r="S55" s="2566" t="str"/>
+      <c r="T55" s="2567" t="str"/>
+      <c r="U55" s="2568" t="str"/>
+      <c r="V55" t="str">
+        <v>3800</v>
+      </c>
+      <c r="W55" s="2569" t="str"/>
+      <c r="X55" s="2570" t="str"/>
+      <c r="Y55" s="2571" t="str"/>
+      <c r="Z55" s="2572" t="str"/>
+      <c r="AA55" s="2573" t="str"/>
+      <c r="AB55" s="2574" t="str"/>
+      <c r="AC55" s="2575" t="str"/>
+      <c r="AD55" s="2576" t="str"/>
+      <c r="AE55" s="2577" t="str"/>
+      <c r="AF55" s="2578" t="str"/>
+      <c r="AG55" s="2579" t="str"/>
+      <c r="AH55" s="2580" t="str"/>
+      <c r="AI55" s="2581" t="str"/>
+      <c r="AJ55" s="2582" t="str"/>
+      <c r="AK55" s="2583" t="str"/>
+      <c r="AL55" s="2584" t="str"/>
+      <c r="AM55" s="2585" t="str"/>
+      <c r="AN55" s="2586" t="str"/>
+      <c r="AO55" s="2587" t="str"/>
+      <c r="AP55" s="2588" t="str"/>
+      <c r="AQ55" s="2589" t="str"/>
+      <c r="AR55" s="2590" t="str"/>
+      <c r="AS55" s="2591" t="str"/>
+      <c r="AT55" s="2592" t="str"/>
+      <c r="AU55" s="2593" t="str"/>
+      <c r="AV55" s="2594" t="str"/>
+      <c r="AW55" s="2595" t="str"/>
+      <c r="AX55" s="2596" t="str"/>
+      <c r="AY55" s="2597" t="str"/>
+      <c r="AZ55" s="2598" t="str"/>
+      <c r="BA55" s="2599" t="str"/>
+      <c r="BB55" s="2600" t="str"/>
+      <c r="BC55" s="2601" t="str"/>
+      <c r="BD55" s="2602" t="str"/>
+      <c r="BE55" s="2603" t="str"/>
+      <c r="BF55" s="2604" t="str"/>
+      <c r="BG55" s="2605" t="str"/>
+      <c r="BH55" s="2606" t="str"/>
+      <c r="BI55" s="2607" t="str"/>
+      <c r="BJ55" s="2608" t="str"/>
+      <c r="BK55" s="2609" t="str"/>
+      <c r="BL55" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/3-k._kvartira_53_m_13_et._3455316793</v>
       </c>
-      <c r="C55" t="str">
-        <v>3-комнатные</v>
-      </c>
-      <c r="D55" s="2563" t="str"/>
-      <c r="E55" s="2564" t="str"/>
-      <c r="F55" s="2565" t="str"/>
-      <c r="G55" s="2566" t="str"/>
-      <c r="H55" s="2567" t="str"/>
-      <c r="I55" s="2568" t="str"/>
-      <c r="J55" s="2569" t="str"/>
-      <c r="K55" s="2570" t="str"/>
-      <c r="L55" s="2571" t="str"/>
-      <c r="M55" s="2572" t="str"/>
-      <c r="N55" s="2573" t="str"/>
-      <c r="O55" s="2574" t="str"/>
-      <c r="P55" s="2575" t="str"/>
-      <c r="Q55" s="2576" t="str"/>
-      <c r="R55" s="2577" t="str"/>
-      <c r="S55" s="2578" t="str"/>
-      <c r="T55" s="2579" t="str"/>
-      <c r="U55" s="2580" t="str"/>
-      <c r="V55" s="2581" t="str"/>
-      <c r="W55" s="2582" t="str"/>
-      <c r="X55" t="str">
-        <v>3800</v>
-      </c>
-      <c r="Y55" s="2583" t="str"/>
-      <c r="Z55" s="2584" t="str"/>
-      <c r="AA55" s="2585" t="str"/>
-      <c r="AB55" s="2586" t="str"/>
-      <c r="AC55" s="2587" t="str"/>
-      <c r="AD55" s="2588" t="str"/>
-      <c r="AE55" s="2589" t="str"/>
-      <c r="AF55" s="2590" t="str"/>
-      <c r="AG55" s="2591" t="str"/>
-      <c r="AH55" s="2592" t="str"/>
-      <c r="AI55" s="2593" t="str"/>
-      <c r="AJ55" s="2594" t="str"/>
-      <c r="AK55" s="2595" t="str"/>
-      <c r="AL55" s="2596" t="str"/>
-      <c r="AM55" s="2597" t="str"/>
-      <c r="AN55" s="2598" t="str"/>
-      <c r="AO55" s="2599" t="str"/>
-      <c r="AP55" s="2600" t="str"/>
-      <c r="AQ55" s="2601" t="str"/>
-      <c r="AR55" s="2602" t="str"/>
-      <c r="AS55" s="2603" t="str"/>
-      <c r="AT55" s="2604" t="str"/>
-      <c r="AU55" s="2605" t="str"/>
-      <c r="AV55" s="2606" t="str"/>
-      <c r="AW55" s="2607" t="str"/>
-      <c r="AX55" s="2608" t="str"/>
-      <c r="AY55" s="2609" t="str"/>
-      <c r="AZ55" s="2610" t="str"/>
-      <c r="BA55" s="2611" t="str"/>
-      <c r="BB55" s="2612" t="str"/>
-      <c r="BC55" s="2613" t="str"/>
-      <c r="BD55" s="2614" t="str"/>
-      <c r="BE55" s="2615" t="str"/>
-      <c r="BF55" s="2616" t="str"/>
-      <c r="BG55" s="2617" t="str"/>
-      <c r="BH55" s="2618" t="str"/>
-      <c r="BI55" s="2619" t="str"/>
-      <c r="BJ55" s="2620" t="str"/>
-      <c r="BK55" s="2621" t="str"/>
-      <c r="BL55" s="2622" t="str"/>
-      <c r="BM55" s="2623" t="str"/>
     </row>
     <row r="56">
       <c r="A56" t="str">
         <v>3-к. квартира, 72 м², 8/9 эт.</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="2610" t="str"/>
+      <c r="C56" s="2611" t="str"/>
+      <c r="D56" s="2612" t="str"/>
+      <c r="E56" s="2613" t="str"/>
+      <c r="F56" s="2614" t="str"/>
+      <c r="G56" s="2615" t="str"/>
+      <c r="H56" s="2616" t="str"/>
+      <c r="I56" s="2617" t="str"/>
+      <c r="J56" s="2618" t="str"/>
+      <c r="K56" s="2619" t="str"/>
+      <c r="L56" s="2620" t="str"/>
+      <c r="M56" s="2621" t="str"/>
+      <c r="N56" s="2622" t="str"/>
+      <c r="O56" s="2623" t="str"/>
+      <c r="P56" s="2624" t="str"/>
+      <c r="Q56" s="2625" t="str"/>
+      <c r="R56" s="2626" t="str"/>
+      <c r="S56" s="2627" t="str"/>
+      <c r="T56" s="2628" t="str"/>
+      <c r="U56" s="2629" t="str"/>
+      <c r="V56" s="2630" t="str"/>
+      <c r="W56" s="2631" t="str"/>
+      <c r="X56" s="2632" t="str"/>
+      <c r="Y56" s="2633" t="str"/>
+      <c r="Z56" s="2634" t="str"/>
+      <c r="AA56" s="2635" t="str"/>
+      <c r="AB56" s="2636" t="str"/>
+      <c r="AC56" s="2637" t="str"/>
+      <c r="AD56" s="2638" t="str"/>
+      <c r="AE56" s="2639" t="str"/>
+      <c r="AF56" s="2640" t="str"/>
+      <c r="AG56" s="2641" t="str"/>
+      <c r="AH56" s="2642" t="str"/>
+      <c r="AI56" s="2643" t="str"/>
+      <c r="AJ56" s="2644" t="str"/>
+      <c r="AK56" s="2645" t="str"/>
+      <c r="AL56" s="2646" t="str"/>
+      <c r="AM56" s="2647" t="str"/>
+      <c r="AN56" s="2648" t="str"/>
+      <c r="AO56" s="2649" t="str"/>
+      <c r="AP56" s="2650" t="str"/>
+      <c r="AQ56" s="2651" t="str"/>
+      <c r="AR56" s="2652" t="str"/>
+      <c r="AS56" s="2653" t="str"/>
+      <c r="AT56" s="2654" t="str"/>
+      <c r="AU56" s="2655" t="str"/>
+      <c r="AV56" s="2656" t="str"/>
+      <c r="AW56" s="2657" t="str"/>
+      <c r="AX56" s="2658" t="str"/>
+      <c r="AY56" s="2659" t="str"/>
+      <c r="AZ56" s="2660" t="str"/>
+      <c r="BA56" s="2661" t="str"/>
+      <c r="BB56" s="2662" t="str"/>
+      <c r="BC56" s="2663" t="str"/>
+      <c r="BD56" s="2664" t="str"/>
+      <c r="BE56" s="2665" t="str"/>
+      <c r="BF56" s="2666" t="str"/>
+      <c r="BG56" s="2667" t="str"/>
+      <c r="BH56" s="2668" t="str"/>
+      <c r="BI56" s="2669" t="str"/>
+      <c r="BJ56" s="2670" t="str"/>
+      <c r="BK56" s="2671" t="str"/>
+      <c r="BL56" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/3-k._kvartira_72_m_89_et._2623204280</v>
       </c>
-      <c r="C56" t="str">
-        <v>3-комнатные</v>
-      </c>
-      <c r="D56" s="2624" t="str"/>
-      <c r="E56" s="2625" t="str"/>
-      <c r="F56" s="2626" t="str"/>
-      <c r="G56" s="2627" t="str"/>
-      <c r="H56" s="2628" t="str"/>
-      <c r="I56" s="2629" t="str"/>
-      <c r="J56" s="2630" t="str"/>
-      <c r="K56" s="2631" t="str"/>
-      <c r="L56" s="2632" t="str"/>
-      <c r="M56" s="2633" t="str"/>
-      <c r="N56" s="2634" t="str"/>
-      <c r="O56" s="2635" t="str"/>
-      <c r="P56" s="2636" t="str"/>
-      <c r="Q56" s="2637" t="str"/>
-      <c r="R56" s="2638" t="str"/>
-      <c r="S56" s="2639" t="str"/>
-      <c r="T56" s="2640" t="str"/>
-      <c r="U56" s="2641" t="str"/>
-      <c r="V56" s="2642" t="str"/>
-      <c r="W56" s="2643" t="str"/>
-      <c r="X56" s="2644" t="str"/>
-      <c r="Y56" s="2645" t="str"/>
-      <c r="Z56" s="2646" t="str"/>
-      <c r="AA56" s="2647" t="str"/>
-      <c r="AB56" s="2648" t="str"/>
-      <c r="AC56" s="2649" t="str"/>
-      <c r="AD56" s="2650" t="str"/>
-      <c r="AE56" s="2651" t="str"/>
-      <c r="AF56" s="2652" t="str"/>
-      <c r="AG56" s="2653" t="str"/>
-      <c r="AH56" s="2654" t="str"/>
-      <c r="AI56" s="2655" t="str"/>
-      <c r="AJ56" s="2656" t="str"/>
-      <c r="AK56" s="2657" t="str"/>
-      <c r="AL56" s="2658" t="str"/>
-      <c r="AM56" s="2659" t="str"/>
-      <c r="AN56" s="2660" t="str"/>
-      <c r="AO56" s="2661" t="str"/>
-      <c r="AP56" s="2662" t="str"/>
-      <c r="AQ56" s="2663" t="str"/>
-      <c r="AR56" s="2664" t="str"/>
-      <c r="AS56" s="2665" t="str"/>
-      <c r="AT56" s="2666" t="str"/>
-      <c r="AU56" s="2667" t="str"/>
-      <c r="AV56" s="2668" t="str"/>
-      <c r="AW56" s="2669" t="str"/>
-      <c r="AX56" s="2670" t="str"/>
-      <c r="AY56" s="2671" t="str"/>
-      <c r="AZ56" s="2672" t="str"/>
-      <c r="BA56" s="2673" t="str"/>
-      <c r="BB56" s="2674" t="str"/>
-      <c r="BC56" s="2675" t="str"/>
-      <c r="BD56" s="2676" t="str"/>
-      <c r="BE56" s="2677" t="str"/>
-      <c r="BF56" s="2678" t="str"/>
-      <c r="BG56" s="2679" t="str"/>
-      <c r="BH56" s="2680" t="str"/>
-      <c r="BI56" s="2681" t="str"/>
-      <c r="BJ56" s="2682" t="str"/>
-      <c r="BK56" s="2683" t="str"/>
-      <c r="BL56" s="2684" t="str"/>
-      <c r="BM56" s="2685" t="str"/>
     </row>
     <row r="57">
       <c r="A57" t="str">
         <v>3-к. квартира, 59 м², 1/5 эт.</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57" s="2672" t="str"/>
+      <c r="C57" s="2673" t="str"/>
+      <c r="D57" s="2674" t="str"/>
+      <c r="E57" s="2675" t="str"/>
+      <c r="F57" s="2676" t="str"/>
+      <c r="G57" s="2677" t="str"/>
+      <c r="H57" s="2678" t="str"/>
+      <c r="I57" s="2679" t="str"/>
+      <c r="J57" s="2680" t="str"/>
+      <c r="K57" s="2681" t="str"/>
+      <c r="L57" s="2682" t="str"/>
+      <c r="M57" s="2683" t="str"/>
+      <c r="N57" s="2684" t="str"/>
+      <c r="O57" s="2685" t="str"/>
+      <c r="P57" s="2686" t="str"/>
+      <c r="Q57" s="2687" t="str"/>
+      <c r="R57" s="2688" t="str"/>
+      <c r="S57" s="2689" t="str"/>
+      <c r="T57" s="2690" t="str"/>
+      <c r="U57" s="2691" t="str"/>
+      <c r="V57" s="2692" t="str"/>
+      <c r="W57" s="2693" t="str"/>
+      <c r="X57" s="2694" t="str"/>
+      <c r="Y57" s="2695" t="str"/>
+      <c r="Z57" s="2696" t="str"/>
+      <c r="AA57" s="2697" t="str"/>
+      <c r="AB57" s="2698" t="str"/>
+      <c r="AC57" s="2699" t="str"/>
+      <c r="AD57" s="2700" t="str"/>
+      <c r="AE57" s="2701" t="str"/>
+      <c r="AF57" s="2702" t="str"/>
+      <c r="AG57" s="2703" t="str"/>
+      <c r="AH57" s="2704" t="str"/>
+      <c r="AI57" s="2705" t="str"/>
+      <c r="AJ57" s="2706" t="str"/>
+      <c r="AK57" s="2707" t="str"/>
+      <c r="AL57" s="2708" t="str"/>
+      <c r="AM57" s="2709" t="str"/>
+      <c r="AN57" s="2710" t="str"/>
+      <c r="AO57" s="2711" t="str"/>
+      <c r="AP57" s="2712" t="str"/>
+      <c r="AQ57" s="2713" t="str"/>
+      <c r="AR57" s="2714" t="str"/>
+      <c r="AS57" s="2715" t="str"/>
+      <c r="AT57" s="2716" t="str"/>
+      <c r="AU57" s="2717" t="str"/>
+      <c r="AV57" s="2718" t="str"/>
+      <c r="AW57" s="2719" t="str"/>
+      <c r="AX57" s="2720" t="str"/>
+      <c r="AY57" s="2721" t="str"/>
+      <c r="AZ57" s="2722" t="str"/>
+      <c r="BA57" s="2723" t="str"/>
+      <c r="BB57" s="2724" t="str"/>
+      <c r="BC57" s="2725" t="str"/>
+      <c r="BD57" s="2726" t="str"/>
+      <c r="BE57" s="2727" t="str"/>
+      <c r="BF57" s="2728" t="str"/>
+      <c r="BG57" s="2729" t="str"/>
+      <c r="BH57" s="2730" t="str"/>
+      <c r="BI57" s="2731" t="str"/>
+      <c r="BJ57" s="2732" t="str"/>
+      <c r="BK57" s="2733" t="str"/>
+      <c r="BL57" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/3-k._kvartira_59_m_15_et._2080244288</v>
       </c>
-      <c r="C57" t="str">
-        <v>3-комнатные</v>
-      </c>
-      <c r="D57" s="2686" t="str"/>
-      <c r="E57" s="2687" t="str"/>
-      <c r="F57" s="2688" t="str"/>
-      <c r="G57" s="2689" t="str"/>
-      <c r="H57" s="2690" t="str"/>
-      <c r="I57" s="2691" t="str"/>
-      <c r="J57" s="2692" t="str"/>
-      <c r="K57" s="2693" t="str"/>
-      <c r="L57" s="2694" t="str"/>
-      <c r="M57" s="2695" t="str"/>
-      <c r="N57" s="2696" t="str"/>
-      <c r="O57" s="2697" t="str"/>
-      <c r="P57" s="2698" t="str"/>
-      <c r="Q57" s="2699" t="str"/>
-      <c r="R57" s="2700" t="str"/>
-      <c r="S57" s="2701" t="str"/>
-      <c r="T57" s="2702" t="str"/>
-      <c r="U57" s="2703" t="str"/>
-      <c r="V57" s="2704" t="str"/>
-      <c r="W57" s="2705" t="str"/>
-      <c r="X57" s="2706" t="str"/>
-      <c r="Y57" s="2707" t="str"/>
-      <c r="Z57" s="2708" t="str"/>
-      <c r="AA57" s="2709" t="str"/>
-      <c r="AB57" s="2710" t="str"/>
-      <c r="AC57" s="2711" t="str"/>
-      <c r="AD57" s="2712" t="str"/>
-      <c r="AE57" s="2713" t="str"/>
-      <c r="AF57" s="2714" t="str"/>
-      <c r="AG57" s="2715" t="str"/>
-      <c r="AH57" s="2716" t="str"/>
-      <c r="AI57" s="2717" t="str"/>
-      <c r="AJ57" s="2718" t="str"/>
-      <c r="AK57" s="2719" t="str"/>
-      <c r="AL57" s="2720" t="str"/>
-      <c r="AM57" s="2721" t="str"/>
-      <c r="AN57" s="2722" t="str"/>
-      <c r="AO57" s="2723" t="str"/>
-      <c r="AP57" s="2724" t="str"/>
-      <c r="AQ57" s="2725" t="str"/>
-      <c r="AR57" s="2726" t="str"/>
-      <c r="AS57" s="2727" t="str"/>
-      <c r="AT57" s="2728" t="str"/>
-      <c r="AU57" s="2729" t="str"/>
-      <c r="AV57" s="2730" t="str"/>
-      <c r="AW57" s="2731" t="str"/>
-      <c r="AX57" s="2732" t="str"/>
-      <c r="AY57" s="2733" t="str"/>
-      <c r="AZ57" s="2734" t="str"/>
-      <c r="BA57" s="2735" t="str"/>
-      <c r="BB57" s="2736" t="str"/>
-      <c r="BC57" s="2737" t="str"/>
-      <c r="BD57" s="2738" t="str"/>
-      <c r="BE57" s="2739" t="str"/>
-      <c r="BF57" s="2740" t="str"/>
-      <c r="BG57" s="2741" t="str"/>
-      <c r="BH57" s="2742" t="str"/>
-      <c r="BI57" s="2743" t="str"/>
-      <c r="BJ57" s="2744" t="str"/>
-      <c r="BK57" s="2745" t="str"/>
-      <c r="BL57" s="2746" t="str"/>
-      <c r="BM57" s="2747" t="str"/>
     </row>
     <row r="58">
       <c r="A58" t="str">
         <v>3-к. квартира, 53 м², 1/5 эт.</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58" s="2734" t="str"/>
+      <c r="C58" s="2735" t="str"/>
+      <c r="D58" s="2736" t="str"/>
+      <c r="E58" s="2737" t="str"/>
+      <c r="F58" s="2738" t="str"/>
+      <c r="G58" s="2739" t="str"/>
+      <c r="H58" s="2740" t="str"/>
+      <c r="I58" s="2741" t="str"/>
+      <c r="J58" s="2742" t="str"/>
+      <c r="K58" s="2743" t="str"/>
+      <c r="L58" s="2744" t="str"/>
+      <c r="M58" s="2745" t="str"/>
+      <c r="N58" s="2746" t="str"/>
+      <c r="O58" s="2747" t="str"/>
+      <c r="P58" s="2748" t="str"/>
+      <c r="Q58" s="2749" t="str"/>
+      <c r="R58" s="2750" t="str"/>
+      <c r="S58" s="2751" t="str"/>
+      <c r="T58" s="2752" t="str"/>
+      <c r="U58" s="2753" t="str"/>
+      <c r="V58" s="2754" t="str"/>
+      <c r="W58" s="2755" t="str"/>
+      <c r="X58" s="2756" t="str"/>
+      <c r="Y58" s="2757" t="str"/>
+      <c r="Z58" s="2758" t="str"/>
+      <c r="AA58" s="2759" t="str"/>
+      <c r="AB58" s="2760" t="str"/>
+      <c r="AC58" s="2761" t="str"/>
+      <c r="AD58" s="2762" t="str"/>
+      <c r="AE58" s="2763" t="str"/>
+      <c r="AF58" s="2764" t="str"/>
+      <c r="AG58" s="2765" t="str"/>
+      <c r="AH58" s="2766" t="str"/>
+      <c r="AI58" s="2767" t="str"/>
+      <c r="AJ58" s="2768" t="str"/>
+      <c r="AK58" s="2769" t="str"/>
+      <c r="AL58" s="2770" t="str"/>
+      <c r="AM58" s="2771" t="str"/>
+      <c r="AN58" s="2772" t="str"/>
+      <c r="AO58" s="2773" t="str"/>
+      <c r="AP58" s="2774" t="str"/>
+      <c r="AQ58" s="2775" t="str"/>
+      <c r="AR58" s="2776" t="str"/>
+      <c r="AS58" s="2777" t="str"/>
+      <c r="AT58" s="2778" t="str"/>
+      <c r="AU58" s="2779" t="str"/>
+      <c r="AV58" s="2780" t="str"/>
+      <c r="AW58" s="2781" t="str"/>
+      <c r="AX58" s="2782" t="str"/>
+      <c r="AY58" s="2783" t="str"/>
+      <c r="AZ58" s="2784" t="str"/>
+      <c r="BA58" s="2785" t="str"/>
+      <c r="BB58" s="2786" t="str"/>
+      <c r="BC58" s="2787" t="str"/>
+      <c r="BD58" s="2788" t="str"/>
+      <c r="BE58" s="2789" t="str"/>
+      <c r="BF58" s="2790" t="str"/>
+      <c r="BG58" s="2791" t="str"/>
+      <c r="BH58" s="2792" t="str"/>
+      <c r="BI58" s="2793" t="str"/>
+      <c r="BJ58" s="2794" t="str"/>
+      <c r="BK58" s="2795" t="str"/>
+      <c r="BL58" t="str">
         <v>https://www.avito.ru/amurskaya_oblast_svobodnyy/kvartiry/3-k._kvartira_53_m_15_et._3014842892</v>
       </c>
-      <c r="C58" t="str">
-        <v>3-комнатные</v>
-      </c>
-      <c r="D58" s="2748" t="str"/>
-      <c r="E58" s="2749" t="str"/>
-      <c r="F58" s="2750" t="str"/>
-      <c r="G58" s="2751" t="str"/>
-      <c r="H58" s="2752" t="str"/>
-      <c r="I58" s="2753" t="str"/>
-      <c r="J58" s="2754" t="str"/>
-      <c r="K58" s="2755" t="str"/>
-      <c r="L58" s="2756" t="str"/>
-      <c r="M58" s="2757" t="str"/>
-      <c r="N58" s="2758" t="str"/>
-      <c r="O58" s="2759" t="str"/>
-      <c r="P58" s="2760" t="str"/>
-      <c r="Q58" s="2761" t="str"/>
-      <c r="R58" s="2762" t="str"/>
-      <c r="S58" s="2763" t="str"/>
-      <c r="T58" s="2764" t="str"/>
-      <c r="U58" s="2765" t="str"/>
-      <c r="V58" s="2766" t="str"/>
-      <c r="W58" s="2767" t="str"/>
-      <c r="X58" s="2768" t="str"/>
-      <c r="Y58" s="2769" t="str"/>
-      <c r="Z58" s="2770" t="str"/>
-      <c r="AA58" s="2771" t="str"/>
-      <c r="AB58" s="2772" t="str"/>
-      <c r="AC58" s="2773" t="str"/>
-      <c r="AD58" s="2774" t="str"/>
-      <c r="AE58" s="2775" t="str"/>
-      <c r="AF58" s="2776" t="str"/>
-      <c r="AG58" s="2777" t="str"/>
-      <c r="AH58" s="2778" t="str"/>
-      <c r="AI58" s="2779" t="str"/>
-      <c r="AJ58" s="2780" t="str"/>
-      <c r="AK58" s="2781" t="str"/>
-      <c r="AL58" s="2782" t="str"/>
-      <c r="AM58" s="2783" t="str"/>
-      <c r="AN58" s="2784" t="str"/>
-      <c r="AO58" s="2785" t="str"/>
-      <c r="AP58" s="2786" t="str"/>
-      <c r="AQ58" s="2787" t="str"/>
-      <c r="AR58" s="2788" t="str"/>
-      <c r="AS58" s="2789" t="str"/>
-      <c r="AT58" s="2790" t="str"/>
-      <c r="AU58" s="2791" t="str"/>
-      <c r="AV58" s="2792" t="str"/>
-      <c r="AW58" s="2793" t="str"/>
-      <c r="AX58" s="2794" t="str"/>
-      <c r="AY58" s="2795" t="str"/>
-      <c r="AZ58" s="2796" t="str"/>
-      <c r="BA58" s="2797" t="str"/>
-      <c r="BB58" s="2798" t="str"/>
-      <c r="BC58" s="2799" t="str"/>
-      <c r="BD58" s="2800" t="str"/>
-      <c r="BE58" s="2801" t="str"/>
-      <c r="BF58" s="2802" t="str"/>
-      <c r="BG58" s="2803" t="str"/>
-      <c r="BH58" s="2804" t="str"/>
-      <c r="BI58" s="2805" t="str"/>
-      <c r="BJ58" s="2806" t="str"/>
-      <c r="BK58" s="2807" t="str"/>
-      <c r="BL58" s="2808" t="str"/>
-      <c r="BM58" s="2809" t="str"/>
     </row>
   </sheetData>
+  <autoFilter ref="BK0:BK58"/>
   <mergeCells>
-    <mergeCell ref="D1:AH1"/>
-    <mergeCell ref="AI1:BM1"/>
+    <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="AG1:BK1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
